--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aalborg\EIT6\Rocket Project\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>I2 [A]</t>
   </si>
@@ -222,6 +222,53 @@
   <si>
     <t>PWM</t>
   </si>
+  <si>
+    <t>Test of angular velocity to get Ke (try 3 Motor only)</t>
+  </si>
+  <si>
+    <t>Motor Parameters</t>
+  </si>
+  <si>
+    <t>Lm =</t>
+  </si>
+  <si>
+    <t>Jm =</t>
+  </si>
+  <si>
+    <t>Bm =</t>
+  </si>
+  <si>
+    <r>
+      <t>b = Kt*I/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Test of the torque to get Kt (torquemeter) NEW</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,6 +473,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11125,6 +11176,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>608059</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>449270</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B34C85-5D30-46AC-9229-BA1CF1B34DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37545817" y="1108364"/>
+          <a:ext cx="1665393" cy="354060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11425,10 +11520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BA172"/>
+  <dimension ref="A5:BK172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV31" sqref="AV31"/>
+    <sheetView tabSelected="1" topLeftCell="AQ26" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="BI39" sqref="BI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11440,10 +11535,15 @@
     <col min="16" max="16" width="17.44140625" customWidth="1"/>
     <col min="48" max="48" width="10.6640625" customWidth="1"/>
     <col min="49" max="49" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.33203125" customWidth="1"/>
     <col min="53" max="53" width="11.5546875" customWidth="1"/>
+    <col min="54" max="54" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AW5" s="17"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -11459,8 +11559,9 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
+      <c r="AW6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -11478,8 +11579,9 @@
         <f>E7/A7</f>
         <v>1.44</v>
       </c>
+      <c r="AW7" s="25"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11497,8 +11599,12 @@
         <f t="shared" ref="F8:F20" si="0">E8/A8</f>
         <v>1.46</v>
       </c>
+      <c r="AW8" s="17"/>
+      <c r="AY8" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -11516,8 +11622,15 @@
         <f>E9/A9</f>
         <v>1.45</v>
       </c>
+      <c r="AW9" s="17"/>
+      <c r="AY9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ9">
+        <v>1.02</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -11535,8 +11648,12 @@
         <f t="shared" si="0"/>
         <v>1.3725000000000001</v>
       </c>
+      <c r="AW10" s="17"/>
+      <c r="AY10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -11554,8 +11671,12 @@
         <f t="shared" si="0"/>
         <v>1.232</v>
       </c>
+      <c r="AW11" s="17"/>
+      <c r="AY11" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11573,8 +11694,12 @@
         <f t="shared" si="0"/>
         <v>1.0383333333333333</v>
       </c>
+      <c r="AW12" s="17"/>
+      <c r="AY12" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.5</v>
       </c>
@@ -11592,8 +11717,12 @@
         <f t="shared" si="0"/>
         <v>0.95000000000000007</v>
       </c>
+      <c r="AW13" s="17"/>
+      <c r="AY13" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11611,8 +11740,12 @@
         <f t="shared" si="0"/>
         <v>0.91874999999999996</v>
       </c>
+      <c r="AW14" s="17"/>
+      <c r="AY14" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.5</v>
       </c>
@@ -11630,8 +11763,10 @@
         <f t="shared" si="0"/>
         <v>0.85444444444444434</v>
       </c>
+      <c r="AW15" s="17"/>
+      <c r="AY15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -11649,8 +11784,10 @@
         <f t="shared" si="0"/>
         <v>0.86799999999999999</v>
       </c>
+      <c r="AW16" s="17"/>
+      <c r="AY16" s="5"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.5</v>
       </c>
@@ -11668,8 +11805,9 @@
         <f t="shared" si="0"/>
         <v>0.83636363636363631</v>
       </c>
+      <c r="AW17" s="17"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11687,8 +11825,9 @@
         <f t="shared" si="0"/>
         <v>0.79083333333333339</v>
       </c>
+      <c r="AW18" s="17"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6.5</v>
       </c>
@@ -11706,8 +11845,9 @@
         <f t="shared" si="0"/>
         <v>0.7846153846153846</v>
       </c>
+      <c r="AW19" s="17"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -11725,8 +11865,9 @@
         <f t="shared" si="0"/>
         <v>0.78928571428571437</v>
       </c>
+      <c r="AW20" s="17"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7.5</v>
       </c>
@@ -11744,8 +11885,9 @@
         <f>E21/A21</f>
         <v>0.77399999999999991</v>
       </c>
+      <c r="AW21" s="17"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -11763,8 +11905,9 @@
         <f>E22/A22</f>
         <v>0.73499999999999999</v>
       </c>
+      <c r="AW22" s="17"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.5</v>
       </c>
@@ -11782,8 +11925,9 @@
         <f>E23/A23</f>
         <v>0.71882352941176475</v>
       </c>
+      <c r="AW23" s="17"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -11801,8 +11945,9 @@
         <f>E24/A24</f>
         <v>0.71111111111111114</v>
       </c>
+      <c r="AW24" s="17"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.5</v>
       </c>
@@ -11820,72 +11965,119 @@
         <f>E25/A25</f>
         <v>0.69789473684210523</v>
       </c>
+      <c r="AW25" s="17"/>
     </row>
-    <row r="28" spans="1:53" ht="21" x14ac:dyDescent="0.4">
-      <c r="K28" s="24" t="s">
+    <row r="26" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AW26" s="17"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AW27" s="17"/>
+    </row>
+    <row r="28" spans="1:59" ht="21" x14ac:dyDescent="0.4">
+      <c r="K28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
       <c r="R28" t="s">
         <v>24</v>
       </c>
-      <c r="AE28" s="24" t="s">
+      <c r="AE28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AT28" s="24" t="s">
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AN28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="24"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AW28" s="17"/>
+      <c r="AY28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
     </row>
-    <row r="29" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="26" t="s">
+    <row r="29" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW29" s="17"/>
+    </row>
+    <row r="30" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
-      <c r="L30" s="29" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="L30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
-      <c r="AT30" s="2" t="s">
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
+      <c r="AN30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AU30" s="2" t="s">
+      <c r="AO30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AV30" s="2" t="s">
+      <c r="AP30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AW30" s="2" t="s">
+      <c r="AQ30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AX30" s="2" t="s">
+      <c r="AR30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BA30" s="21" t="s">
+      <c r="AU30" s="21" t="s">
         <v>53</v>
       </c>
+      <c r="AW30" s="17"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG30" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="31" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:59" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
@@ -11935,28 +12127,53 @@
       <c r="AK31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AT31">
+      <c r="AN31">
         <v>155</v>
       </c>
-      <c r="AU31">
+      <c r="AO31">
         <v>2.72</v>
       </c>
-      <c r="AV31">
+      <c r="AP31">
         <v>6.8</v>
       </c>
-      <c r="AW31" s="23">
+      <c r="AQ31" s="23">
         <v>930</v>
       </c>
-      <c r="AX31" s="1">
-        <f>(AW31*2*PI())/60*(12/40)^3</f>
+      <c r="AR31" s="1">
+        <f t="shared" ref="AR31:AR39" si="2">(AQ31*2*PI())/60*(12/40)^3</f>
         <v>2.6295130510546567</v>
       </c>
-      <c r="BA31" s="10">
-        <f>(AV31-6.39*AU31)/AX31</f>
+      <c r="AU31" s="10">
+        <f t="shared" ref="AU31:AU39" si="3">(AP31-6.39*AO31)/AR31</f>
         <v>-4.0238628957388922</v>
       </c>
+      <c r="AW31" s="17"/>
+      <c r="AY31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ31">
+        <v>3</v>
+      </c>
+      <c r="BA31">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="BC31">
+        <v>500</v>
+      </c>
+      <c r="BD31">
+        <f>BC31</f>
+        <v>500</v>
+      </c>
+      <c r="BE31" s="1">
+        <f>(BD31*2*PI())/60</f>
+        <v>52.359877559829883</v>
+      </c>
+      <c r="BG31" s="10">
+        <f>(AZ31-$AZ$9*BA31)/BE31</f>
+        <v>4.3367175513452018E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>4.5</v>
       </c>
@@ -12017,28 +12234,51 @@
         <f>(AC32-6.39*AD32)/AH32</f>
         <v>-1.3394367334547998E-2</v>
       </c>
-      <c r="AT32">
+      <c r="AN32">
         <v>156</v>
       </c>
-      <c r="AU32">
+      <c r="AO32">
         <v>2.81</v>
       </c>
-      <c r="AV32">
+      <c r="AP32">
         <v>7.5</v>
       </c>
-      <c r="AW32" s="23">
+      <c r="AQ32" s="23">
         <v>1210</v>
       </c>
-      <c r="AX32" s="1">
-        <f t="shared" ref="AX32:AX39" si="2">(AW32*2*PI())/60*(12/40)^3</f>
+      <c r="AR32" s="1">
+        <f t="shared" si="2"/>
         <v>3.4211943997592846</v>
       </c>
-      <c r="BA32" s="10">
-        <f t="shared" ref="BA32:BA39" si="3">(AV32-6.39*AU32)/AX32</f>
+      <c r="AU32" s="10">
+        <f t="shared" si="3"/>
         <v>-3.0562133507337896</v>
       </c>
+      <c r="AW32" s="17"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32">
+        <v>3.5</v>
+      </c>
+      <c r="BA32">
+        <v>0.745</v>
+      </c>
+      <c r="BC32">
+        <v>645</v>
+      </c>
+      <c r="BD32">
+        <f>BC32</f>
+        <v>645</v>
+      </c>
+      <c r="BE32" s="1">
+        <f t="shared" ref="BE32:BE49" si="4">(BD32*2*PI())/60</f>
+        <v>67.54424205218055</v>
+      </c>
+      <c r="BG32" s="10">
+        <f t="shared" ref="BG32:BG49" si="5">(AZ32-$AZ$9*BA32)/BE32</f>
+        <v>4.0567484610800224E-2</v>
+      </c>
     </row>
-    <row r="33" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>5</v>
       </c>
@@ -12049,30 +12289,30 @@
         <v>2.8</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" ref="I33:I51" si="4">H33/0.033</f>
+        <f t="shared" ref="I33:I51" si="6">H33/0.033</f>
         <v>84.848484848484844</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ref="J33:J51" si="5">(I33*2*PI())/60</f>
+        <f t="shared" ref="J33:J51" si="7">(I33*2*PI())/60</f>
         <v>8.885312555607495</v>
       </c>
       <c r="L33">
         <v>21</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33:M51" si="6">L33/0.1</f>
+        <f t="shared" ref="M33:M51" si="8">L33/0.1</f>
         <v>210</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" ref="N33:N51" si="7">(M33*2*PI())/60</f>
+        <f t="shared" ref="N33:N51" si="9">(M33*2*PI())/60</f>
         <v>21.991148575128552</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" ref="P33:P51" si="8">(E33+0.8*F33)/J33</f>
+        <f t="shared" ref="P33:P51" si="10">(E33+0.8*F33)/J33</f>
         <v>0.63115393689339694</v>
       </c>
       <c r="Q33" s="10">
-        <f t="shared" ref="Q33:Q51" si="9">(E33+6.39*F33)/N33</f>
+        <f t="shared" ref="Q33:Q51" si="11">(E33+6.39*F33)/N33</f>
         <v>0.44819850888313068</v>
       </c>
       <c r="AB33" s="17"/>
@@ -12090,35 +12330,58 @@
         <v>722</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" ref="AH33:AH51" si="10">(AG33*2*PI())/60</f>
+        <f t="shared" ref="AH33:AH51" si="12">(AG33*2*PI())/60</f>
         <v>75.607663196394341</v>
       </c>
       <c r="AK33" s="10">
-        <f t="shared" ref="AK33:AK51" si="11">(AC33-6.39*AD33)/AH33</f>
+        <f t="shared" ref="AK33:AK51" si="13">(AC33-6.39*AD33)/AH33</f>
         <v>-4.7138078989987378E-3</v>
       </c>
-      <c r="AT33">
+      <c r="AN33">
         <v>157</v>
       </c>
-      <c r="AU33">
+      <c r="AO33">
         <v>2.91</v>
       </c>
-      <c r="AV33">
+      <c r="AP33">
         <v>8.5</v>
       </c>
-      <c r="AW33" s="23">
+      <c r="AQ33" s="23">
         <v>1500</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AR33" s="1">
         <f t="shared" si="2"/>
         <v>4.2411500823462207</v>
       </c>
-      <c r="BA33" s="10">
+      <c r="AU33" s="10">
         <f t="shared" si="3"/>
         <v>-2.3802270148420357</v>
       </c>
+      <c r="AW33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33">
+        <v>4</v>
+      </c>
+      <c r="BA33">
+        <v>0.77</v>
+      </c>
+      <c r="BC33">
+        <v>794</v>
+      </c>
+      <c r="BD33">
+        <f>BC33</f>
+        <v>794</v>
+      </c>
+      <c r="BE33" s="1">
+        <f t="shared" si="4"/>
+        <v>83.147485565009859</v>
+      </c>
+      <c r="BG33" s="10">
+        <f t="shared" si="5"/>
+        <v>3.8661421667244844E-2</v>
+      </c>
     </row>
-    <row r="34" spans="5:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:59" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>5.5</v>
       </c>
@@ -12129,7 +12392,7 @@
         <v>3.2</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96.969696969696969</v>
       </c>
       <c r="J34" s="1">
@@ -12140,19 +12403,19 @@
         <v>24</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.132741228718341</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.60307388923738714</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.41715306359101234</v>
       </c>
       <c r="AB34" s="17"/>
@@ -12170,35 +12433,60 @@
         <v>856</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>89.640110382428759</v>
       </c>
       <c r="AK34" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7626038090084274E-4</v>
       </c>
-      <c r="AT34">
+      <c r="AN34">
         <v>158</v>
       </c>
-      <c r="AU34">
+      <c r="AO34">
         <v>3.01</v>
       </c>
-      <c r="AV34">
+      <c r="AP34">
         <v>9.5</v>
       </c>
-      <c r="AW34" s="23">
+      <c r="AQ34" s="23">
         <v>1770</v>
       </c>
-      <c r="AX34" s="1">
+      <c r="AR34" s="1">
         <f t="shared" si="2"/>
         <v>5.00455709716854</v>
       </c>
-      <c r="BA34" s="10">
+      <c r="AU34" s="10">
         <f t="shared" si="3"/>
         <v>-1.9450072825639673</v>
       </c>
+      <c r="AW34" s="17"/>
+      <c r="AY34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ34">
+        <v>4.5</v>
+      </c>
+      <c r="BA34">
+        <v>0.79</v>
+      </c>
+      <c r="BC34">
+        <v>94.3</v>
+      </c>
+      <c r="BD34">
+        <f t="shared" ref="BD34:BD49" si="14">BC34/0.1</f>
+        <v>942.99999999999989</v>
+      </c>
+      <c r="BE34" s="1">
+        <f t="shared" si="4"/>
+        <v>98.750729077839154</v>
+      </c>
+      <c r="BG34" s="10">
+        <f t="shared" si="5"/>
+        <v>3.7409344057481218E-2</v>
+      </c>
     </row>
-    <row r="35" spans="5:53" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:59" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>6</v>
       </c>
@@ -12209,30 +12497,30 @@
         <v>3.7</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>112.12121212121212</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.741305877052762</v>
       </c>
       <c r="L35">
         <v>27</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28.274333882308138</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.56484347392410561</v>
       </c>
       <c r="Q35" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39074660594968197</v>
       </c>
       <c r="AB35" s="16" t="s">
@@ -12248,39 +12536,62 @@
         <v>112</v>
       </c>
       <c r="AG35">
-        <f t="shared" ref="AG35:AG51" si="12">AF35/0.1</f>
+        <f t="shared" ref="AG35:AG51" si="15">AF35/0.1</f>
         <v>1120</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>117.28612573401894</v>
       </c>
       <c r="AK35" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.8529706491014751E-3</v>
       </c>
-      <c r="AT35">
+      <c r="AN35">
         <v>159</v>
       </c>
-      <c r="AU35">
+      <c r="AO35">
         <v>3.11</v>
       </c>
-      <c r="AV35">
+      <c r="AP35">
         <v>10.5</v>
       </c>
-      <c r="AW35" s="23">
+      <c r="AQ35" s="23">
         <v>2110</v>
       </c>
-      <c r="AX35" s="1">
+      <c r="AR35" s="1">
         <f t="shared" si="2"/>
         <v>5.9658844491670173</v>
       </c>
-      <c r="BA35" s="10">
+      <c r="AU35" s="10">
         <f t="shared" si="3"/>
         <v>-1.5710830606698529</v>
       </c>
+      <c r="AW35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35">
+        <v>5</v>
+      </c>
+      <c r="BA35">
+        <v>0.83</v>
+      </c>
+      <c r="BC35">
+        <v>108</v>
+      </c>
+      <c r="BD35">
+        <f t="shared" si="14"/>
+        <v>1080</v>
+      </c>
+      <c r="BE35" s="1">
+        <f t="shared" si="4"/>
+        <v>113.09733552923255</v>
+      </c>
+      <c r="BG35" s="10">
+        <f t="shared" si="5"/>
+        <v>3.672411892432656E-2</v>
+      </c>
     </row>
-    <row r="36" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>6.5</v>
       </c>
@@ -12291,30 +12602,30 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>124.24242424242422</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.010636242139546</v>
       </c>
       <c r="L36">
         <v>30</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31.415926535897931</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54970409339673332</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37267244009568939</v>
       </c>
       <c r="AB36" s="17"/>
@@ -12328,39 +12639,62 @@
         <v>127</v>
       </c>
       <c r="AG36">
+        <f t="shared" si="15"/>
+        <v>1270</v>
+      </c>
+      <c r="AH36" s="1">
         <f t="shared" si="12"/>
-        <v>1270</v>
-      </c>
-      <c r="AH36" s="1">
-        <f t="shared" si="10"/>
         <v>132.99408900196789</v>
       </c>
       <c r="AK36" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.196515996946342E-3</v>
       </c>
-      <c r="AT36">
+      <c r="AN36">
         <v>160</v>
       </c>
-      <c r="AU36">
+      <c r="AO36">
         <v>3.21</v>
       </c>
-      <c r="AV36">
+      <c r="AP36">
         <v>11.7</v>
       </c>
-      <c r="AW36" s="23">
+      <c r="AQ36" s="23">
         <v>2550</v>
       </c>
-      <c r="AX36" s="1">
+      <c r="AR36" s="1">
         <f t="shared" si="2"/>
         <v>7.2099551399885753</v>
       </c>
-      <c r="BA36" s="10">
+      <c r="AU36" s="10">
         <f t="shared" si="3"/>
         <v>-1.2221851355394093</v>
       </c>
+      <c r="AW36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36">
+        <v>5.5</v>
+      </c>
+      <c r="BA36">
+        <v>0.85</v>
+      </c>
+      <c r="BC36">
+        <v>121</v>
+      </c>
+      <c r="BD36">
+        <f t="shared" si="14"/>
+        <v>1210</v>
+      </c>
+      <c r="BE36" s="1">
+        <f t="shared" si="4"/>
+        <v>126.71090369478833</v>
+      </c>
+      <c r="BG36" s="10">
+        <f t="shared" si="5"/>
+        <v>3.6563546347673608E-2</v>
+      </c>
     </row>
-    <row r="37" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>7</v>
       </c>
@@ -12371,30 +12705,30 @@
         <v>4.7</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142.42424242424244</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.914631789769725</v>
       </c>
       <c r="L37">
         <v>33</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34.557519189487721</v>
       </c>
       <c r="P37" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51385780809264803</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35603539514904597</v>
       </c>
       <c r="AB37" s="17"/>
@@ -12408,39 +12742,62 @@
         <v>140</v>
       </c>
       <c r="AG37">
+        <f t="shared" si="15"/>
+        <v>1400</v>
+      </c>
+      <c r="AH37" s="1">
         <f t="shared" si="12"/>
-        <v>1400</v>
-      </c>
-      <c r="AH37" s="1">
-        <f t="shared" si="10"/>
         <v>146.60765716752366</v>
       </c>
       <c r="AK37" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.1598739323214802E-3</v>
       </c>
-      <c r="AT37">
+      <c r="AN37">
         <v>161</v>
       </c>
-      <c r="AU37">
+      <c r="AO37">
         <v>3.3</v>
       </c>
-      <c r="AV37">
+      <c r="AP37">
         <v>12.8</v>
       </c>
-      <c r="AW37" s="23">
+      <c r="AQ37" s="23">
         <v>3024</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="AR37" s="1">
         <f t="shared" si="2"/>
         <v>8.5501585660099817</v>
       </c>
-      <c r="BA37" s="10">
+      <c r="AU37" s="10">
         <f t="shared" si="3"/>
         <v>-0.96922179115412688</v>
       </c>
+      <c r="AW37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37">
+        <v>6</v>
+      </c>
+      <c r="BA37">
+        <v>0.88</v>
+      </c>
+      <c r="BC37">
+        <v>134.6</v>
+      </c>
+      <c r="BD37">
+        <f t="shared" si="14"/>
+        <v>1345.9999999999998</v>
+      </c>
+      <c r="BE37" s="1">
+        <f t="shared" si="4"/>
+        <v>140.95279039106202</v>
+      </c>
+      <c r="BG37" s="10">
+        <f t="shared" si="5"/>
+        <v>3.6199354307522448E-2</v>
+      </c>
     </row>
-    <row r="38" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>7.5</v>
       </c>
@@ -12451,30 +12808,30 @@
         <v>5</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>151.5151515151515</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.866629563584812</v>
       </c>
       <c r="L38">
         <v>35.5</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>355</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.175513067479216</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51554742405871479</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34784994026921318</v>
       </c>
       <c r="AB38" s="17"/>
@@ -12488,39 +12845,62 @@
         <v>154.5</v>
       </c>
       <c r="AG38">
+        <f t="shared" si="15"/>
+        <v>1545</v>
+      </c>
+      <c r="AH38" s="1">
         <f t="shared" si="12"/>
-        <v>1545</v>
-      </c>
-      <c r="AH38" s="1">
-        <f t="shared" si="10"/>
         <v>161.79202165987437</v>
       </c>
       <c r="AK38" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.6945447860053539E-3</v>
       </c>
-      <c r="AT38">
+      <c r="AN38">
         <v>162</v>
       </c>
-      <c r="AU38">
+      <c r="AO38">
         <v>3.33</v>
       </c>
-      <c r="AV38">
+      <c r="AP38">
         <v>13.75</v>
       </c>
-      <c r="AW38" s="23">
+      <c r="AQ38" s="23">
         <v>3230</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="AR38" s="1">
         <f t="shared" si="2"/>
         <v>9.132609843985529</v>
       </c>
-      <c r="BA38" s="10">
+      <c r="AU38" s="10">
         <f t="shared" si="3"/>
         <v>-0.82437552119432578</v>
       </c>
+      <c r="AW38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38">
+        <v>6.5</v>
+      </c>
+      <c r="BA38">
+        <v>0.9</v>
+      </c>
+      <c r="BC38">
+        <v>149</v>
+      </c>
+      <c r="BD38">
+        <f t="shared" si="14"/>
+        <v>1490</v>
+      </c>
+      <c r="BE38" s="1">
+        <f t="shared" si="4"/>
+        <v>156.03243512829306</v>
+      </c>
+      <c r="BG38" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5774613114320529E-2</v>
+      </c>
     </row>
-    <row r="39" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>8</v>
       </c>
@@ -12531,30 +12911,30 @@
         <v>5.4</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>163.63636363636363</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ref="J39:J46" si="13">(I39*2*PI())/60</f>
+        <f t="shared" ref="J39:J46" si="16">(I39*2*PI())/60</f>
         <v>17.135959928671596</v>
       </c>
       <c r="L39">
         <v>38.5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>385</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40.317105721069012</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.50747084121327812</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.3363163043946914</v>
       </c>
       <c r="AB39" s="17"/>
@@ -12568,39 +12948,62 @@
         <v>169.5</v>
       </c>
       <c r="AG39">
+        <f t="shared" si="15"/>
+        <v>1695</v>
+      </c>
+      <c r="AH39" s="1">
         <f t="shared" si="12"/>
-        <v>1695</v>
-      </c>
-      <c r="AH39" s="1">
-        <f t="shared" si="10"/>
         <v>177.49998492782331</v>
       </c>
       <c r="AK39" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.111352207045053E-2</v>
       </c>
-      <c r="AT39">
+      <c r="AN39">
         <v>163</v>
       </c>
-      <c r="AU39">
+      <c r="AO39">
         <v>3.34</v>
       </c>
-      <c r="AV39">
+      <c r="AP39">
         <v>13.75</v>
       </c>
-      <c r="AW39" s="23">
+      <c r="AQ39" s="23">
         <v>3280</v>
       </c>
-      <c r="AX39" s="1">
+      <c r="AR39" s="1">
         <f t="shared" si="2"/>
         <v>9.2739815133970698</v>
       </c>
-      <c r="BA39" s="10">
+      <c r="AU39" s="10">
         <f t="shared" si="3"/>
         <v>-0.81869906566363415</v>
       </c>
+      <c r="AW39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>0.93</v>
+      </c>
+      <c r="BC39">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="BD39">
+        <f t="shared" si="14"/>
+        <v>1626.9999999999998</v>
+      </c>
+      <c r="BE39" s="1">
+        <f t="shared" si="4"/>
+        <v>170.37904157968643</v>
+      </c>
+      <c r="BG39" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5517279260957428E-2</v>
+      </c>
     </row>
-    <row r="40" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>8.5</v>
       </c>
@@ -12611,30 +13014,30 @@
         <v>5.85</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>177.27272727272725</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>18.56395658939423</v>
       </c>
       <c r="L40">
         <v>41</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:M46" si="14">L40/0.1</f>
+        <f t="shared" ref="M40:M46" si="17">L40/0.1</f>
         <v>410</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40:N46" si="15">(M40*2*PI())/60</f>
+        <f t="shared" ref="N40:N46" si="18">(M40*2*PI())/60</f>
         <v>42.935099599060507</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49623042133501355</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.33043128192278465</v>
       </c>
       <c r="AB40" s="17"/>
@@ -12648,26 +13051,49 @@
         <v>180</v>
       </c>
       <c r="AG40">
+        <f t="shared" si="15"/>
+        <v>1800</v>
+      </c>
+      <c r="AH40" s="1">
         <f t="shared" si="12"/>
-        <v>1800</v>
-      </c>
-      <c r="AH40" s="1">
-        <f t="shared" si="10"/>
         <v>188.49555921538757</v>
       </c>
       <c r="AK40" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2609315624693897E-2</v>
       </c>
-      <c r="AZ40" t="s">
+      <c r="AT40" t="s">
         <v>34</v>
       </c>
-      <c r="BA40" s="10">
-        <f>AVERAGE(BA31:BA39)</f>
+      <c r="AU40" s="10">
+        <f>AVERAGE(AU31:AU39)</f>
         <v>-1.8678750131222257</v>
       </c>
+      <c r="AW40" s="17"/>
+      <c r="AY40" s="17"/>
+      <c r="AZ40">
+        <v>7.5</v>
+      </c>
+      <c r="BA40">
+        <v>0.94</v>
+      </c>
+      <c r="BC40">
+        <v>177</v>
+      </c>
+      <c r="BD40">
+        <f t="shared" si="14"/>
+        <v>1770</v>
+      </c>
+      <c r="BE40" s="1">
+        <f t="shared" si="4"/>
+        <v>185.35396656179779</v>
+      </c>
+      <c r="BG40" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5290315720430704E-2</v>
+      </c>
     </row>
-    <row r="41" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>9</v>
       </c>
@@ -12678,30 +13104,30 @@
         <v>6.3</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190.90909090909091</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>19.991953250116865</v>
       </c>
       <c r="L41">
         <v>43.5</v>
       </c>
       <c r="M41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>435</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>45.553093477052002</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4861956147252986</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32381994007566178</v>
       </c>
       <c r="AB41" s="17"/>
@@ -12715,19 +13141,42 @@
         <v>193</v>
       </c>
       <c r="AG41">
+        <f t="shared" si="15"/>
+        <v>1930</v>
+      </c>
+      <c r="AH41" s="1">
         <f t="shared" si="12"/>
-        <v>1930</v>
-      </c>
-      <c r="AH41" s="1">
-        <f t="shared" si="10"/>
         <v>202.10912738094336</v>
       </c>
       <c r="AK41" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3601562856775763E-2</v>
       </c>
+      <c r="AW41" s="17"/>
+      <c r="AY41" s="17"/>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>0.95</v>
+      </c>
+      <c r="BC41">
+        <v>190</v>
+      </c>
+      <c r="BD41">
+        <f t="shared" si="14"/>
+        <v>1900</v>
+      </c>
+      <c r="BE41" s="1">
+        <f t="shared" si="4"/>
+        <v>198.96753472735358</v>
+      </c>
+      <c r="BG41" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5337423311972087E-2</v>
+      </c>
     </row>
-    <row r="42" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>9.5</v>
       </c>
@@ -12738,30 +13187,30 @@
         <v>6.8</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>206.06060606060603</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21.578616206475342</v>
       </c>
       <c r="L42">
         <v>47</v>
       </c>
       <c r="M42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>470</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>49.218284906240093</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4743584992687514</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.31246111133893278</v>
       </c>
       <c r="AB42" s="17"/>
@@ -12775,19 +13224,42 @@
         <v>217</v>
       </c>
       <c r="AG42">
+        <f t="shared" si="15"/>
+        <v>2170</v>
+      </c>
+      <c r="AH42" s="1">
         <f t="shared" si="12"/>
-        <v>2170</v>
-      </c>
-      <c r="AH42" s="1">
-        <f t="shared" si="10"/>
         <v>227.24186860966171</v>
       </c>
       <c r="AK42" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6547126737718292E-2</v>
       </c>
+      <c r="AW42" s="17"/>
+      <c r="AY42" s="17"/>
+      <c r="AZ42">
+        <v>8.5</v>
+      </c>
+      <c r="BA42">
+        <v>0.96</v>
+      </c>
+      <c r="BC42">
+        <v>205</v>
+      </c>
+      <c r="BD42">
+        <f t="shared" si="14"/>
+        <v>2050</v>
+      </c>
+      <c r="BE42" s="1">
+        <f t="shared" si="4"/>
+        <v>214.67549799530252</v>
+      </c>
+      <c r="BG42" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5033341346503218E-2</v>
+      </c>
     </row>
-    <row r="43" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>10</v>
       </c>
@@ -12798,30 +13270,30 @@
         <v>7.3</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>221.21212121212119</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.165279162833826</v>
       </c>
       <c r="L43">
         <v>49</v>
       </c>
       <c r="M43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>490</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>51.312680008633286</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.46379756205302203</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.31069708300789711</v>
       </c>
       <c r="AB43" s="17"/>
@@ -12835,19 +13307,42 @@
         <v>229</v>
       </c>
       <c r="AG43">
+        <f t="shared" si="15"/>
+        <v>2290</v>
+      </c>
+      <c r="AH43" s="1">
         <f t="shared" si="12"/>
-        <v>2290</v>
-      </c>
-      <c r="AH43" s="1">
-        <f t="shared" si="10"/>
         <v>239.80823922402087</v>
       </c>
       <c r="AK43" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7232101838417863E-2</v>
       </c>
+      <c r="AW43" s="17"/>
+      <c r="AY43" s="17"/>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>0.99</v>
+      </c>
+      <c r="BC43">
+        <v>219</v>
+      </c>
+      <c r="BD43">
+        <f t="shared" si="14"/>
+        <v>2190</v>
+      </c>
+      <c r="BE43" s="1">
+        <f t="shared" si="4"/>
+        <v>229.33626371205489</v>
+      </c>
+      <c r="BG43" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4840543186105813E-2</v>
+      </c>
     </row>
-    <row r="44" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>10.5</v>
       </c>
@@ -12858,30 +13353,30 @@
         <v>7.7</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>233.33333333333331</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24.43460952792061</v>
       </c>
       <c r="L44">
         <v>52</v>
       </c>
       <c r="M44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>520</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>54.454272662223076</v>
       </c>
       <c r="P44" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.46082176951236214</v>
       </c>
       <c r="Q44" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30430119051972138</v>
       </c>
       <c r="AB44" s="17"/>
@@ -12895,19 +13390,42 @@
         <v>246.5</v>
       </c>
       <c r="AG44">
+        <f t="shared" si="15"/>
+        <v>2465</v>
+      </c>
+      <c r="AH44" s="1">
         <f t="shared" si="12"/>
-        <v>2465</v>
-      </c>
-      <c r="AH44" s="1">
-        <f t="shared" si="10"/>
         <v>258.13419636996133</v>
       </c>
       <c r="AK44" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7574385973635809E-2</v>
       </c>
+      <c r="AW44" s="17"/>
+      <c r="AY44" s="17"/>
+      <c r="AZ44">
+        <v>9.5</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>233.3</v>
+      </c>
+      <c r="BD44">
+        <f t="shared" si="14"/>
+        <v>2333</v>
+      </c>
+      <c r="BE44" s="1">
+        <f t="shared" si="4"/>
+        <v>244.31118869416622</v>
+      </c>
+      <c r="BG44" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4709830709454076E-2</v>
+      </c>
     </row>
-    <row r="45" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>11</v>
       </c>
@@ -12918,30 +13436,30 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>251.51515151515153</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.338605075550792</v>
       </c>
       <c r="L45">
         <v>56</v>
       </c>
       <c r="M45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>560</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>58.643062867009469</v>
       </c>
       <c r="P45" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4471003671690742</v>
       </c>
       <c r="Q45" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.29327083476185828</v>
       </c>
       <c r="AB45" s="17"/>
@@ -12955,19 +13473,42 @@
         <v>255</v>
       </c>
       <c r="AG45">
+        <f t="shared" si="15"/>
+        <v>2550</v>
+      </c>
+      <c r="AH45" s="1">
         <f t="shared" si="12"/>
-        <v>2550</v>
-      </c>
-      <c r="AH45" s="1">
-        <f t="shared" si="10"/>
         <v>267.03537555513242</v>
       </c>
       <c r="AK45" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8262748858130711E-2</v>
       </c>
+      <c r="AW45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45">
+        <v>10</v>
+      </c>
+      <c r="BA45">
+        <v>1.02</v>
+      </c>
+      <c r="BC45">
+        <v>247</v>
+      </c>
+      <c r="BD45">
+        <f t="shared" si="14"/>
+        <v>2470</v>
+      </c>
+      <c r="BE45" s="1">
+        <f t="shared" si="4"/>
+        <v>258.65779514555965</v>
+      </c>
+      <c r="BG45" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4638816877558189E-2</v>
+      </c>
     </row>
-    <row r="46" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>11.5</v>
       </c>
@@ -12978,30 +13519,30 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>266.66666666666669</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.925268031909276</v>
       </c>
       <c r="L46">
         <v>59</v>
       </c>
       <c r="M46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>590</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>61.784655520599266</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4401748261092549</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28851985739495956</v>
       </c>
       <c r="AB46" s="17"/>
@@ -13015,19 +13556,42 @@
         <v>274</v>
       </c>
       <c r="AG46">
+        <f t="shared" si="15"/>
+        <v>2740</v>
+      </c>
+      <c r="AH46" s="1">
         <f t="shared" si="12"/>
-        <v>2740</v>
-      </c>
-      <c r="AH46" s="1">
-        <f t="shared" si="10"/>
         <v>286.93212902786775</v>
       </c>
       <c r="AK46" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8404875110682003E-2</v>
       </c>
+      <c r="AW46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46">
+        <v>10.5</v>
+      </c>
+      <c r="BA46">
+        <v>1.03</v>
+      </c>
+      <c r="BC46">
+        <v>261.7</v>
+      </c>
+      <c r="BD46">
+        <f t="shared" si="14"/>
+        <v>2616.9999999999995</v>
+      </c>
+      <c r="BE46" s="1">
+        <f t="shared" si="4"/>
+        <v>274.05159914814959</v>
+      </c>
+      <c r="BG46" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4480368037888183E-2</v>
+      </c>
     </row>
-    <row r="47" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>12</v>
       </c>
@@ -13038,30 +13602,30 @@
         <v>9.1</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275.75757575757575</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28.87726580572436</v>
       </c>
       <c r="L47">
         <v>61.5</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>615</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64.402649398590754</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44325526128802151</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28554725887414201</v>
       </c>
       <c r="AB47" s="17"/>
@@ -13075,19 +13639,42 @@
         <v>294</v>
       </c>
       <c r="AG47">
+        <f t="shared" si="15"/>
+        <v>2940</v>
+      </c>
+      <c r="AH47" s="1">
         <f t="shared" si="12"/>
-        <v>2940</v>
-      </c>
-      <c r="AH47" s="1">
-        <f t="shared" si="10"/>
         <v>307.8760800517997</v>
       </c>
       <c r="AK47" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8257995226697188E-2</v>
       </c>
+      <c r="AW47" s="17"/>
+      <c r="AY47" s="17"/>
+      <c r="AZ47">
+        <v>11</v>
+      </c>
+      <c r="BA47">
+        <v>1.06</v>
+      </c>
+      <c r="BC47">
+        <v>276</v>
+      </c>
+      <c r="BD47">
+        <f t="shared" si="14"/>
+        <v>2760</v>
+      </c>
+      <c r="BE47" s="1">
+        <f t="shared" si="4"/>
+        <v>289.02652413026101</v>
+      </c>
+      <c r="BG47" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4317957598693286E-2</v>
+      </c>
     </row>
-    <row r="48" spans="5:53" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:59" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>12.5</v>
       </c>
@@ -13098,30 +13685,30 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>296.969696969697</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31.098593944626238</v>
       </c>
       <c r="L48">
         <v>66</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>660</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69.115038378975441</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.42818656122235949</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27516153424845891</v>
       </c>
       <c r="AB48" s="17"/>
@@ -13135,19 +13722,42 @@
         <v>307</v>
       </c>
       <c r="AG48">
+        <f t="shared" si="15"/>
+        <v>3070</v>
+      </c>
+      <c r="AH48" s="1">
         <f t="shared" si="12"/>
-        <v>3070</v>
-      </c>
-      <c r="AH48" s="1">
-        <f t="shared" si="10"/>
         <v>321.48964821735547</v>
       </c>
       <c r="AK48" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.874197204609938E-2</v>
       </c>
+      <c r="AW48" s="17"/>
+      <c r="AY48" s="17"/>
+      <c r="AZ48">
+        <v>11.5</v>
+      </c>
+      <c r="BA48">
+        <v>1.06</v>
+      </c>
+      <c r="BC48">
+        <v>291</v>
+      </c>
+      <c r="BD48">
+        <f t="shared" si="14"/>
+        <v>2910</v>
+      </c>
+      <c r="BE48" s="1">
+        <f t="shared" si="4"/>
+        <v>304.73448739820992</v>
+      </c>
+      <c r="BG48" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4189763321357508E-2</v>
+      </c>
     </row>
-    <row r="49" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E49">
         <v>13</v>
       </c>
@@ -13158,30 +13768,30 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>309.09090909090907</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32.367924309713018</v>
       </c>
       <c r="L49">
         <v>68</v>
       </c>
       <c r="M49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>680</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>71.209433481368649</v>
       </c>
       <c r="P49" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.42708948117045836</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27498744257140295</v>
       </c>
       <c r="AB49" s="17"/>
@@ -13195,19 +13805,42 @@
         <v>325</v>
       </c>
       <c r="AG49">
+        <f t="shared" si="15"/>
+        <v>3250</v>
+      </c>
+      <c r="AH49" s="1">
         <f t="shared" si="12"/>
-        <v>3250</v>
-      </c>
-      <c r="AH49" s="1">
-        <f t="shared" si="10"/>
         <v>340.33920413889427</v>
       </c>
       <c r="AK49" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8891446891249376E-2</v>
       </c>
+      <c r="AW49" s="17"/>
+      <c r="AY49" s="17"/>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>1.05</v>
+      </c>
+      <c r="BC49">
+        <v>307</v>
+      </c>
+      <c r="BD49">
+        <f t="shared" si="14"/>
+        <v>3070</v>
+      </c>
+      <c r="BE49" s="1">
+        <f t="shared" si="4"/>
+        <v>321.48964821735547</v>
+      </c>
+      <c r="BG49" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3994873740416764E-2</v>
+      </c>
     </row>
-    <row r="50" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>13.5</v>
       </c>
@@ -13218,30 +13851,30 @@
         <v>10.6</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>321.21212121212119</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>33.637254674799799</v>
       </c>
       <c r="L50">
         <v>72</v>
       </c>
       <c r="M50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>720</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75.398223686155035</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.42619411538184115</v>
       </c>
       <c r="Q50" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26761306849865607</v>
       </c>
       <c r="AB50" s="17"/>
@@ -13255,19 +13888,27 @@
         <v>338.5</v>
       </c>
       <c r="AG50">
+        <f t="shared" si="15"/>
+        <v>3385</v>
+      </c>
+      <c r="AH50" s="1">
         <f t="shared" si="12"/>
-        <v>3385</v>
-      </c>
-      <c r="AH50" s="1">
-        <f t="shared" si="10"/>
         <v>354.4763710800483</v>
       </c>
       <c r="AK50" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9368286746677402E-2</v>
       </c>
+      <c r="AW50" s="17"/>
+      <c r="BF50" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG50" s="6">
+        <f>AVERAGE(BG33:BG49)</f>
+        <v>3.5510759501759206E-2</v>
+      </c>
     </row>
-    <row r="51" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51">
         <v>14</v>
       </c>
@@ -13278,30 +13919,30 @@
         <v>11.1</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>336.36363636363632</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35.223917631158287</v>
       </c>
       <c r="L51">
         <v>75</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>750</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.539816339744831</v>
       </c>
       <c r="P51" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.42153176019426625</v>
       </c>
       <c r="Q51" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26449514358601428</v>
       </c>
       <c r="AB51" s="17"/>
@@ -13315,19 +13956,20 @@
         <v>350.5</v>
       </c>
       <c r="AG51">
+        <f t="shared" si="15"/>
+        <v>3505</v>
+      </c>
+      <c r="AH51" s="1">
         <f t="shared" si="12"/>
-        <v>3505</v>
-      </c>
-      <c r="AH51" s="1">
-        <f t="shared" si="10"/>
         <v>367.04274169440748</v>
       </c>
       <c r="AK51" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9371041005136251E-2</v>
       </c>
+      <c r="AW51" s="17"/>
     </row>
-    <row r="52" spans="4:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P52" s="12">
         <f>AVERAGE(P32:P51)</f>
         <v>0.50004956219903474</v>
@@ -13346,8 +13988,9 @@
         <f>AVERAGE(AK35:AK51)</f>
         <v>1.4581193314749359E-2</v>
       </c>
+      <c r="AW52" s="17"/>
     </row>
-    <row r="53" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:60" x14ac:dyDescent="0.3">
       <c r="J53" s="9">
         <f>4.6*2*PI()/60</f>
         <v>0.4817108735504349</v>
@@ -13356,8 +13999,15 @@
         <f>4.6/1000</f>
         <v>4.5999999999999999E-3</v>
       </c>
+      <c r="AW53" s="17"/>
     </row>
-    <row r="56" spans="4:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:60" x14ac:dyDescent="0.3">
+      <c r="AW54" s="17"/>
+    </row>
+    <row r="55" spans="4:60" x14ac:dyDescent="0.3">
+      <c r="AW55" s="17"/>
+    </row>
+    <row r="56" spans="4:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -13365,20 +14015,59 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
+      <c r="AW56" s="17"/>
+      <c r="AZ56" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA56" s="26"/>
+      <c r="BB56" s="26"/>
+      <c r="BC56" s="26"/>
+      <c r="BD56" s="26"/>
+      <c r="BE56" s="26"/>
+      <c r="BF56" s="26"/>
+      <c r="BG56" s="26"/>
     </row>
-    <row r="57" spans="4:37" ht="21" x14ac:dyDescent="0.4">
-      <c r="H57" s="24" t="s">
+    <row r="57" spans="4:60" ht="21" x14ac:dyDescent="0.4">
+      <c r="H57" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="AW57" s="17"/>
     </row>
-    <row r="59" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:60" x14ac:dyDescent="0.3">
+      <c r="AW58" s="17"/>
+      <c r="AY58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG58" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="4:60" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>12</v>
       </c>
@@ -13406,8 +14095,36 @@
       <c r="M59" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AW59" s="17"/>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0.5</v>
+      </c>
+      <c r="BB59">
+        <f>AZ59/(5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BC59" s="4">
+        <f>BB59/BA59</f>
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0.5</v>
+      </c>
+      <c r="BG59">
+        <f>BE59/(5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BH59" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="60" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:60" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>40</v>
       </c>
@@ -13436,8 +14153,37 @@
         <f>L60/K60</f>
         <v>1.9199999999999998E-2</v>
       </c>
+      <c r="AW60" s="17"/>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" ref="BB60:BB79" si="19">AZ60/(5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BC60" s="4">
+        <f>BB60/BA60</f>
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>1</v>
+      </c>
+      <c r="BG60">
+        <f t="shared" ref="BG60:BG78" si="20">BE60/(5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BH60" s="4">
+        <f t="shared" ref="BH60:BH80" si="21">BG59/BF59</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:60" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>48</v>
       </c>
@@ -13445,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:G69" si="16">E61/(5*1000)</f>
+        <f t="shared" ref="G61:G69" si="22">E61/(5*1000)</f>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="H61" s="4">
@@ -13459,15 +14205,44 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L79" si="17">J61/(5*1000)</f>
+        <f t="shared" ref="L61:L79" si="23">J61/(5*1000)</f>
         <v>1.34E-2</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" ref="M61:M79" si="18">L61/K61</f>
+        <f t="shared" ref="M61:M79" si="24">L61/K61</f>
         <v>1.34E-2</v>
       </c>
+      <c r="AW61" s="17"/>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>1.53</v>
+      </c>
+      <c r="BB61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC61" s="4">
+        <f>BB61/BA61</f>
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>1.53</v>
+      </c>
+      <c r="BG61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH61" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:60" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>63</v>
       </c>
@@ -13475,7 +14250,7 @@
         <v>1.53</v>
       </c>
       <c r="G62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.26E-2</v>
       </c>
       <c r="H62" s="4">
@@ -13489,15 +14264,44 @@
         <v>1.53</v>
       </c>
       <c r="L62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.54E-2</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.0065359477124183E-2</v>
       </c>
+      <c r="AW62" s="17"/>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
+      <c r="BB62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC62" s="4">
+        <f t="shared" ref="BC62:BC79" si="25">BB62/BA62</f>
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>2</v>
+      </c>
+      <c r="BG62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH62" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:60" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>77</v>
       </c>
@@ -13505,11 +14309,11 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.54E-2</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" ref="H63:H69" si="19">G63/F63</f>
+        <f t="shared" ref="H63:H69" si="26">G63/F63</f>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="J63">
@@ -13519,15 +14323,44 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>9.4000000000000004E-3</v>
       </c>
+      <c r="AW63" s="17"/>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>2.5</v>
+      </c>
+      <c r="BB63">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC63" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>2.5</v>
+      </c>
+      <c r="BG63">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH63" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="4:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:60" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>90</v>
       </c>
@@ -13535,11 +14368,11 @@
         <v>2.5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="J64">
@@ -13549,15 +14382,44 @@
         <v>2.5</v>
       </c>
       <c r="L64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>8.6E-3</v>
       </c>
+      <c r="AW64" s="17"/>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC64" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>3</v>
+      </c>
+      <c r="BG64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH64" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>99</v>
       </c>
@@ -13565,11 +14427,11 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.6000000000000008E-3</v>
       </c>
       <c r="J65">
@@ -13579,15 +14441,44 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.4799999999999999E-2</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>8.266666666666667E-3</v>
       </c>
+      <c r="AW65" s="17"/>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>3.5</v>
+      </c>
+      <c r="BB65">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC65" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>3.5</v>
+      </c>
+      <c r="BG65">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH65" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>110</v>
       </c>
@@ -13595,11 +14486,11 @@
         <v>3.5</v>
       </c>
       <c r="G66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.2857142857142851E-3</v>
       </c>
       <c r="J66">
@@ -13609,11 +14500,11 @@
         <v>3.5</v>
       </c>
       <c r="L66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.9428571428571421E-3</v>
       </c>
       <c r="O66" t="s">
@@ -13622,8 +14513,40 @@
       <c r="P66" t="s">
         <v>17</v>
       </c>
+      <c r="AW66" s="17"/>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC66" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>4</v>
+      </c>
+      <c r="BG66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH66" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>129</v>
       </c>
@@ -13631,11 +14554,11 @@
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.58E-2</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.45E-3</v>
       </c>
       <c r="J67">
@@ -13645,11 +14568,11 @@
         <v>4</v>
       </c>
       <c r="L67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.03</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="O67" s="4">
@@ -13661,8 +14584,42 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="Q67" s="4"/>
+      <c r="AW67" s="17"/>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>4.5</v>
+      </c>
+      <c r="BB67">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC67" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>4.5</v>
+      </c>
+      <c r="BG67">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH67" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ67" s="4">
+        <f t="shared" ref="BJ67:BJ80" si="27">AVERAGE(BC66,BH67)</f>
+        <v>0</v>
+      </c>
+      <c r="BK67" s="4"/>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>152</v>
       </c>
@@ -13670,11 +14627,11 @@
         <v>4.5</v>
       </c>
       <c r="G68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.04E-2</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.7555555555555554E-3</v>
       </c>
       <c r="J68">
@@ -13684,15 +14641,15 @@
         <v>4.5</v>
       </c>
       <c r="L68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.244444444444444E-3</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" ref="O68:O80" si="20">AVERAGE(H68,M68)</f>
+        <f t="shared" ref="O68:O80" si="28">AVERAGE(H68,M68)</f>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="P68" s="4">
@@ -13700,8 +14657,42 @@
         <v>2.8800000000000003E-2</v>
       </c>
       <c r="Q68" s="4"/>
+      <c r="AW68" s="17"/>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC68" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH68" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ68" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK68" s="4"/>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>164</v>
       </c>
@@ -13709,11 +14700,11 @@
         <v>5</v>
       </c>
       <c r="G69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.5600000000000007E-3</v>
       </c>
       <c r="J69">
@@ -13723,15 +14714,15 @@
         <v>5</v>
       </c>
       <c r="L69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.0800000000000004E-3</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.8200000000000005E-3</v>
       </c>
       <c r="P69" s="4">
@@ -13739,8 +14730,42 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q69" s="4"/>
+      <c r="AW69" s="17"/>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>5.5</v>
+      </c>
+      <c r="BB69">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC69" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>5.5</v>
+      </c>
+      <c r="BG69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH69" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ69" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK69" s="4"/>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>168</v>
       </c>
@@ -13748,11 +14773,11 @@
         <v>5.5</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G80" si="21">E70/(5*1000)</f>
+        <f t="shared" ref="G70:G80" si="29">E70/(5*1000)</f>
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ref="H70:H80" si="22">G70/F70</f>
+        <f t="shared" ref="H70:H80" si="30">G70/F70</f>
         <v>6.1090909090909086E-3</v>
       </c>
       <c r="J70">
@@ -13762,24 +14787,58 @@
         <v>5.5</v>
       </c>
       <c r="L70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.909090909090909E-3</v>
       </c>
       <c r="O70" s="4">
+        <f t="shared" si="28"/>
+        <v>6.5090909090909088E-3</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" ref="P70:P80" si="31">0.0064*F70</f>
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="Q70" s="4"/>
+      <c r="AW70" s="17"/>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC70" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>6</v>
+      </c>
+      <c r="BG70">
         <f t="shared" si="20"/>
-        <v>6.5090909090909088E-3</v>
-      </c>
-      <c r="P70" s="4">
-        <f t="shared" ref="P70:P80" si="23">0.0064*F70</f>
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="Q70" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH70" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ70" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK70" s="4"/>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>181</v>
       </c>
@@ -13787,11 +14846,11 @@
         <v>6</v>
       </c>
       <c r="G71">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.0333333333333341E-3</v>
       </c>
       <c r="J71">
@@ -13801,24 +14860,58 @@
         <v>6</v>
       </c>
       <c r="L71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.8333333333333336E-3</v>
       </c>
       <c r="O71" s="4">
+        <f t="shared" si="28"/>
+        <v>6.4333333333333343E-3</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="31"/>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="Q71" s="4"/>
+      <c r="AW71" s="17"/>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>6.5</v>
+      </c>
+      <c r="BB71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC71" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>6.5</v>
+      </c>
+      <c r="BG71">
         <f t="shared" si="20"/>
-        <v>6.4333333333333343E-3</v>
-      </c>
-      <c r="P71" s="4">
-        <f t="shared" si="23"/>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="Q71" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH71" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ71" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK71" s="4"/>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>207</v>
       </c>
@@ -13826,11 +14919,11 @@
         <v>6.5</v>
       </c>
       <c r="G72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.3692307692307694E-3</v>
       </c>
       <c r="J72">
@@ -13840,24 +14933,58 @@
         <v>6.5</v>
       </c>
       <c r="L72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.7384615384615387E-3</v>
       </c>
       <c r="O72" s="4">
+        <f t="shared" si="28"/>
+        <v>6.553846153846154E-3</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="31"/>
+        <v>4.1600000000000005E-2</v>
+      </c>
+      <c r="Q72" s="4"/>
+      <c r="AW72" s="17"/>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC72" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>7</v>
+      </c>
+      <c r="BG72">
         <f t="shared" si="20"/>
-        <v>6.553846153846154E-3</v>
-      </c>
-      <c r="P72" s="4">
-        <f t="shared" si="23"/>
-        <v>4.1600000000000005E-2</v>
-      </c>
-      <c r="Q72" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH72" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ72" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK72" s="4"/>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>216</v>
       </c>
@@ -13865,11 +14992,11 @@
         <v>7</v>
       </c>
       <c r="G73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.1714285714285716E-3</v>
       </c>
       <c r="J73">
@@ -13879,24 +15006,58 @@
         <v>7</v>
       </c>
       <c r="L73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.6857142857142862E-3</v>
       </c>
       <c r="O73" s="4">
+        <f t="shared" si="28"/>
+        <v>6.4285714285714293E-3</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" si="31"/>
+        <v>4.48E-2</v>
+      </c>
+      <c r="Q73" s="4"/>
+      <c r="AW73" s="17"/>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>7.5</v>
+      </c>
+      <c r="BB73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC73" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>7.5</v>
+      </c>
+      <c r="BG73">
         <f t="shared" si="20"/>
-        <v>6.4285714285714293E-3</v>
-      </c>
-      <c r="P73" s="4">
-        <f t="shared" si="23"/>
-        <v>4.48E-2</v>
-      </c>
-      <c r="Q73" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH73" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ73" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK73" s="4"/>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>224</v>
       </c>
@@ -13904,11 +15065,11 @@
         <v>7.5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>4.48E-2</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5.9733333333333331E-3</v>
       </c>
       <c r="J74">
@@ -13918,24 +15079,58 @@
         <v>7.5</v>
       </c>
       <c r="L74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.613333333333333E-3</v>
       </c>
       <c r="O74" s="4">
+        <f t="shared" si="28"/>
+        <v>6.2933333333333331E-3</v>
+      </c>
+      <c r="P74" s="4">
+        <f t="shared" si="31"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q74" s="4"/>
+      <c r="AW74" s="17"/>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>8</v>
+      </c>
+      <c r="BB74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC74" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>8</v>
+      </c>
+      <c r="BG74">
         <f t="shared" si="20"/>
-        <v>6.2933333333333331E-3</v>
-      </c>
-      <c r="P74" s="4">
-        <f t="shared" si="23"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Q74" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH74" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ74" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK74" s="4"/>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>242</v>
       </c>
@@ -13943,11 +15138,11 @@
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="J75">
@@ -13957,24 +15152,58 @@
         <v>8</v>
       </c>
       <c r="L75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.16E-2</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.45E-3</v>
       </c>
       <c r="O75" s="4">
+        <f t="shared" si="28"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="P75" s="4">
+        <f t="shared" si="31"/>
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="Q75" s="4"/>
+      <c r="AW75" s="17"/>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>8.5</v>
+      </c>
+      <c r="BB75">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC75" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>8.5</v>
+      </c>
+      <c r="BG75">
         <f t="shared" si="20"/>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="P75" s="4">
-        <f t="shared" si="23"/>
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="Q75" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH75" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ75" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK75" s="4"/>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>262</v>
       </c>
@@ -13982,11 +15211,11 @@
         <v>8.5</v>
       </c>
       <c r="G76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>5.2400000000000002E-2</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.1647058823529411E-3</v>
       </c>
       <c r="J76">
@@ -13996,24 +15225,58 @@
         <v>8.5</v>
       </c>
       <c r="L76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.3764705882352942E-3</v>
       </c>
       <c r="O76" s="4">
+        <f t="shared" si="28"/>
+        <v>6.2705882352941181E-3</v>
+      </c>
+      <c r="P76" s="4">
+        <f t="shared" si="31"/>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="Q76" s="4"/>
+      <c r="AW76" s="17"/>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>9</v>
+      </c>
+      <c r="BB76">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC76" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>9</v>
+      </c>
+      <c r="BG76">
         <f t="shared" si="20"/>
-        <v>6.2705882352941181E-3</v>
-      </c>
-      <c r="P76" s="4">
-        <f t="shared" si="23"/>
-        <v>5.4400000000000004E-2</v>
-      </c>
-      <c r="Q76" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH76" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ76" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK76" s="4"/>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>277</v>
       </c>
@@ -14021,11 +15284,11 @@
         <v>9</v>
       </c>
       <c r="G77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>5.5399999999999998E-2</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.1555555555555556E-3</v>
       </c>
       <c r="J77">
@@ -14035,24 +15298,58 @@
         <v>9</v>
       </c>
       <c r="L77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.3111111111111111E-3</v>
       </c>
       <c r="O77" s="4">
+        <f t="shared" si="28"/>
+        <v>6.2333333333333338E-3</v>
+      </c>
+      <c r="P77" s="4">
+        <f t="shared" si="31"/>
+        <v>5.7600000000000005E-2</v>
+      </c>
+      <c r="Q77" s="4"/>
+      <c r="AW77" s="17"/>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>9.5</v>
+      </c>
+      <c r="BB77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC77" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>9.5</v>
+      </c>
+      <c r="BG77">
         <f t="shared" si="20"/>
-        <v>6.2333333333333338E-3</v>
-      </c>
-      <c r="P77" s="4">
-        <f t="shared" si="23"/>
-        <v>5.7600000000000005E-2</v>
-      </c>
-      <c r="Q77" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH77" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ77" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK77" s="4"/>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>283</v>
       </c>
@@ -14060,11 +15357,11 @@
         <v>9.5</v>
       </c>
       <c r="G78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5.9578947368421047E-3</v>
       </c>
       <c r="J78">
@@ -14074,24 +15371,58 @@
         <v>9.5</v>
       </c>
       <c r="L78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.1052631578947369E-3</v>
       </c>
       <c r="O78" s="4">
+        <f t="shared" si="28"/>
+        <v>6.0315789473684208E-3</v>
+      </c>
+      <c r="P78" s="4">
+        <f t="shared" si="31"/>
+        <v>6.08E-2</v>
+      </c>
+      <c r="Q78" s="4"/>
+      <c r="AW78" s="17"/>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>10</v>
+      </c>
+      <c r="BB78">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC78" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>10</v>
+      </c>
+      <c r="BG78">
         <f t="shared" si="20"/>
-        <v>6.0315789473684208E-3</v>
-      </c>
-      <c r="P78" s="4">
-        <f t="shared" si="23"/>
-        <v>6.08E-2</v>
-      </c>
-      <c r="Q78" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH78" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ78" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK78" s="4"/>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:63" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>309</v>
       </c>
@@ -14099,11 +15430,11 @@
         <v>10</v>
       </c>
       <c r="G79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="J79">
@@ -14113,24 +15444,58 @@
         <v>10</v>
       </c>
       <c r="L79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="M79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q79" s="4"/>
+      <c r="AW79" s="17"/>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>10.37</v>
+      </c>
+      <c r="BB79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BC79" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>10.37</v>
+      </c>
+      <c r="BG79">
+        <f>BE79/(5*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BH79" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ79" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK79" s="4"/>
     </row>
-    <row r="80" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E80">
         <v>314</v>
       </c>
@@ -14138,11 +15503,11 @@
         <v>10.37</v>
       </c>
       <c r="G80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>6.2799999999999995E-2</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="J80">
@@ -14160,16 +15525,26 @@
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>6.6367999999999996E-2</v>
       </c>
       <c r="Q80" s="4"/>
+      <c r="AW80" s="17"/>
+      <c r="BH80" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BJ80" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BK80" s="4"/>
     </row>
-    <row r="81" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N81" s="5" t="s">
         <v>45</v>
       </c>
@@ -14177,19 +15552,52 @@
         <f>AVERAGE(O67:O80)</f>
         <v>6.4310433030799951E-3</v>
       </c>
+      <c r="AW81" s="17"/>
+      <c r="BI81" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ81" s="6">
+        <f>AVERAGE(BJ67:BJ80)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="4:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="I85" s="24" t="s">
+    <row r="82" spans="4:63" x14ac:dyDescent="0.3">
+      <c r="AW82" s="17"/>
+    </row>
+    <row r="83" spans="4:63" x14ac:dyDescent="0.3">
+      <c r="AW83" s="17"/>
+    </row>
+    <row r="84" spans="4:63" ht="21" x14ac:dyDescent="0.4">
+      <c r="AW84" s="17"/>
+      <c r="BE84" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF84" s="24"/>
+      <c r="BG84" s="24"/>
+    </row>
+    <row r="85" spans="4:63" ht="21" x14ac:dyDescent="0.4">
+      <c r="I85" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="AW85" s="17"/>
+      <c r="AZ85" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH85" s="24"/>
+      <c r="BI85" s="24"/>
+      <c r="BJ85" s="24"/>
+      <c r="BK85" s="24"/>
     </row>
-    <row r="86" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:63" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -14199,8 +15607,22 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
+      <c r="AW86" s="17"/>
+      <c r="BC86" s="15"/>
+      <c r="BD86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG86" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="87" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>32</v>
       </c>
@@ -14219,8 +15641,36 @@
       <c r="J87" t="s">
         <v>31</v>
       </c>
+      <c r="AW87" s="17"/>
+      <c r="AZ87" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC87" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD87">
+        <v>3.5</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <f t="shared" ref="BF87:BF93" si="32">BE87</f>
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <f t="shared" ref="BG87:BG104" si="33">BF87*2*PI()/60</f>
+        <v>0</v>
+      </c>
+      <c r="BH87" s="14"/>
+      <c r="BI87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ87" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="88" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>2.8</v>
       </c>
@@ -14243,8 +15693,35 @@
         <f>F88*I98</f>
         <v>1.6611099206349209</v>
       </c>
+      <c r="AW88" s="17"/>
+      <c r="AZ88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA88" s="4">
+        <f>BJ81</f>
+        <v>0</v>
+      </c>
+      <c r="BC88" s="17"/>
+      <c r="BD88">
+        <v>4</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI88" t="e">
+        <f t="shared" ref="BI88:BI105" si="34">$BA$88*BD87/BG87</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="89" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>2.8</v>
       </c>
@@ -14255,19 +15732,40 @@
         <v>6</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H96" si="24">0.33*G89</f>
+        <f t="shared" ref="H89:H96" si="35">0.33*G89</f>
         <v>1.98</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I96" si="25">H89/F89</f>
+        <f t="shared" ref="I89:I96" si="36">H89/F89</f>
         <v>0.99</v>
       </c>
       <c r="J89">
         <f>F89*I98</f>
         <v>2.2148132275132277</v>
       </c>
+      <c r="AW89" s="17"/>
+      <c r="AZ89" s="5"/>
+      <c r="BC89" s="17"/>
+      <c r="BD89">
+        <v>4.5</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI89" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="90" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>2.9</v>
       </c>
@@ -14278,19 +15776,39 @@
         <v>7.4</v>
       </c>
       <c r="H90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>2.4420000000000002</v>
       </c>
       <c r="I90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.97680000000000011</v>
       </c>
       <c r="J90">
         <f>F90*I98</f>
         <v>2.7685165343915346</v>
       </c>
+      <c r="AW90" s="17"/>
+      <c r="BC90" s="17"/>
+      <c r="BD90">
+        <v>5</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI90" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="91" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>3.8</v>
       </c>
@@ -14301,19 +15819,39 @@
         <v>8.9</v>
       </c>
       <c r="H91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>2.9370000000000003</v>
       </c>
       <c r="I91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.97900000000000009</v>
       </c>
       <c r="J91">
         <f>F91*I98</f>
         <v>3.3222198412698418</v>
       </c>
+      <c r="AW91" s="17"/>
+      <c r="BC91" s="17"/>
+      <c r="BD91">
+        <v>5.5</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI91" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="92" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>4.4000000000000004</v>
       </c>
@@ -14324,19 +15862,43 @@
         <v>10.3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>3.3990000000000005</v>
       </c>
       <c r="I92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.97114285714285731</v>
       </c>
       <c r="J92">
         <f>F92*I98</f>
         <v>3.8759231481481486</v>
       </c>
+      <c r="AW92" s="17"/>
+      <c r="BC92" s="17"/>
+      <c r="BD92">
+        <v>6</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI92" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ92" t="e">
+        <f t="shared" ref="BJ92:BJ105" si="37">BI92*BG91</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="93" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>3.8</v>
       </c>
@@ -14347,19 +15909,43 @@
         <v>15.3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>5.0490000000000004</v>
       </c>
       <c r="I93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1.2622500000000001</v>
       </c>
       <c r="J93">
         <f>F93*I98</f>
         <v>4.4296264550264555</v>
       </c>
+      <c r="AW93" s="17"/>
+      <c r="BC93" s="18"/>
+      <c r="BD93">
+        <v>6.5</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI93" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ93" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="94" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>3</v>
       </c>
@@ -14370,19 +15956,45 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>5.4119999999999999</v>
       </c>
       <c r="I94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1.2026666666666666</v>
       </c>
       <c r="J94">
         <f>F94*I98</f>
         <v>4.9833297619047627</v>
       </c>
+      <c r="AW94" s="17"/>
+      <c r="BC94" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD94">
+        <v>7</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <f>BE94/0.1</f>
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI94" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ94" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="95" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>3.3</v>
       </c>
@@ -14393,19 +16005,43 @@
         <v>18.8</v>
       </c>
       <c r="H95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>6.2040000000000006</v>
       </c>
       <c r="I95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1.2408000000000001</v>
       </c>
       <c r="J95">
         <f>F95*I98</f>
         <v>5.5370330687830691</v>
       </c>
+      <c r="AW95" s="17"/>
+      <c r="BC95" s="17"/>
+      <c r="BD95">
+        <v>7.5</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <f t="shared" ref="BF95:BF104" si="38">BE95/0.1</f>
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI95" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ95" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="96" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>3.5</v>
       </c>
@@ -14416,24 +16052,72 @@
         <v>22.2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>7.3260000000000005</v>
       </c>
       <c r="I96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1.3320000000000001</v>
       </c>
       <c r="J96">
         <f>F96*I98</f>
         <v>6.0907363756613764</v>
       </c>
+      <c r="AW96" s="17"/>
+      <c r="BC96" s="17"/>
+      <c r="BD96">
+        <v>8</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI96" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ96" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:62" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>3.5</v>
       </c>
+      <c r="AW97" s="17"/>
+      <c r="BC97" s="17"/>
+      <c r="BD97">
+        <v>8.5</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI97" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ97" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:62" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>3.6</v>
       </c>
@@ -14444,13 +16128,61 @@
         <f>AVERAGE(I88:I96)</f>
         <v>1.1074066137566139</v>
       </c>
+      <c r="AW98" s="17"/>
+      <c r="BC98" s="17"/>
+      <c r="BD98">
+        <v>9</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI98" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ98" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:62" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>3.7</v>
       </c>
+      <c r="AW99" s="17"/>
+      <c r="BC99" s="17"/>
+      <c r="BD99">
+        <v>9.5</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI99" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ99" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:62" x14ac:dyDescent="0.3">
       <c r="C100" s="5" t="s">
         <v>33</v>
       </c>
@@ -14458,16 +16190,64 @@
         <f>AVERAGE(D88:D99)</f>
         <v>3.4250000000000007</v>
       </c>
+      <c r="AW100" s="17"/>
+      <c r="BC100" s="17"/>
+      <c r="BD100">
+        <v>10</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI100" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ100" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G101" s="25" t="s">
+    <row r="101" spans="3:62" x14ac:dyDescent="0.3">
+      <c r="G101" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="AW101" s="17"/>
+      <c r="BC101" s="17"/>
+      <c r="BD101">
+        <v>10.5</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI101" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ101" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F102" t="s">
         <v>11</v>
       </c>
@@ -14483,8 +16263,32 @@
       <c r="J102" t="s">
         <v>31</v>
       </c>
+      <c r="AW102" s="17"/>
+      <c r="BC102" s="17"/>
+      <c r="BD102">
+        <v>11</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI102" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ102" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F103">
         <v>1.5</v>
       </c>
@@ -14504,8 +16308,32 @@
         <f>F103*I119</f>
         <v>1.5045291021478522</v>
       </c>
+      <c r="AW103" s="17"/>
+      <c r="BC103" s="17"/>
+      <c r="BD103">
+        <v>11.5</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI103" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ103" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F104">
         <v>2</v>
       </c>
@@ -14514,19 +16342,43 @@
         <v>5.4250000000000007</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H116" si="26">0.33*G104</f>
+        <f t="shared" ref="H104:H116" si="39">0.33*G104</f>
         <v>1.7902500000000003</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I113" si="27">H104/F104</f>
+        <f t="shared" ref="I104:I113" si="40">H104/F104</f>
         <v>0.89512500000000017</v>
       </c>
       <c r="J104">
         <f>F104*I119</f>
         <v>2.0060388028638028</v>
       </c>
+      <c r="AW104" s="17"/>
+      <c r="BC104" s="17"/>
+      <c r="BD104">
+        <v>12</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI104" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ104" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F105">
         <v>2.5</v>
       </c>
@@ -14535,19 +16387,29 @@
         <v>7.4250000000000007</v>
       </c>
       <c r="H105">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>2.4502500000000005</v>
       </c>
       <c r="I105">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0.98010000000000019</v>
       </c>
       <c r="J105">
         <f>F105*I119</f>
         <v>2.5075485035797533</v>
       </c>
+      <c r="AW105" s="17"/>
+      <c r="BC105" s="19"/>
+      <c r="BI105" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ105" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F106">
         <v>3</v>
       </c>
@@ -14556,19 +16418,21 @@
         <v>8.9250000000000007</v>
       </c>
       <c r="H106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>2.9452500000000006</v>
       </c>
       <c r="I106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0.98175000000000023</v>
       </c>
       <c r="J106">
         <f>F106*I119</f>
         <v>3.0090582042957044</v>
       </c>
+      <c r="AW106" s="17"/>
+      <c r="BC106" s="19"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F107">
         <v>3.5</v>
       </c>
@@ -14577,19 +16441,31 @@
         <v>10.925000000000001</v>
       </c>
       <c r="H107">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>3.6052500000000003</v>
       </c>
       <c r="I107">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.0300714285714287</v>
       </c>
       <c r="J107">
         <f>F107*I119</f>
         <v>3.5105679050116549</v>
       </c>
+      <c r="AW107" s="17"/>
+      <c r="BH107" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI107" t="e">
+        <f>AVERAGE(BI88:BI105)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ107" t="e">
+        <f>AVERAGE(BJ92:BJ105)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F108">
         <v>4</v>
       </c>
@@ -14598,19 +16474,23 @@
         <v>12.425000000000001</v>
       </c>
       <c r="H108">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>4.1002500000000008</v>
       </c>
       <c r="I108">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.0250625000000002</v>
       </c>
       <c r="J108">
         <f>F108*I119</f>
         <v>4.0120776057276055</v>
       </c>
+      <c r="AW108" s="17"/>
+      <c r="BJ108" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F109">
         <v>4.5</v>
       </c>
@@ -14619,19 +16499,20 @@
         <v>14.425000000000001</v>
       </c>
       <c r="H109">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>4.7602500000000001</v>
       </c>
       <c r="I109">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.0578333333333334</v>
       </c>
       <c r="J109">
         <f>F109*I119</f>
         <v>4.5135873064435561</v>
       </c>
+      <c r="AW109" s="17"/>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F110">
         <v>5</v>
       </c>
@@ -14640,19 +16521,20 @@
         <v>15.925000000000001</v>
       </c>
       <c r="H110">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>5.2552500000000002</v>
       </c>
       <c r="I110">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.05105</v>
       </c>
       <c r="J110">
         <f>F110*I119</f>
         <v>5.0150970071595067</v>
       </c>
+      <c r="AW110" s="17"/>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F111">
         <v>5.5</v>
       </c>
@@ -14661,19 +16543,20 @@
         <v>17.425000000000001</v>
       </c>
       <c r="H111">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>5.7502500000000003</v>
       </c>
       <c r="I111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.0455000000000001</v>
       </c>
       <c r="J111">
         <f>F111*I119</f>
         <v>5.5166067078754573</v>
       </c>
+      <c r="AW111" s="17"/>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F112">
         <v>6</v>
       </c>
@@ -14682,19 +16565,20 @@
         <v>18.925000000000001</v>
       </c>
       <c r="H112">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>6.2452500000000004</v>
       </c>
       <c r="I112">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.040875</v>
       </c>
       <c r="J112">
         <f>F112*I119</f>
         <v>6.0181164085914087</v>
       </c>
+      <c r="AW112" s="17"/>
     </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:49" x14ac:dyDescent="0.3">
       <c r="F113">
         <v>6.5</v>
       </c>
@@ -14703,19 +16587,20 @@
         <v>20.925000000000001</v>
       </c>
       <c r="H113">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>6.9052500000000006</v>
       </c>
       <c r="I113">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1.0623461538461538</v>
       </c>
       <c r="J113">
         <f>F113*I119</f>
         <v>6.5196261093073593</v>
       </c>
+      <c r="AW113" s="17"/>
     </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:49" x14ac:dyDescent="0.3">
       <c r="F114">
         <v>7</v>
       </c>
@@ -14724,7 +16609,7 @@
         <v>22.425000000000001</v>
       </c>
       <c r="H114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>7.4002500000000007</v>
       </c>
       <c r="I114">
@@ -14735,8 +16620,9 @@
         <f>F114*I119</f>
         <v>7.0211358100233099</v>
       </c>
+      <c r="AW114" s="17"/>
     </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:49" x14ac:dyDescent="0.3">
       <c r="F115">
         <v>7.5</v>
       </c>
@@ -14745,7 +16631,7 @@
         <v>24.425000000000001</v>
       </c>
       <c r="H115">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>8.0602499999999999</v>
       </c>
       <c r="I115">
@@ -14756,8 +16642,9 @@
         <f>F115*I119</f>
         <v>7.5226455107392605</v>
       </c>
+      <c r="AW115" s="17"/>
     </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:49" x14ac:dyDescent="0.3">
       <c r="F116">
         <v>8</v>
       </c>
@@ -14766,7 +16653,7 @@
         <v>27.425000000000001</v>
       </c>
       <c r="H116">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>9.0502500000000001</v>
       </c>
       <c r="I116">
@@ -14777,9 +16664,15 @@
         <f>F116*I119</f>
         <v>8.024155211455211</v>
       </c>
+      <c r="AW116" s="17"/>
     </row>
-    <row r="118" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW117" s="17"/>
+    </row>
+    <row r="118" spans="4:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW118" s="17"/>
+    </row>
+    <row r="119" spans="4:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H119" s="5" t="s">
         <v>43</v>
       </c>
@@ -14787,27 +16680,48 @@
         <f>AVERAGE(I103:I113)</f>
         <v>1.0030194014319014</v>
       </c>
+      <c r="AW119" s="17"/>
     </row>
-    <row r="126" spans="4:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="I126" s="24" t="s">
+    <row r="120" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW120" s="17"/>
+    </row>
+    <row r="121" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW121" s="17"/>
+    </row>
+    <row r="122" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW122" s="17"/>
+    </row>
+    <row r="123" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW123" s="17"/>
+    </row>
+    <row r="124" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW124" s="17"/>
+    </row>
+    <row r="125" spans="4:49" x14ac:dyDescent="0.3">
+      <c r="AW125" s="17"/>
+    </row>
+    <row r="126" spans="4:49" ht="21" x14ac:dyDescent="0.4">
+      <c r="I126" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="24"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+      <c r="AW126" s="17"/>
     </row>
-    <row r="127" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:49" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>38</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="AW127" s="17"/>
     </row>
-    <row r="128" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G128" s="15"/>
       <c r="H128" s="2" t="s">
         <v>1</v>
@@ -14828,8 +16742,9 @@
       <c r="N128" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="AW128" s="17"/>
     </row>
-    <row r="129" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:49" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>40</v>
       </c>
@@ -14843,19 +16758,20 @@
         <v>215</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J135" si="28">I129</f>
+        <f t="shared" ref="J129:J135" si="41">I129</f>
         <v>215</v>
       </c>
       <c r="K129">
-        <f t="shared" ref="K129:K146" si="29">J129*2*PI()/60</f>
+        <f t="shared" ref="K129:K146" si="42">J129*2*PI()/60</f>
         <v>22.51474735072685</v>
       </c>
       <c r="M129">
         <f>$E$132/K129*((H129-$E$131*K129)/$E$130)</f>
         <v>2.2090130465148679E-2</v>
       </c>
+      <c r="AW129" s="17"/>
     </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>41</v>
       </c>
@@ -14873,19 +16789,20 @@
         <v>325</v>
       </c>
       <c r="J130">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>325</v>
       </c>
       <c r="K130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>34.033920413889426</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:M146" si="30">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
+        <f t="shared" ref="M130:M146" si="43">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
         <v>1.6125579522699003E-2</v>
       </c>
+      <c r="AW130" s="17"/>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:49" x14ac:dyDescent="0.3">
       <c r="D131" s="5" t="s">
         <v>42</v>
       </c>
@@ -14900,19 +16817,20 @@
         <v>420</v>
       </c>
       <c r="J131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>420</v>
       </c>
       <c r="K131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>43.982297150257104</v>
       </c>
       <c r="M131">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1.3732466580216781E-2</v>
       </c>
+      <c r="AW131" s="17"/>
     </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:49" x14ac:dyDescent="0.3">
       <c r="D132" s="5" t="s">
         <v>43</v>
       </c>
@@ -14927,19 +16845,20 @@
         <v>555</v>
       </c>
       <c r="J132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>555</v>
       </c>
       <c r="K132">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>58.119464091411174</v>
       </c>
       <c r="M132">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1.117133763121049E-2</v>
       </c>
+      <c r="AW132" s="17"/>
     </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:49" x14ac:dyDescent="0.3">
       <c r="D133" s="5"/>
       <c r="G133" s="17"/>
       <c r="H133">
@@ -14949,23 +16868,24 @@
         <v>675</v>
       </c>
       <c r="J133">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>675</v>
       </c>
       <c r="K133">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>70.685834705770347</v>
       </c>
       <c r="M133">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>9.8784238976240869E-3</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N146" si="31">M133*K133</f>
+        <f t="shared" ref="N133:N146" si="44">M133*K133</f>
         <v>0.69826463878098788</v>
       </c>
+      <c r="AW133" s="17"/>
     </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G134" s="17"/>
       <c r="H134">
         <v>6</v>
@@ -14974,23 +16894,24 @@
         <v>805</v>
       </c>
       <c r="J134">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>805</v>
       </c>
       <c r="K134">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>84.299402871326109</v>
       </c>
       <c r="M134">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>8.8350165554967938E-3</v>
       </c>
       <c r="N134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.74478661998666007</v>
       </c>
+      <c r="AW134" s="17"/>
     </row>
-    <row r="135" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G135" s="18"/>
       <c r="H135">
         <v>6.5</v>
@@ -14999,23 +16920,24 @@
         <v>930</v>
       </c>
       <c r="J135">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>930</v>
       </c>
       <c r="K135">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>97.389372261283583</v>
       </c>
       <c r="M135">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>8.1378884925822244E-3</v>
       </c>
       <c r="N135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.79254385182490616</v>
       </c>
+      <c r="AW135" s="17"/>
     </row>
-    <row r="136" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:49" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G136" s="16" t="s">
         <v>51</v>
       </c>
@@ -15030,19 +16952,20 @@
         <v>1225</v>
       </c>
       <c r="K136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>128.28170002158322</v>
       </c>
       <c r="M136">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>6.2230432089794658E-3</v>
       </c>
       <c r="N136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.79830256215565443</v>
       </c>
+      <c r="AW136" s="17"/>
     </row>
-    <row r="137" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G137" s="17"/>
       <c r="H137">
         <v>7.5</v>
@@ -15051,23 +16974,24 @@
         <v>138.5</v>
       </c>
       <c r="J137">
-        <f t="shared" ref="J137:J146" si="32">I137/0.1</f>
+        <f t="shared" ref="J137:J146" si="45">I137/0.1</f>
         <v>1385</v>
       </c>
       <c r="K137">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>145.03686084072879</v>
       </c>
       <c r="M137">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>5.7737945699575322E-3</v>
       </c>
       <c r="N137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.83741303956588609</v>
       </c>
+      <c r="AW137" s="17"/>
     </row>
-    <row r="138" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G138" s="17"/>
       <c r="H138">
         <v>8</v>
@@ -15076,23 +17000,24 @@
         <v>153</v>
       </c>
       <c r="J138">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>1530</v>
       </c>
       <c r="K138">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>160.22122533307945</v>
       </c>
       <c r="M138">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>5.4938368311935838E-3</v>
       </c>
       <c r="N138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.88022926887383834</v>
       </c>
+      <c r="AW138" s="17"/>
     </row>
-    <row r="139" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G139" s="17"/>
       <c r="H139">
         <v>8.5</v>
@@ -15101,23 +17026,24 @@
         <v>169</v>
       </c>
       <c r="J139">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>1690</v>
       </c>
       <c r="K139">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>176.97638615222502</v>
       </c>
       <c r="M139">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>5.1947028994778228E-3</v>
       </c>
       <c r="N139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.91933974628407011</v>
       </c>
+      <c r="AW139" s="17"/>
     </row>
-    <row r="140" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G140" s="17"/>
       <c r="H140">
         <v>9</v>
@@ -15126,23 +17052,24 @@
         <v>179</v>
       </c>
       <c r="J140">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>1790</v>
       </c>
       <c r="K140">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>187.448361664191</v>
       </c>
       <c r="M140">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>5.1922205275326842E-3</v>
       </c>
       <c r="N140">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0.97327323128518317</v>
       </c>
+      <c r="AW140" s="17"/>
     </row>
-    <row r="141" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G141" s="17"/>
       <c r="H141">
         <v>9.5</v>
@@ -15151,23 +17078,24 @@
         <v>191</v>
       </c>
       <c r="J141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>1910</v>
       </c>
       <c r="K141">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>200.01473227855016</v>
       </c>
       <c r="M141">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>5.1109520889308594E-3</v>
       </c>
       <c r="N141">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.0222657137560025</v>
       </c>
+      <c r="AW141" s="17"/>
     </row>
-    <row r="142" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G142" s="17"/>
       <c r="H142">
         <v>10</v>
@@ -15176,23 +17104,24 @@
         <v>208</v>
       </c>
       <c r="J142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>2080</v>
       </c>
       <c r="K142">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>217.8170906488923</v>
       </c>
       <c r="M142">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>4.8614444658430312E-3</v>
       </c>
       <c r="N142">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.0589056899010874</v>
       </c>
+      <c r="AW142" s="17"/>
     </row>
-    <row r="143" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G143" s="17"/>
       <c r="H143">
         <v>10.5</v>
@@ -15201,23 +17130,24 @@
         <v>225</v>
       </c>
       <c r="J143">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>2250</v>
       </c>
       <c r="K143">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>235.61944901923451</v>
       </c>
       <c r="M143">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>4.6496402169106952E-3</v>
       </c>
       <c r="N143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.095545666046172</v>
       </c>
+      <c r="AW143" s="17"/>
     </row>
-    <row r="144" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:49" x14ac:dyDescent="0.3">
       <c r="G144" s="17"/>
       <c r="H144">
         <v>11</v>
@@ -15226,21 +17156,22 @@
         <v>240</v>
       </c>
       <c r="J144">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>2400</v>
       </c>
       <c r="K144">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>251.32741228718345</v>
       </c>
       <c r="M144">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>4.524483160723407E-3</v>
       </c>
       <c r="N144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.1371266447215507</v>
       </c>
+      <c r="AW144" s="17"/>
     </row>
     <row r="145" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G145" s="17"/>
@@ -15251,19 +17182,19 @@
         <v>253</v>
       </c>
       <c r="J145">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>2530</v>
       </c>
       <c r="K145">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>264.94098045273921</v>
       </c>
       <c r="M145">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>4.4675935897291854E-3</v>
       </c>
       <c r="N145">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.1836486259272232</v>
       </c>
     </row>
@@ -15276,19 +17207,19 @@
         <v>269</v>
       </c>
       <c r="J146">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>2690</v>
       </c>
       <c r="K146">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>281.69614127188476</v>
       </c>
       <c r="M146">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>4.3407023533108477E-3</v>
       </c>
       <c r="N146">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1.2227591033374552</v>
       </c>
     </row>
@@ -15310,15 +17241,15 @@
       </c>
     </row>
     <row r="152" spans="7:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="I152" s="24" t="s">
+      <c r="I152" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J152" s="24"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="24"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="24"/>
-      <c r="O152" s="24"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="26"/>
+      <c r="M152" s="26"/>
+      <c r="N152" s="26"/>
+      <c r="O152" s="26"/>
     </row>
     <row r="154" spans="7:15" x14ac:dyDescent="0.3">
       <c r="J154" s="2" t="s">
@@ -15333,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <f t="shared" ref="K155:K161" si="33">J155</f>
+        <f t="shared" ref="K155:K161" si="46">J155</f>
         <v>0</v>
       </c>
     </row>
@@ -15342,7 +17273,7 @@
         <v>325</v>
       </c>
       <c r="K156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>325</v>
       </c>
     </row>
@@ -15351,7 +17282,7 @@
         <v>420</v>
       </c>
       <c r="K157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>420</v>
       </c>
     </row>
@@ -15360,7 +17291,7 @@
         <v>555</v>
       </c>
       <c r="K158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>555</v>
       </c>
     </row>
@@ -15369,7 +17300,7 @@
         <v>675</v>
       </c>
       <c r="K159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>675</v>
       </c>
     </row>
@@ -15378,7 +17309,7 @@
         <v>805</v>
       </c>
       <c r="K160">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>805</v>
       </c>
     </row>
@@ -15387,7 +17318,7 @@
         <v>930</v>
       </c>
       <c r="K161">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>930</v>
       </c>
     </row>
@@ -15405,7 +17336,7 @@
         <v>138.5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K172" si="34">J163/0.1</f>
+        <f t="shared" ref="K163:K172" si="47">J163/0.1</f>
         <v>1385</v>
       </c>
     </row>
@@ -15414,7 +17345,7 @@
         <v>153</v>
       </c>
       <c r="K164">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1530</v>
       </c>
     </row>
@@ -15423,7 +17354,7 @@
         <v>169</v>
       </c>
       <c r="K165">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1690</v>
       </c>
     </row>
@@ -15432,7 +17363,7 @@
         <v>179</v>
       </c>
       <c r="K166">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1790</v>
       </c>
     </row>
@@ -15441,7 +17372,7 @@
         <v>191</v>
       </c>
       <c r="K167">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1910</v>
       </c>
     </row>
@@ -15450,7 +17381,7 @@
         <v>208</v>
       </c>
       <c r="K168">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2080</v>
       </c>
     </row>
@@ -15459,7 +17390,7 @@
         <v>225</v>
       </c>
       <c r="K169">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2250</v>
       </c>
     </row>
@@ -15468,7 +17399,7 @@
         <v>240</v>
       </c>
       <c r="K170">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2400</v>
       </c>
     </row>
@@ -15477,7 +17408,7 @@
         <v>253</v>
       </c>
       <c r="K171">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2530</v>
       </c>
     </row>
@@ -15486,13 +17417,16 @@
         <v>269</v>
       </c>
       <c r="K172">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2690</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AT28:BA28"/>
+  <mergeCells count="13">
+    <mergeCell ref="AN26:AU26"/>
+    <mergeCell ref="AN28:AU28"/>
+    <mergeCell ref="AY28:BE28"/>
+    <mergeCell ref="AZ56:BG56"/>
     <mergeCell ref="I152:O152"/>
     <mergeCell ref="K28:Q28"/>
     <mergeCell ref="I126:O126"/>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -267,7 +267,7 @@
     <t>Test of the torque to get Kt (torquemeter) NEW</t>
   </si>
   <si>
-    <t>s</t>
+    <t>The Kt we keep:</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -436,11 +436,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -501,6 +510,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,6 +1356,389 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BD$86:$BD$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BI$86:$BI$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4347395447611096E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.297796560870236E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1386225731009746E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0156110183072246E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.864440191934183E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7023149578529492E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6702276719410389E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5576335780715959E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4301103744949697E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.319449981984191E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2699810003029941E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2093666109843348E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.137231154416286E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0132827130077079E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3829319105482502E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32E2-4355-BF31-393F793DC4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="373300512"/>
+        <c:axId val="373300840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="373300512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.72000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373300840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="373300840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0000000000000012E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373300512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6433,7 +6832,831 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17418700784229224"/>
+          <c:y val="0.12051015915354843"/>
+          <c:w val="0.6876696597841081"/>
+          <c:h val="0.73521781054308788"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BC$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kt(up)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BA$59:$BA$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BC$59:$BC$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.2199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0533333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8720000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8866666666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9028571428571428E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9959999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.92E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9169230769230767E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9285714285714283E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9226666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9152941176470586E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8933333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8947368421052635E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F80D-4AE7-B416-1C982549122F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366106856"/>
+        <c:axId val="366107184"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$BH$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Kt(down)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$BA$59:$BA$77</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$BH$59:$BH$77</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="3">
+                        <c:v>3.7359999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.78E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.674285714285714E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.6249999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.5466666666666667E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.4880000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.3636363636363638E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.266666666666667E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.3046153846153843E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.2057142857142853E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.1733333333333329E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.1574999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.1270588235294113E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.1133333333333332E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.0673684210526315E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.962E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F80D-4AE7-B416-1C982549122F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366106856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> I (A)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366107184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366107184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-2"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366106856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6753,6 +7976,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7269,7 +8532,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7785,7 +9048,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8301,7 +9564,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8817,528 +10080,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9854,7 +10596,528 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10370,7 +11633,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11185,7 +13480,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>449270</xdr:colOff>
+      <xdr:colOff>364603</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
@@ -11218,6 +13513,78 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>252460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>200121</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509FB966-FB62-40A1-B9E7-D4F65F18F7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DAD21D-D8D0-42D0-B60A-46A2E508F8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11522,8 +13889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:BK172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ26" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="BI39" sqref="BI39"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11538,6 +13905,7 @@
     <col min="52" max="52" width="12.33203125" customWidth="1"/>
     <col min="53" max="53" width="11.5546875" customWidth="1"/>
     <col min="54" max="54" width="10.44140625" customWidth="1"/>
+    <col min="59" max="59" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
@@ -11652,6 +14020,9 @@
       <c r="AY10" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="AZ10" s="36">
+        <v>1.4200000000000001E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -11675,6 +14046,10 @@
       <c r="AY11" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="AZ11" s="4">
+        <f>BG50</f>
+        <v>3.5510759501759206E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -11698,6 +14073,10 @@
       <c r="AY12" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="AZ12" s="4">
+        <f>BC78</f>
+        <v>2.9286558050189863E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -11743,6 +14122,10 @@
       <c r="AW14" s="17"/>
       <c r="AY14" s="5" t="s">
         <v>62</v>
+      </c>
+      <c r="AZ14">
+        <f>BI102</f>
+        <v>1.5999400748723083E-4</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
@@ -13757,7 +16140,7 @@
         <v>3.4189763321357508E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E49">
         <v>13</v>
       </c>
@@ -13840,7 +16223,7 @@
         <v>3.3994873740416764E-2</v>
       </c>
     </row>
-    <row r="50" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>13.5</v>
       </c>
@@ -13908,7 +16291,7 @@
         <v>3.5510759501759206E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51">
         <v>14</v>
       </c>
@@ -13969,7 +16352,7 @@
       </c>
       <c r="AW51" s="17"/>
     </row>
-    <row r="52" spans="4:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P52" s="12">
         <f>AVERAGE(P32:P51)</f>
         <v>0.50004956219903474</v>
@@ -13990,7 +16373,7 @@
       </c>
       <c r="AW52" s="17"/>
     </row>
-    <row r="53" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:62" x14ac:dyDescent="0.3">
       <c r="J53" s="9">
         <f>4.6*2*PI()/60</f>
         <v>0.4817108735504349</v>
@@ -14001,13 +16384,13 @@
       </c>
       <c r="AW53" s="17"/>
     </row>
-    <row r="54" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:62" x14ac:dyDescent="0.3">
       <c r="AW54" s="17"/>
     </row>
-    <row r="55" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:62" x14ac:dyDescent="0.3">
       <c r="AW55" s="17"/>
     </row>
-    <row r="56" spans="4:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -14027,7 +16410,7 @@
       <c r="BF56" s="26"/>
       <c r="BG56" s="26"/>
     </row>
-    <row r="57" spans="4:60" ht="21" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:62" ht="21" x14ac:dyDescent="0.4">
       <c r="H57" s="26" t="s">
         <v>36</v>
       </c>
@@ -14040,7 +16423,7 @@
       <c r="O57" s="26"/>
       <c r="AW57" s="17"/>
     </row>
-    <row r="58" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:62" x14ac:dyDescent="0.3">
       <c r="AW58" s="17"/>
       <c r="AY58" t="s">
         <v>12</v>
@@ -14066,8 +16449,14 @@
       <c r="BG58" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="BH58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="59" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:62" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>12</v>
       </c>
@@ -14097,34 +16486,33 @@
       </c>
       <c r="AW59" s="17"/>
       <c r="AZ59">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="BA59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BB59">
-        <f>AZ59/(5*1000)</f>
-        <v>0</v>
+        <f t="shared" ref="BB59:BB77" si="19">AZ59/(5*1000)</f>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="BC59" s="4">
         <f>BB59/BA59</f>
-        <v>0</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="BE59">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="BF59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BG59">
-        <f>BE59/(5*1000)</f>
-        <v>0</v>
-      </c>
-      <c r="BH59" s="2" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="BG59:BG77" si="20">BE59/(5*1000)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="BH59" s="4"/>
+      <c r="BJ59" s="4"/>
     </row>
-    <row r="60" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:62" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>40</v>
       </c>
@@ -14155,35 +16543,33 @@
       </c>
       <c r="AW60" s="17"/>
       <c r="AZ60">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BB60">
-        <f t="shared" ref="BB60:BB79" si="19">AZ60/(5*1000)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>4.58E-2</v>
       </c>
       <c r="BC60" s="4">
         <f>BB60/BA60</f>
-        <v>0</v>
+        <v>3.0533333333333332E-2</v>
       </c>
       <c r="BE60">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="BF60">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="BG60">
-        <f t="shared" ref="BG60:BG78" si="20">BE60/(5*1000)</f>
-        <v>0</v>
-      </c>
-      <c r="BH60" s="4">
-        <f t="shared" ref="BH60:BH80" si="21">BG59/BF59</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="20"/>
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="BH60" s="4"/>
+      <c r="BJ60" s="4"/>
     </row>
-    <row r="61" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:62" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>48</v>
       </c>
@@ -14191,7 +16577,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:G69" si="22">E61/(5*1000)</f>
+        <f t="shared" ref="G61:G69" si="21">E61/(5*1000)</f>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="H61" s="4">
@@ -14205,44 +16591,42 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L79" si="23">J61/(5*1000)</f>
+        <f t="shared" ref="L61:L79" si="22">J61/(5*1000)</f>
         <v>1.34E-2</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" ref="M61:M79" si="24">L61/K61</f>
+        <f t="shared" ref="M61:M79" si="23">L61/K61</f>
         <v>1.34E-2</v>
       </c>
       <c r="AW61" s="17"/>
       <c r="AZ61">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="BA61">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="BB61">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="BC61" s="4">
-        <f>BB61/BA61</f>
-        <v>0</v>
+        <f t="shared" ref="BC61:BC77" si="24">BB61/BA61</f>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="BE61">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="BF61">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="BG61">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BH61" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="BH61" s="4"/>
+      <c r="BJ61" s="4"/>
     </row>
-    <row r="62" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:62" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>63</v>
       </c>
@@ -14250,7 +16634,7 @@
         <v>1.53</v>
       </c>
       <c r="G62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.26E-2</v>
       </c>
       <c r="H62" s="4">
@@ -14264,44 +16648,48 @@
         <v>1.53</v>
       </c>
       <c r="L62">
+        <f t="shared" si="22"/>
+        <v>1.54E-2</v>
+      </c>
+      <c r="M62" s="4">
         <f t="shared" si="23"/>
-        <v>1.54E-2</v>
-      </c>
-      <c r="M62" s="4">
-        <f t="shared" si="24"/>
         <v>1.0065359477124183E-2</v>
       </c>
       <c r="AW62" s="17"/>
       <c r="AZ62">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="BA62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BB62">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7.1800000000000003E-2</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" ref="BC62:BC79" si="25">BB62/BA62</f>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.8720000000000002E-2</v>
       </c>
       <c r="BE62">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="BF62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BG62">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="BH62" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG62/BF62</f>
+        <v>3.7359999999999997E-2</v>
+      </c>
+      <c r="BJ62" s="4">
+        <f t="shared" ref="BJ62:BJ64" si="25">AVERAGE(BC62,BH62)</f>
+        <v>3.304E-2</v>
       </c>
     </row>
-    <row r="63" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:62" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>77</v>
       </c>
@@ -14309,7 +16697,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.54E-2</v>
       </c>
       <c r="H63" s="4">
@@ -14323,44 +16711,48 @@
         <v>2</v>
       </c>
       <c r="L63">
+        <f t="shared" si="22"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="M63" s="4">
         <f t="shared" si="23"/>
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="M63" s="4">
-        <f t="shared" si="24"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="AW63" s="17"/>
       <c r="AZ63">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="BA63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BB63">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="BC63" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.8866666666666665E-2</v>
       </c>
       <c r="BE63">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="BF63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BG63">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.1134</v>
       </c>
       <c r="BH63" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG63/BF63</f>
+        <v>3.78E-2</v>
+      </c>
+      <c r="BJ63" s="4">
+        <f t="shared" si="25"/>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:60" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:62" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>90</v>
       </c>
@@ -14368,7 +16760,7 @@
         <v>2.5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H64" s="4">
@@ -14382,41 +16774,45 @@
         <v>2.5</v>
       </c>
       <c r="L64">
+        <f t="shared" si="22"/>
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="M64" s="4">
         <f t="shared" si="23"/>
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="M64" s="4">
-        <f t="shared" si="24"/>
         <v>8.6E-3</v>
       </c>
       <c r="AW64" s="17"/>
       <c r="AZ64">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="BA64">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BB64">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.1016</v>
       </c>
       <c r="BC64" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9028571428571428E-2</v>
       </c>
       <c r="BE64">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="BF64">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BG64">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="BH64" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG64/BF64</f>
+        <v>3.674285714285714E-2</v>
+      </c>
+      <c r="BJ64" s="4">
+        <f t="shared" si="25"/>
+        <v>3.2885714285714282E-2</v>
       </c>
     </row>
     <row r="65" spans="5:63" x14ac:dyDescent="0.3">
@@ -14427,7 +16823,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="H65" s="4">
@@ -14441,41 +16837,45 @@
         <v>3</v>
       </c>
       <c r="L65">
+        <f t="shared" si="22"/>
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="M65" s="4">
         <f t="shared" si="23"/>
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="M65" s="4">
-        <f t="shared" si="24"/>
         <v>8.266666666666667E-3</v>
       </c>
       <c r="AW65" s="17"/>
       <c r="AZ65">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="BA65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BB65">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.1164</v>
       </c>
       <c r="BC65" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="BE65">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="BF65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BG65">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="BH65" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG65/BF65</f>
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="BJ65" s="4">
+        <f>AVERAGE(BC65,BH65)</f>
+        <v>3.2674999999999996E-2</v>
       </c>
     </row>
     <row r="66" spans="5:63" x14ac:dyDescent="0.3">
@@ -14486,7 +16886,7 @@
         <v>3.5</v>
       </c>
       <c r="G66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H66" s="4">
@@ -14500,11 +16900,11 @@
         <v>3.5</v>
       </c>
       <c r="L66">
+        <f t="shared" si="22"/>
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="M66" s="4">
         <f t="shared" si="23"/>
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="M66" s="4">
-        <f t="shared" si="24"/>
         <v>7.9428571428571421E-3</v>
       </c>
       <c r="O66" t="s">
@@ -14515,35 +16915,36 @@
       </c>
       <c r="AW66" s="17"/>
       <c r="AZ66">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="BA66">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BB66">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="BC66" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9199999999999997E-2</v>
       </c>
       <c r="BE66">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="BF66">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BG66">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.15959999999999999</v>
       </c>
       <c r="BH66" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BJ66" t="s">
-        <v>16</v>
+        <f>BG66/BF66</f>
+        <v>3.5466666666666667E-2</v>
+      </c>
+      <c r="BJ66" s="4">
+        <f>AVERAGE(BC66,BH66)</f>
+        <v>3.2333333333333332E-2</v>
       </c>
     </row>
     <row r="67" spans="5:63" x14ac:dyDescent="0.3">
@@ -14554,7 +16955,7 @@
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.58E-2</v>
       </c>
       <c r="H67" s="4">
@@ -14568,11 +16969,11 @@
         <v>4</v>
       </c>
       <c r="L67">
+        <f t="shared" si="22"/>
+        <v>0.03</v>
+      </c>
+      <c r="M67" s="4">
         <f t="shared" si="23"/>
-        <v>0.03</v>
-      </c>
-      <c r="M67" s="4">
-        <f t="shared" si="24"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="O67" s="4">
@@ -14586,36 +16987,36 @@
       <c r="Q67" s="4"/>
       <c r="AW67" s="17"/>
       <c r="AZ67">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="BA67">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BB67">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="BC67" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9959999999999997E-2</v>
       </c>
       <c r="BE67">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="BF67">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BG67">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.1744</v>
       </c>
       <c r="BH67" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG67/BF67</f>
+        <v>3.4880000000000001E-2</v>
       </c>
       <c r="BJ67" s="4">
-        <f t="shared" ref="BJ67:BJ80" si="27">AVERAGE(BC66,BH67)</f>
-        <v>0</v>
+        <f>AVERAGE(BC67,BH67)</f>
+        <v>3.2419999999999997E-2</v>
       </c>
       <c r="BK67" s="4"/>
     </row>
@@ -14627,7 +17028,7 @@
         <v>4.5</v>
       </c>
       <c r="G68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.04E-2</v>
       </c>
       <c r="H68" s="4">
@@ -14641,15 +17042,15 @@
         <v>4.5</v>
       </c>
       <c r="L68">
+        <f t="shared" si="22"/>
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="M68" s="4">
         <f t="shared" si="23"/>
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="M68" s="4">
-        <f t="shared" si="24"/>
         <v>7.244444444444444E-3</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" ref="O68:O80" si="28">AVERAGE(H68,M68)</f>
+        <f t="shared" ref="O68:O80" si="27">AVERAGE(H68,M68)</f>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="P68" s="4">
@@ -14659,36 +17060,36 @@
       <c r="Q68" s="4"/>
       <c r="AW68" s="17"/>
       <c r="AZ68">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="BA68">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BB68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.16059999999999999</v>
       </c>
       <c r="BC68" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.92E-2</v>
       </c>
       <c r="BE68">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="BF68">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BG68">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="BH68" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG68/BF68</f>
+        <v>3.3636363636363638E-2</v>
       </c>
       <c r="BJ68" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC68,BH68)</f>
+        <v>3.1418181818181817E-2</v>
       </c>
       <c r="BK68" s="4"/>
     </row>
@@ -14700,7 +17101,7 @@
         <v>5</v>
       </c>
       <c r="G69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="H69" s="4">
@@ -14714,15 +17115,15 @@
         <v>5</v>
       </c>
       <c r="L69">
+        <f t="shared" si="22"/>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="M69" s="4">
         <f t="shared" si="23"/>
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="M69" s="4">
-        <f t="shared" si="24"/>
         <v>7.0800000000000004E-3</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.8200000000000005E-3</v>
       </c>
       <c r="P69" s="4">
@@ -14732,36 +17133,36 @@
       <c r="Q69" s="4"/>
       <c r="AW69" s="17"/>
       <c r="AZ69">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="BA69">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BB69">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="BC69" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>3.04E-2</v>
       </c>
       <c r="BE69">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF69">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BG69">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="BH69" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG69/BF69</f>
+        <v>3.266666666666667E-2</v>
       </c>
       <c r="BJ69" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC69,BH69)</f>
+        <v>3.1533333333333337E-2</v>
       </c>
       <c r="BK69" s="4"/>
     </row>
@@ -14773,11 +17174,11 @@
         <v>5.5</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G80" si="29">E70/(5*1000)</f>
+        <f t="shared" ref="G70:G80" si="28">E70/(5*1000)</f>
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ref="H70:H80" si="30">G70/F70</f>
+        <f t="shared" ref="H70:H80" si="29">G70/F70</f>
         <v>6.1090909090909086E-3</v>
       </c>
       <c r="J70">
@@ -14787,54 +17188,54 @@
         <v>5.5</v>
       </c>
       <c r="L70">
+        <f t="shared" si="22"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M70" s="4">
         <f t="shared" si="23"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M70" s="4">
-        <f t="shared" si="24"/>
         <v>6.909090909090909E-3</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.5090909090909088E-3</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" ref="P70:P80" si="31">0.0064*F70</f>
+        <f t="shared" ref="P70:P80" si="30">0.0064*F70</f>
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="AW70" s="17"/>
       <c r="AZ70">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="BA70">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="BB70">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.18959999999999999</v>
       </c>
       <c r="BC70" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9169230769230767E-2</v>
       </c>
       <c r="BE70">
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="BF70">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="BG70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.21479999999999999</v>
       </c>
       <c r="BH70" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG70/BF70</f>
+        <v>3.3046153846153843E-2</v>
       </c>
       <c r="BJ70" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC70,BH70)</f>
+        <v>3.1107692307692305E-2</v>
       </c>
       <c r="BK70" s="4"/>
     </row>
@@ -14846,11 +17247,11 @@
         <v>6</v>
       </c>
       <c r="G71">
+        <f t="shared" si="28"/>
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="H71" s="4">
         <f t="shared" si="29"/>
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="H71" s="4">
-        <f t="shared" si="30"/>
         <v>6.0333333333333341E-3</v>
       </c>
       <c r="J71">
@@ -14860,54 +17261,54 @@
         <v>6</v>
       </c>
       <c r="L71">
+        <f t="shared" si="22"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M71" s="4">
         <f t="shared" si="23"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M71" s="4">
-        <f t="shared" si="24"/>
         <v>6.8333333333333336E-3</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.4333333333333343E-3</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>3.8400000000000004E-2</v>
       </c>
       <c r="Q71" s="4"/>
       <c r="AW71" s="17"/>
       <c r="AZ71">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="BA71">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BB71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="BC71" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9285714285714283E-2</v>
       </c>
       <c r="BE71">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="BF71">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BG71">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.22439999999999999</v>
       </c>
       <c r="BH71" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG71/BF71</f>
+        <v>3.2057142857142853E-2</v>
       </c>
       <c r="BJ71" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC71,BH71)</f>
+        <v>3.0671428571428568E-2</v>
       </c>
       <c r="BK71" s="4"/>
     </row>
@@ -14919,11 +17320,11 @@
         <v>6.5</v>
       </c>
       <c r="G72">
+        <f t="shared" si="28"/>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="H72" s="4">
         <f t="shared" si="29"/>
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="H72" s="4">
-        <f t="shared" si="30"/>
         <v>6.3692307692307694E-3</v>
       </c>
       <c r="J72">
@@ -14933,54 +17334,54 @@
         <v>6.5</v>
       </c>
       <c r="L72">
+        <f t="shared" si="22"/>
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="M72" s="4">
         <f t="shared" si="23"/>
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="M72" s="4">
-        <f t="shared" si="24"/>
         <v>6.7384615384615387E-3</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.553846153846154E-3</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>4.1600000000000005E-2</v>
       </c>
       <c r="Q72" s="4"/>
       <c r="AW72" s="17"/>
       <c r="AZ72">
-        <v>0</v>
+        <v>1096</v>
       </c>
       <c r="BA72">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BB72">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="BC72" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9226666666666668E-2</v>
       </c>
       <c r="BE72">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="BF72">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BG72">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="BH72" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG72/BF72</f>
+        <v>3.1733333333333329E-2</v>
       </c>
       <c r="BJ72" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC72,BH72)</f>
+        <v>3.048E-2</v>
       </c>
       <c r="BK72" s="4"/>
     </row>
@@ -14992,11 +17393,11 @@
         <v>7</v>
       </c>
       <c r="G73">
+        <f t="shared" si="28"/>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="H73" s="4">
         <f t="shared" si="29"/>
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="H73" s="4">
-        <f t="shared" si="30"/>
         <v>6.1714285714285716E-3</v>
       </c>
       <c r="J73">
@@ -15006,54 +17407,54 @@
         <v>7</v>
       </c>
       <c r="L73">
+        <f t="shared" si="22"/>
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="M73" s="4">
         <f t="shared" si="23"/>
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="M73" s="4">
-        <f t="shared" si="24"/>
         <v>6.6857142857142862E-3</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.4285714285714293E-3</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>4.48E-2</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="AW73" s="17"/>
       <c r="AZ73">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="BA73">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BB73">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="BC73" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9149999999999999E-2</v>
       </c>
       <c r="BE73">
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="BF73">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BG73">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.25259999999999999</v>
       </c>
       <c r="BH73" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG73/BF73</f>
+        <v>3.1574999999999999E-2</v>
       </c>
       <c r="BJ73" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC73,BH73)</f>
+        <v>3.0362500000000001E-2</v>
       </c>
       <c r="BK73" s="4"/>
     </row>
@@ -15065,11 +17466,11 @@
         <v>7.5</v>
       </c>
       <c r="G74">
+        <f t="shared" si="28"/>
+        <v>4.48E-2</v>
+      </c>
+      <c r="H74" s="4">
         <f t="shared" si="29"/>
-        <v>4.48E-2</v>
-      </c>
-      <c r="H74" s="4">
-        <f t="shared" si="30"/>
         <v>5.9733333333333331E-3</v>
       </c>
       <c r="J74">
@@ -15079,54 +17480,54 @@
         <v>7.5</v>
       </c>
       <c r="L74">
+        <f t="shared" si="22"/>
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="M74" s="4">
         <f t="shared" si="23"/>
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="M74" s="4">
-        <f t="shared" si="24"/>
         <v>6.613333333333333E-3</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.2933333333333331E-3</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q74" s="4"/>
       <c r="AW74" s="17"/>
       <c r="AZ74">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="BA74">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BB74">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.24779999999999999</v>
       </c>
       <c r="BC74" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.9152941176470586E-2</v>
       </c>
       <c r="BE74">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="BF74">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BG74">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.26579999999999998</v>
       </c>
       <c r="BH74" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG74/BF74</f>
+        <v>3.1270588235294113E-2</v>
       </c>
       <c r="BJ74" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC74,BH74)</f>
+        <v>3.0211764705882348E-2</v>
       </c>
       <c r="BK74" s="4"/>
     </row>
@@ -15138,11 +17539,11 @@
         <v>8</v>
       </c>
       <c r="G75">
+        <f t="shared" si="28"/>
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="H75" s="4">
         <f t="shared" si="29"/>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="H75" s="4">
-        <f t="shared" si="30"/>
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="J75">
@@ -15152,54 +17553,54 @@
         <v>8</v>
       </c>
       <c r="L75">
+        <f t="shared" si="22"/>
+        <v>5.16E-2</v>
+      </c>
+      <c r="M75" s="4">
         <f t="shared" si="23"/>
-        <v>5.16E-2</v>
-      </c>
-      <c r="M75" s="4">
-        <f t="shared" si="24"/>
         <v>6.45E-3</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="Q75" s="4"/>
       <c r="AW75" s="17"/>
       <c r="AZ75">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="BA75">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BB75">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="BC75" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.8933333333333335E-2</v>
       </c>
       <c r="BE75">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="BF75">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BG75">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.2802</v>
       </c>
       <c r="BH75" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG75/BF75</f>
+        <v>3.1133333333333332E-2</v>
       </c>
       <c r="BJ75" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC75,BH75)</f>
+        <v>3.0033333333333335E-2</v>
       </c>
       <c r="BK75" s="4"/>
     </row>
@@ -15211,11 +17612,11 @@
         <v>8.5</v>
       </c>
       <c r="G76">
+        <f t="shared" si="28"/>
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H76" s="4">
         <f t="shared" si="29"/>
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="H76" s="4">
-        <f t="shared" si="30"/>
         <v>6.1647058823529411E-3</v>
       </c>
       <c r="J76">
@@ -15225,58 +17626,58 @@
         <v>8.5</v>
       </c>
       <c r="L76">
+        <f t="shared" si="22"/>
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="M76" s="4">
         <f t="shared" si="23"/>
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="M76" s="4">
-        <f t="shared" si="24"/>
         <v>6.3764705882352942E-3</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.2705882352941181E-3</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>5.4400000000000004E-2</v>
       </c>
       <c r="Q76" s="4"/>
       <c r="AW76" s="17"/>
       <c r="AZ76">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="BA76">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BB76">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="BC76" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.8947368421052635E-2</v>
       </c>
       <c r="BE76">
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="BF76">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BG76">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.29139999999999999</v>
       </c>
       <c r="BH76" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG76/BF76</f>
+        <v>3.0673684210526315E-2</v>
       </c>
       <c r="BJ76" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC76,BH76)</f>
+        <v>2.9810526315789475E-2</v>
       </c>
       <c r="BK76" s="4"/>
     </row>
-    <row r="77" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E77">
         <v>277</v>
       </c>
@@ -15284,11 +17685,11 @@
         <v>9</v>
       </c>
       <c r="G77">
+        <f t="shared" si="28"/>
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="H77" s="4">
         <f t="shared" si="29"/>
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="H77" s="4">
-        <f t="shared" si="30"/>
         <v>6.1555555555555556E-3</v>
       </c>
       <c r="J77">
@@ -15298,58 +17699,58 @@
         <v>9</v>
       </c>
       <c r="L77">
+        <f t="shared" si="22"/>
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="M77" s="4">
         <f t="shared" si="23"/>
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="M77" s="4">
-        <f t="shared" si="24"/>
         <v>6.3111111111111111E-3</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.2333333333333338E-3</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>5.7600000000000005E-2</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="AW77" s="17"/>
       <c r="AZ77">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="BA77">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BB77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BC77" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="BE77">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="BF77">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BG77">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.29620000000000002</v>
       </c>
       <c r="BH77" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>BG77/BF77</f>
+        <v>2.962E-2</v>
       </c>
       <c r="BJ77" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AVERAGE(BC77,BH77)</f>
+        <v>2.9309999999999999E-2</v>
       </c>
       <c r="BK77" s="4"/>
     </row>
-    <row r="78" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E78">
         <v>283</v>
       </c>
@@ -15357,11 +17758,11 @@
         <v>9.5</v>
       </c>
       <c r="G78">
+        <f t="shared" si="28"/>
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="H78" s="4">
         <f t="shared" si="29"/>
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="H78" s="4">
-        <f t="shared" si="30"/>
         <v>5.9578947368421047E-3</v>
       </c>
       <c r="J78">
@@ -15371,54 +17772,41 @@
         <v>9.5</v>
       </c>
       <c r="L78">
+        <f t="shared" si="22"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M78" s="4">
         <f t="shared" si="23"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M78" s="4">
-        <f t="shared" si="24"/>
         <v>6.1052631578947369E-3</v>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.0315789473684208E-3</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6.08E-2</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="AW78" s="17"/>
-      <c r="AZ78">
-        <v>0</v>
-      </c>
-      <c r="BA78">
-        <v>10</v>
-      </c>
-      <c r="BB78">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BC78" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BE78">
-        <v>0</v>
-      </c>
-      <c r="BF78">
-        <v>10</v>
-      </c>
-      <c r="BG78">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BH78" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BJ78" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+      <c r="BA78" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB78" s="35"/>
+      <c r="BC78" s="6">
+        <f>AVERAGE(BC65:BC77)</f>
+        <v>2.9286558050189863E-2</v>
+      </c>
+      <c r="BH78" s="6">
+        <f>AVERAGE(BH65:BH77)</f>
+        <v>3.2616071752729285E-2</v>
+      </c>
+      <c r="BI78" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ78" s="6">
+        <f>AVERAGE(BJ65:BJ77)</f>
+        <v>3.0951314901459578E-2</v>
       </c>
       <c r="BK78" s="4"/>
     </row>
@@ -15430,11 +17818,11 @@
         <v>10</v>
       </c>
       <c r="G79">
+        <f t="shared" si="28"/>
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="H79" s="4">
         <f t="shared" si="29"/>
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="H79" s="4">
-        <f t="shared" si="30"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="J79">
@@ -15444,55 +17832,23 @@
         <v>10</v>
       </c>
       <c r="L79">
+        <f t="shared" si="22"/>
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="M79" s="4">
         <f t="shared" si="23"/>
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="M79" s="4">
-        <f t="shared" si="24"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="AW79" s="17"/>
-      <c r="AZ79">
-        <v>0</v>
-      </c>
-      <c r="BA79">
-        <v>10.37</v>
-      </c>
-      <c r="BB79">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BC79" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BE79">
-        <v>0</v>
-      </c>
-      <c r="BF79">
-        <v>10.37</v>
-      </c>
-      <c r="BG79">
-        <f>BE79/(5*1000)</f>
-        <v>0</v>
-      </c>
-      <c r="BH79" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BJ79" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
       <c r="BK79" s="4"/>
     </row>
     <row r="80" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15503,11 +17859,11 @@
         <v>10.37</v>
       </c>
       <c r="G80">
+        <f t="shared" si="28"/>
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="H80" s="4">
         <f t="shared" si="29"/>
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="H80" s="4">
-        <f t="shared" si="30"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="J80">
@@ -15525,23 +17881,15 @@
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6.6367999999999996E-2</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="AW80" s="17"/>
-      <c r="BH80" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BJ80" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
       <c r="BK80" s="4"/>
     </row>
     <row r="81" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15553,29 +17901,35 @@
         <v>6.4310433030799951E-3</v>
       </c>
       <c r="AW81" s="17"/>
-      <c r="BI81" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ81" s="6">
-        <f>AVERAGE(BJ67:BJ80)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="4:63" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW82" s="17"/>
+      <c r="BB82" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC82" s="26"/>
+      <c r="BD82" s="26"/>
+      <c r="BE82" s="26"/>
+      <c r="BF82" s="26"/>
+      <c r="BG82" s="26"/>
+      <c r="BH82" s="26"/>
     </row>
-    <row r="83" spans="4:63" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW83" s="17"/>
+      <c r="AZ83" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH83" s="24"/>
+      <c r="BI83" s="24"/>
+      <c r="BJ83" s="24"/>
     </row>
-    <row r="84" spans="4:63" ht="21" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:63" x14ac:dyDescent="0.3">
       <c r="AW84" s="17"/>
-      <c r="BE84" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF84" s="24"/>
-      <c r="BG84" s="24"/>
     </row>
-    <row r="85" spans="4:63" ht="21" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:63" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I85" s="26" t="s">
         <v>27</v>
       </c>
@@ -15586,18 +17940,28 @@
       <c r="N85" s="26"/>
       <c r="O85" s="26"/>
       <c r="AW85" s="17"/>
-      <c r="AZ85" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH85" s="24"/>
-      <c r="BI85" s="24"/>
-      <c r="BJ85" s="24"/>
+      <c r="BC85" s="15"/>
+      <c r="BD85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ85" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="BK85" s="24"/>
     </row>
-    <row r="86" spans="4:63" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:63" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -15608,21 +17972,32 @@
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="AW86" s="17"/>
-      <c r="BC86" s="15"/>
-      <c r="BD86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG86" s="2" t="s">
-        <v>47</v>
+      <c r="AZ86" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC86" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD86">
+        <v>0.74</v>
+      </c>
+      <c r="BE86">
+        <v>850</v>
+      </c>
+      <c r="BF86">
+        <f t="shared" ref="BF86:BF87" si="31">BE86</f>
+        <v>850</v>
+      </c>
+      <c r="BG86">
+        <f t="shared" ref="BG86:BG100" si="32">BF86*2*PI()/60</f>
+        <v>89.011791851710797</v>
+      </c>
+      <c r="BI86">
+        <f>$BA$87*BD86/BG86</f>
+        <v>2.4347395447611096E-4</v>
       </c>
     </row>
-    <row r="87" spans="4:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>32</v>
       </c>
@@ -15642,32 +18017,31 @@
         <v>31</v>
       </c>
       <c r="AW87" s="17"/>
-      <c r="AZ87" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC87" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="AZ87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA87" s="4">
+        <f>BC78</f>
+        <v>2.9286558050189863E-2</v>
+      </c>
+      <c r="BC87" s="17"/>
       <c r="BD87">
-        <v>3.5</v>
+        <v>0.76</v>
       </c>
       <c r="BE87">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="BF87">
-        <f t="shared" ref="BF87:BF93" si="32">BE87</f>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>925</v>
       </c>
       <c r="BG87">
-        <f t="shared" ref="BG87:BG104" si="33">BF87*2*PI()/60</f>
-        <v>0</v>
-      </c>
-      <c r="BH87" s="14"/>
-      <c r="BI87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ87" s="2" t="s">
-        <v>54</v>
+        <f t="shared" si="32"/>
+        <v>96.865773485685295</v>
+      </c>
+      <c r="BI87">
+        <f>$BA$87*BD87/BG87</f>
+        <v>2.297796560870236E-4</v>
       </c>
     </row>
     <row r="88" spans="4:63" x14ac:dyDescent="0.3">
@@ -15694,34 +18068,32 @@
         <v>1.6611099206349209</v>
       </c>
       <c r="AW88" s="17"/>
-      <c r="AZ88" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA88" s="4">
-        <f>BJ81</f>
-        <v>0</v>
-      </c>
+      <c r="AZ88" s="5"/>
       <c r="BC88" s="17"/>
       <c r="BD88">
-        <v>4</v>
+        <v>0.78</v>
       </c>
       <c r="BE88">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="BF88">
+        <f>BE88/0.1</f>
+        <v>1020</v>
+      </c>
+      <c r="BG88">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BG88">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI88" t="e">
-        <f t="shared" ref="BI88:BI105" si="34">$BA$88*BD87/BG87</f>
-        <v>#DIV/0!</v>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="BI88">
+        <f>$BA$87*BD88/BG88</f>
+        <v>2.1386225731009746E-4</v>
+      </c>
+      <c r="BJ88">
+        <f>BI88*BG88</f>
+        <v>2.2843515279148095E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:63" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>2.8</v>
       </c>
@@ -15732,11 +18104,11 @@
         <v>6</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H96" si="35">0.33*G89</f>
+        <f t="shared" ref="H89:H96" si="33">0.33*G89</f>
         <v>1.98</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I96" si="36">H89/F89</f>
+        <f t="shared" ref="I89:I96" si="34">H89/F89</f>
         <v>0.99</v>
       </c>
       <c r="J89">
@@ -15744,28 +18116,31 @@
         <v>2.2148132275132277</v>
       </c>
       <c r="AW89" s="17"/>
-      <c r="AZ89" s="5"/>
       <c r="BC89" s="17"/>
       <c r="BD89">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="BE89">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="BF89">
+        <f t="shared" ref="BF89:BF100" si="35">BE89/0.1</f>
+        <v>1110</v>
+      </c>
+      <c r="BG89">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BG89">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI89" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>116.23892818282235</v>
+      </c>
+      <c r="BI89">
+        <f>$BA$87*BD89/BG89</f>
+        <v>2.0156110183072246E-4</v>
+      </c>
+      <c r="BJ89">
+        <f>BI89*BG89</f>
+        <v>2.3429246440151891E-2</v>
       </c>
     </row>
-    <row r="90" spans="4:63" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>2.9</v>
       </c>
@@ -15776,11 +18151,11 @@
         <v>7.4</v>
       </c>
       <c r="H90">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2.4420000000000002</v>
       </c>
       <c r="I90">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0.97680000000000011</v>
       </c>
       <c r="J90">
@@ -15788,24 +18163,30 @@
         <v>2.7685165343915346</v>
       </c>
       <c r="AW90" s="17"/>
-      <c r="BC90" s="17"/>
+      <c r="BC90" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="BD90">
-        <v>5</v>
+        <v>0.82</v>
       </c>
       <c r="BE90">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="BF90">
+        <f t="shared" si="35"/>
+        <v>1230</v>
+      </c>
+      <c r="BG90">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BG90">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI90" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>128.80529879718151</v>
+      </c>
+      <c r="BI90">
+        <f>$BA$87*BD90/BG90</f>
+        <v>1.864440191934183E-4</v>
+      </c>
+      <c r="BJ90">
+        <f>BI90*BG90</f>
+        <v>2.4014977601155688E-2</v>
       </c>
     </row>
     <row r="91" spans="4:63" x14ac:dyDescent="0.3">
@@ -15819,11 +18200,11 @@
         <v>8.9</v>
       </c>
       <c r="H91">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2.9370000000000003</v>
       </c>
       <c r="I91">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0.97900000000000009</v>
       </c>
       <c r="J91">
@@ -15833,22 +18214,26 @@
       <c r="AW91" s="17"/>
       <c r="BC91" s="17"/>
       <c r="BD91">
-        <v>5.5</v>
+        <v>0.84</v>
       </c>
       <c r="BE91">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BF91">
+        <f t="shared" si="35"/>
+        <v>1380</v>
+      </c>
+      <c r="BG91">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BG91">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI91" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>144.5132620651305</v>
+      </c>
+      <c r="BI91">
+        <f>$BA$87*BD91/BG91</f>
+        <v>1.7023149578529492E-4</v>
+      </c>
+      <c r="BJ91">
+        <f>BI91*BG91</f>
+        <v>2.4600708762159484E-2</v>
       </c>
     </row>
     <row r="92" spans="4:63" x14ac:dyDescent="0.3">
@@ -15862,11 +18247,11 @@
         <v>10.3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3.3990000000000005</v>
       </c>
       <c r="I92">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0.97114285714285731</v>
       </c>
       <c r="J92">
@@ -15876,29 +18261,29 @@
       <c r="AW92" s="17"/>
       <c r="BC92" s="17"/>
       <c r="BD92">
-        <v>6</v>
+        <v>0.86</v>
       </c>
       <c r="BE92">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="BF92">
+        <f t="shared" si="35"/>
+        <v>1440</v>
+      </c>
+      <c r="BG92">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BG92">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI92" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ92" t="e">
-        <f t="shared" ref="BJ92:BJ105" si="37">BI92*BG91</f>
-        <v>#DIV/0!</v>
+        <v>150.79644737231007</v>
+      </c>
+      <c r="BI92">
+        <f>$BA$87*BD92/BG92</f>
+        <v>1.6702276719410389E-4</v>
+      </c>
+      <c r="BJ92">
+        <f>BI92*BG92</f>
+        <v>2.5186439923163283E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>3.8</v>
       </c>
@@ -15909,11 +18294,11 @@
         <v>15.3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>5.0490000000000004</v>
       </c>
       <c r="I93">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.2622500000000001</v>
       </c>
       <c r="J93">
@@ -15921,31 +18306,31 @@
         <v>4.4296264550264555</v>
       </c>
       <c r="AW93" s="17"/>
-      <c r="BC93" s="18"/>
+      <c r="BC93" s="17"/>
       <c r="BD93">
-        <v>6.5</v>
+        <v>0.88</v>
       </c>
       <c r="BE93">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="BF93">
+        <f t="shared" si="35"/>
+        <v>1580</v>
+      </c>
+      <c r="BG93">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BG93">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI93" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ93" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>165.45721308906244</v>
+      </c>
+      <c r="BI93">
+        <f>$BA$87*BD93/BG93</f>
+        <v>1.5576335780715959E-4</v>
+      </c>
+      <c r="BJ93">
+        <f>BI93*BG93</f>
+        <v>2.577217108416708E-2</v>
       </c>
     </row>
-    <row r="94" spans="4:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:63" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>3</v>
       </c>
@@ -15956,11 +18341,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H94">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>5.4119999999999999</v>
       </c>
       <c r="I94">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.2026666666666666</v>
       </c>
       <c r="J94">
@@ -15968,30 +18353,28 @@
         <v>4.9833297619047627</v>
       </c>
       <c r="AW94" s="17"/>
-      <c r="BC94" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="BC94" s="17"/>
       <c r="BD94">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="BE94">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="BF94">
-        <f>BE94/0.1</f>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1760</v>
       </c>
       <c r="BG94">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI94" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ94" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="32"/>
+        <v>184.30676901060122</v>
+      </c>
+      <c r="BI94">
+        <f>$BA$87*BD94/BG94</f>
+        <v>1.4301103744949697E-4</v>
+      </c>
+      <c r="BJ94">
+        <f>BI94*BG94</f>
+        <v>2.6357902245170879E-2</v>
       </c>
     </row>
     <row r="95" spans="4:63" x14ac:dyDescent="0.3">
@@ -16005,11 +18388,11 @@
         <v>18.8</v>
       </c>
       <c r="H95">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6.2040000000000006</v>
       </c>
       <c r="I95">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.2408000000000001</v>
       </c>
       <c r="J95">
@@ -16019,26 +18402,26 @@
       <c r="AW95" s="17"/>
       <c r="BC95" s="17"/>
       <c r="BD95">
-        <v>7.5</v>
+        <v>0.92</v>
       </c>
       <c r="BE95">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="BF95">
-        <f t="shared" ref="BF95:BF104" si="38">BE95/0.1</f>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1950</v>
       </c>
       <c r="BG95">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI95" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ95" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="32"/>
+        <v>204.20352248333657</v>
+      </c>
+      <c r="BI95">
+        <f>$BA$87*BD95/BG95</f>
+        <v>1.319449981984191E-4</v>
+      </c>
+      <c r="BJ95">
+        <f>BI95*BG95</f>
+        <v>2.6943633406174679E-2</v>
       </c>
     </row>
     <row r="96" spans="4:63" x14ac:dyDescent="0.3">
@@ -16052,11 +18435,11 @@
         <v>22.2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>7.3260000000000005</v>
       </c>
       <c r="I96">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.3320000000000001</v>
       </c>
       <c r="J96">
@@ -16066,26 +18449,26 @@
       <c r="AW96" s="17"/>
       <c r="BC96" s="17"/>
       <c r="BD96">
-        <v>8</v>
+        <v>0.94</v>
       </c>
       <c r="BE96">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="BF96">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>2070</v>
       </c>
       <c r="BG96">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI96" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ96" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="32"/>
+        <v>216.76989309769573</v>
+      </c>
+      <c r="BI96">
+        <f>$BA$87*BD96/BG96</f>
+        <v>1.2699810003029941E-4</v>
+      </c>
+      <c r="BJ96">
+        <f>BI96*BG96</f>
+        <v>2.7529364567178471E-2</v>
       </c>
     </row>
     <row r="97" spans="3:62" x14ac:dyDescent="0.3">
@@ -16095,26 +18478,26 @@
       <c r="AW97" s="17"/>
       <c r="BC97" s="17"/>
       <c r="BD97">
-        <v>8.5</v>
+        <v>0.96</v>
       </c>
       <c r="BE97">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="BF97">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>2220</v>
       </c>
       <c r="BG97">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI97" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ97" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="32"/>
+        <v>232.4778563656447</v>
+      </c>
+      <c r="BI97">
+        <f>$BA$87*BD97/BG97</f>
+        <v>1.2093666109843348E-4</v>
+      </c>
+      <c r="BJ97">
+        <f>BI97*BG97</f>
+        <v>2.8115095728182268E-2</v>
       </c>
     </row>
     <row r="98" spans="3:62" x14ac:dyDescent="0.3">
@@ -16131,26 +18514,26 @@
       <c r="AW98" s="17"/>
       <c r="BC98" s="17"/>
       <c r="BD98">
-        <v>9</v>
+        <v>0.98</v>
       </c>
       <c r="BE98">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="BF98">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>2410</v>
       </c>
       <c r="BG98">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI98" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ98" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="32"/>
+        <v>252.37460983838002</v>
+      </c>
+      <c r="BI98">
+        <f>$BA$87*BD98/BG98</f>
+        <v>1.137231154416286E-4</v>
+      </c>
+      <c r="BJ98">
+        <f>BI98*BG98</f>
+        <v>2.8700826889186067E-2</v>
       </c>
     </row>
     <row r="99" spans="3:62" x14ac:dyDescent="0.3">
@@ -16160,26 +18543,26 @@
       <c r="AW99" s="17"/>
       <c r="BC99" s="17"/>
       <c r="BD99">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="BE99">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="BF99">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>2760</v>
       </c>
       <c r="BG99">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI99" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ99" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="32"/>
+        <v>289.02652413026101</v>
+      </c>
+      <c r="BI99">
+        <f t="shared" ref="BI99:BI100" si="36">$BA$87*BD99/BG99</f>
+        <v>1.0132827130077079E-4</v>
+      </c>
+      <c r="BJ99">
+        <f t="shared" ref="BJ99:BJ100" si="37">BI99*BG99</f>
+        <v>2.9286558050189863E-2</v>
       </c>
     </row>
     <row r="100" spans="3:62" x14ac:dyDescent="0.3">
@@ -16193,26 +18576,26 @@
       <c r="AW100" s="17"/>
       <c r="BC100" s="17"/>
       <c r="BD100">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="BE100">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="BF100">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>3070</v>
       </c>
       <c r="BG100">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI100" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ100" t="e">
+        <f t="shared" si="32"/>
+        <v>321.48964821735547</v>
+      </c>
+      <c r="BI100">
+        <f t="shared" si="36"/>
+        <v>9.3829319105482502E-5</v>
+      </c>
+      <c r="BJ100">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>3.0165154791695559E-2</v>
       </c>
     </row>
     <row r="101" spans="3:62" x14ac:dyDescent="0.3">
@@ -16223,29 +18606,7 @@
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="AW101" s="17"/>
-      <c r="BC101" s="17"/>
-      <c r="BD101">
-        <v>10.5</v>
-      </c>
-      <c r="BE101">
-        <v>0</v>
-      </c>
-      <c r="BF101">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="BG101">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI101" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ101" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="BC101" s="19"/>
     </row>
     <row r="102" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F102" t="s">
@@ -16264,28 +18625,16 @@
         <v>31</v>
       </c>
       <c r="AW102" s="17"/>
-      <c r="BC102" s="17"/>
-      <c r="BD102">
-        <v>11</v>
-      </c>
-      <c r="BE102">
-        <v>0</v>
-      </c>
-      <c r="BF102">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="BG102">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI102" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ102" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+      <c r="BH102" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI102">
+        <f>AVERAGE(BI86:BI100)</f>
+        <v>1.5999400748723083E-4</v>
+      </c>
+      <c r="BJ102">
+        <f>AVERAGE(BJ88:BJ98)</f>
+        <v>2.5772171084167076E-2</v>
       </c>
     </row>
     <row r="103" spans="3:62" x14ac:dyDescent="0.3">
@@ -16309,29 +18658,6 @@
         <v>1.5045291021478522</v>
       </c>
       <c r="AW103" s="17"/>
-      <c r="BC103" s="17"/>
-      <c r="BD103">
-        <v>11.5</v>
-      </c>
-      <c r="BE103">
-        <v>0</v>
-      </c>
-      <c r="BF103">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="BG103">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI103" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ103" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="104" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F104">
@@ -16342,11 +18668,11 @@
         <v>5.4250000000000007</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H116" si="39">0.33*G104</f>
+        <f t="shared" ref="H104:H116" si="38">0.33*G104</f>
         <v>1.7902500000000003</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I113" si="40">H104/F104</f>
+        <f t="shared" ref="I104:I113" si="39">H104/F104</f>
         <v>0.89512500000000017</v>
       </c>
       <c r="J104">
@@ -16354,29 +18680,6 @@
         <v>2.0060388028638028</v>
       </c>
       <c r="AW104" s="17"/>
-      <c r="BC104" s="17"/>
-      <c r="BD104">
-        <v>12</v>
-      </c>
-      <c r="BE104">
-        <v>0</v>
-      </c>
-      <c r="BF104">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="BG104">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI104" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ104" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="105" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F105">
@@ -16387,11 +18690,11 @@
         <v>7.4250000000000007</v>
       </c>
       <c r="H105">
+        <f t="shared" si="38"/>
+        <v>2.4502500000000005</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="39"/>
-        <v>2.4502500000000005</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="40"/>
         <v>0.98010000000000019</v>
       </c>
       <c r="J105">
@@ -16399,15 +18702,6 @@
         <v>2.5075485035797533</v>
       </c>
       <c r="AW105" s="17"/>
-      <c r="BC105" s="19"/>
-      <c r="BI105" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ105" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="106" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F106">
@@ -16418,11 +18712,11 @@
         <v>8.9250000000000007</v>
       </c>
       <c r="H106">
+        <f t="shared" si="38"/>
+        <v>2.9452500000000006</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="39"/>
-        <v>2.9452500000000006</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="40"/>
         <v>0.98175000000000023</v>
       </c>
       <c r="J106">
@@ -16430,7 +18724,6 @@
         <v>3.0090582042957044</v>
       </c>
       <c r="AW106" s="17"/>
-      <c r="BC106" s="19"/>
     </row>
     <row r="107" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F107">
@@ -16441,11 +18734,11 @@
         <v>10.925000000000001</v>
       </c>
       <c r="H107">
+        <f t="shared" si="38"/>
+        <v>3.6052500000000003</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="39"/>
-        <v>3.6052500000000003</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="40"/>
         <v>1.0300714285714287</v>
       </c>
       <c r="J107">
@@ -16453,17 +18746,6 @@
         <v>3.5105679050116549</v>
       </c>
       <c r="AW107" s="17"/>
-      <c r="BH107" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI107" t="e">
-        <f>AVERAGE(BI88:BI105)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ107" t="e">
-        <f>AVERAGE(BJ92:BJ105)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="108" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F108">
@@ -16474,11 +18756,11 @@
         <v>12.425000000000001</v>
       </c>
       <c r="H108">
+        <f t="shared" si="38"/>
+        <v>4.1002500000000008</v>
+      </c>
+      <c r="I108">
         <f t="shared" si="39"/>
-        <v>4.1002500000000008</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="40"/>
         <v>1.0250625000000002</v>
       </c>
       <c r="J108">
@@ -16486,9 +18768,6 @@
         <v>4.0120776057276055</v>
       </c>
       <c r="AW108" s="17"/>
-      <c r="BJ108" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="109" spans="3:62" x14ac:dyDescent="0.3">
       <c r="F109">
@@ -16499,11 +18778,11 @@
         <v>14.425000000000001</v>
       </c>
       <c r="H109">
+        <f t="shared" si="38"/>
+        <v>4.7602500000000001</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="39"/>
-        <v>4.7602500000000001</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="40"/>
         <v>1.0578333333333334</v>
       </c>
       <c r="J109">
@@ -16521,11 +18800,11 @@
         <v>15.925000000000001</v>
       </c>
       <c r="H110">
+        <f t="shared" si="38"/>
+        <v>5.2552500000000002</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="39"/>
-        <v>5.2552500000000002</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="40"/>
         <v>1.05105</v>
       </c>
       <c r="J110">
@@ -16543,11 +18822,11 @@
         <v>17.425000000000001</v>
       </c>
       <c r="H111">
+        <f t="shared" si="38"/>
+        <v>5.7502500000000003</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="39"/>
-        <v>5.7502500000000003</v>
-      </c>
-      <c r="I111">
-        <f t="shared" si="40"/>
         <v>1.0455000000000001</v>
       </c>
       <c r="J111">
@@ -16565,11 +18844,11 @@
         <v>18.925000000000001</v>
       </c>
       <c r="H112">
+        <f t="shared" si="38"/>
+        <v>6.2452500000000004</v>
+      </c>
+      <c r="I112">
         <f t="shared" si="39"/>
-        <v>6.2452500000000004</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="40"/>
         <v>1.040875</v>
       </c>
       <c r="J112">
@@ -16587,11 +18866,11 @@
         <v>20.925000000000001</v>
       </c>
       <c r="H113">
+        <f t="shared" si="38"/>
+        <v>6.9052500000000006</v>
+      </c>
+      <c r="I113">
         <f t="shared" si="39"/>
-        <v>6.9052500000000006</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="40"/>
         <v>1.0623461538461538</v>
       </c>
       <c r="J113">
@@ -16609,7 +18888,7 @@
         <v>22.425000000000001</v>
       </c>
       <c r="H114">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>7.4002500000000007</v>
       </c>
       <c r="I114">
@@ -16631,7 +18910,7 @@
         <v>24.425000000000001</v>
       </c>
       <c r="H115">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>8.0602499999999999</v>
       </c>
       <c r="I115">
@@ -16653,7 +18932,7 @@
         <v>27.425000000000001</v>
       </c>
       <c r="H116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>9.0502500000000001</v>
       </c>
       <c r="I116">
@@ -16758,11 +19037,11 @@
         <v>215</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J135" si="41">I129</f>
+        <f t="shared" ref="J129:J135" si="40">I129</f>
         <v>215</v>
       </c>
       <c r="K129">
-        <f t="shared" ref="K129:K146" si="42">J129*2*PI()/60</f>
+        <f t="shared" ref="K129:K146" si="41">J129*2*PI()/60</f>
         <v>22.51474735072685</v>
       </c>
       <c r="M129">
@@ -16789,15 +19068,15 @@
         <v>325</v>
       </c>
       <c r="J130">
+        <f t="shared" si="40"/>
+        <v>325</v>
+      </c>
+      <c r="K130">
         <f t="shared" si="41"/>
-        <v>325</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="42"/>
         <v>34.033920413889426</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:M146" si="43">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
+        <f t="shared" ref="M130:M146" si="42">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
         <v>1.6125579522699003E-2</v>
       </c>
       <c r="AW130" s="17"/>
@@ -16817,15 +19096,15 @@
         <v>420</v>
       </c>
       <c r="J131">
+        <f t="shared" si="40"/>
+        <v>420</v>
+      </c>
+      <c r="K131">
         <f t="shared" si="41"/>
-        <v>420</v>
-      </c>
-      <c r="K131">
+        <v>43.982297150257104</v>
+      </c>
+      <c r="M131">
         <f t="shared" si="42"/>
-        <v>43.982297150257104</v>
-      </c>
-      <c r="M131">
-        <f t="shared" si="43"/>
         <v>1.3732466580216781E-2</v>
       </c>
       <c r="AW131" s="17"/>
@@ -16845,15 +19124,15 @@
         <v>555</v>
       </c>
       <c r="J132">
+        <f t="shared" si="40"/>
+        <v>555</v>
+      </c>
+      <c r="K132">
         <f t="shared" si="41"/>
-        <v>555</v>
-      </c>
-      <c r="K132">
+        <v>58.119464091411174</v>
+      </c>
+      <c r="M132">
         <f t="shared" si="42"/>
-        <v>58.119464091411174</v>
-      </c>
-      <c r="M132">
-        <f t="shared" si="43"/>
         <v>1.117133763121049E-2</v>
       </c>
       <c r="AW132" s="17"/>
@@ -16868,19 +19147,19 @@
         <v>675</v>
       </c>
       <c r="J133">
+        <f t="shared" si="40"/>
+        <v>675</v>
+      </c>
+      <c r="K133">
         <f t="shared" si="41"/>
-        <v>675</v>
-      </c>
-      <c r="K133">
+        <v>70.685834705770347</v>
+      </c>
+      <c r="M133">
         <f t="shared" si="42"/>
-        <v>70.685834705770347</v>
-      </c>
-      <c r="M133">
-        <f t="shared" si="43"/>
         <v>9.8784238976240869E-3</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N146" si="44">M133*K133</f>
+        <f t="shared" ref="N133:N146" si="43">M133*K133</f>
         <v>0.69826463878098788</v>
       </c>
       <c r="AW133" s="17"/>
@@ -16894,19 +19173,19 @@
         <v>805</v>
       </c>
       <c r="J134">
+        <f t="shared" si="40"/>
+        <v>805</v>
+      </c>
+      <c r="K134">
         <f t="shared" si="41"/>
-        <v>805</v>
-      </c>
-      <c r="K134">
+        <v>84.299402871326109</v>
+      </c>
+      <c r="M134">
         <f t="shared" si="42"/>
-        <v>84.299402871326109</v>
-      </c>
-      <c r="M134">
+        <v>8.8350165554967938E-3</v>
+      </c>
+      <c r="N134">
         <f t="shared" si="43"/>
-        <v>8.8350165554967938E-3</v>
-      </c>
-      <c r="N134">
-        <f t="shared" si="44"/>
         <v>0.74478661998666007</v>
       </c>
       <c r="AW134" s="17"/>
@@ -16920,19 +19199,19 @@
         <v>930</v>
       </c>
       <c r="J135">
+        <f t="shared" si="40"/>
+        <v>930</v>
+      </c>
+      <c r="K135">
         <f t="shared" si="41"/>
-        <v>930</v>
-      </c>
-      <c r="K135">
+        <v>97.389372261283583</v>
+      </c>
+      <c r="M135">
         <f t="shared" si="42"/>
-        <v>97.389372261283583</v>
-      </c>
-      <c r="M135">
+        <v>8.1378884925822244E-3</v>
+      </c>
+      <c r="N135">
         <f t="shared" si="43"/>
-        <v>8.1378884925822244E-3</v>
-      </c>
-      <c r="N135">
-        <f t="shared" si="44"/>
         <v>0.79254385182490616</v>
       </c>
       <c r="AW135" s="17"/>
@@ -16952,15 +19231,15 @@
         <v>1225</v>
       </c>
       <c r="K136">
+        <f t="shared" si="41"/>
+        <v>128.28170002158322</v>
+      </c>
+      <c r="M136">
         <f t="shared" si="42"/>
-        <v>128.28170002158322</v>
-      </c>
-      <c r="M136">
+        <v>6.2230432089794658E-3</v>
+      </c>
+      <c r="N136">
         <f t="shared" si="43"/>
-        <v>6.2230432089794658E-3</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="44"/>
         <v>0.79830256215565443</v>
       </c>
       <c r="AW136" s="17"/>
@@ -16974,19 +19253,19 @@
         <v>138.5</v>
       </c>
       <c r="J137">
-        <f t="shared" ref="J137:J146" si="45">I137/0.1</f>
+        <f t="shared" ref="J137:J146" si="44">I137/0.1</f>
         <v>1385</v>
       </c>
       <c r="K137">
+        <f t="shared" si="41"/>
+        <v>145.03686084072879</v>
+      </c>
+      <c r="M137">
         <f t="shared" si="42"/>
-        <v>145.03686084072879</v>
-      </c>
-      <c r="M137">
+        <v>5.7737945699575322E-3</v>
+      </c>
+      <c r="N137">
         <f t="shared" si="43"/>
-        <v>5.7737945699575322E-3</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="44"/>
         <v>0.83741303956588609</v>
       </c>
       <c r="AW137" s="17"/>
@@ -17000,19 +19279,19 @@
         <v>153</v>
       </c>
       <c r="J138">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1530</v>
       </c>
       <c r="K138">
+        <f t="shared" si="41"/>
+        <v>160.22122533307945</v>
+      </c>
+      <c r="M138">
         <f t="shared" si="42"/>
-        <v>160.22122533307945</v>
-      </c>
-      <c r="M138">
+        <v>5.4938368311935838E-3</v>
+      </c>
+      <c r="N138">
         <f t="shared" si="43"/>
-        <v>5.4938368311935838E-3</v>
-      </c>
-      <c r="N138">
-        <f t="shared" si="44"/>
         <v>0.88022926887383834</v>
       </c>
       <c r="AW138" s="17"/>
@@ -17026,19 +19305,19 @@
         <v>169</v>
       </c>
       <c r="J139">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1690</v>
       </c>
       <c r="K139">
+        <f t="shared" si="41"/>
+        <v>176.97638615222502</v>
+      </c>
+      <c r="M139">
         <f t="shared" si="42"/>
-        <v>176.97638615222502</v>
-      </c>
-      <c r="M139">
+        <v>5.1947028994778228E-3</v>
+      </c>
+      <c r="N139">
         <f t="shared" si="43"/>
-        <v>5.1947028994778228E-3</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="44"/>
         <v>0.91933974628407011</v>
       </c>
       <c r="AW139" s="17"/>
@@ -17052,19 +19331,19 @@
         <v>179</v>
       </c>
       <c r="J140">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1790</v>
       </c>
       <c r="K140">
+        <f t="shared" si="41"/>
+        <v>187.448361664191</v>
+      </c>
+      <c r="M140">
         <f t="shared" si="42"/>
-        <v>187.448361664191</v>
-      </c>
-      <c r="M140">
+        <v>5.1922205275326842E-3</v>
+      </c>
+      <c r="N140">
         <f t="shared" si="43"/>
-        <v>5.1922205275326842E-3</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="44"/>
         <v>0.97327323128518317</v>
       </c>
       <c r="AW140" s="17"/>
@@ -17078,19 +19357,19 @@
         <v>191</v>
       </c>
       <c r="J141">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1910</v>
       </c>
       <c r="K141">
+        <f t="shared" si="41"/>
+        <v>200.01473227855016</v>
+      </c>
+      <c r="M141">
         <f t="shared" si="42"/>
-        <v>200.01473227855016</v>
-      </c>
-      <c r="M141">
+        <v>5.1109520889308594E-3</v>
+      </c>
+      <c r="N141">
         <f t="shared" si="43"/>
-        <v>5.1109520889308594E-3</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="44"/>
         <v>1.0222657137560025</v>
       </c>
       <c r="AW141" s="17"/>
@@ -17104,19 +19383,19 @@
         <v>208</v>
       </c>
       <c r="J142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2080</v>
       </c>
       <c r="K142">
+        <f t="shared" si="41"/>
+        <v>217.8170906488923</v>
+      </c>
+      <c r="M142">
         <f t="shared" si="42"/>
-        <v>217.8170906488923</v>
-      </c>
-      <c r="M142">
+        <v>4.8614444658430312E-3</v>
+      </c>
+      <c r="N142">
         <f t="shared" si="43"/>
-        <v>4.8614444658430312E-3</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="44"/>
         <v>1.0589056899010874</v>
       </c>
       <c r="AW142" s="17"/>
@@ -17130,19 +19409,19 @@
         <v>225</v>
       </c>
       <c r="J143">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2250</v>
       </c>
       <c r="K143">
+        <f t="shared" si="41"/>
+        <v>235.61944901923451</v>
+      </c>
+      <c r="M143">
         <f t="shared" si="42"/>
-        <v>235.61944901923451</v>
-      </c>
-      <c r="M143">
+        <v>4.6496402169106952E-3</v>
+      </c>
+      <c r="N143">
         <f t="shared" si="43"/>
-        <v>4.6496402169106952E-3</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="44"/>
         <v>1.095545666046172</v>
       </c>
       <c r="AW143" s="17"/>
@@ -17156,19 +19435,19 @@
         <v>240</v>
       </c>
       <c r="J144">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2400</v>
       </c>
       <c r="K144">
+        <f t="shared" si="41"/>
+        <v>251.32741228718345</v>
+      </c>
+      <c r="M144">
         <f t="shared" si="42"/>
-        <v>251.32741228718345</v>
-      </c>
-      <c r="M144">
+        <v>4.524483160723407E-3</v>
+      </c>
+      <c r="N144">
         <f t="shared" si="43"/>
-        <v>4.524483160723407E-3</v>
-      </c>
-      <c r="N144">
-        <f t="shared" si="44"/>
         <v>1.1371266447215507</v>
       </c>
       <c r="AW144" s="17"/>
@@ -17182,19 +19461,19 @@
         <v>253</v>
       </c>
       <c r="J145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2530</v>
       </c>
       <c r="K145">
+        <f t="shared" si="41"/>
+        <v>264.94098045273921</v>
+      </c>
+      <c r="M145">
         <f t="shared" si="42"/>
-        <v>264.94098045273921</v>
-      </c>
-      <c r="M145">
+        <v>4.4675935897291854E-3</v>
+      </c>
+      <c r="N145">
         <f t="shared" si="43"/>
-        <v>4.4675935897291854E-3</v>
-      </c>
-      <c r="N145">
-        <f t="shared" si="44"/>
         <v>1.1836486259272232</v>
       </c>
     </row>
@@ -17207,19 +19486,19 @@
         <v>269</v>
       </c>
       <c r="J146">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2690</v>
       </c>
       <c r="K146">
+        <f t="shared" si="41"/>
+        <v>281.69614127188476</v>
+      </c>
+      <c r="M146">
         <f t="shared" si="42"/>
-        <v>281.69614127188476</v>
-      </c>
-      <c r="M146">
+        <v>4.3407023533108477E-3</v>
+      </c>
+      <c r="N146">
         <f t="shared" si="43"/>
-        <v>4.3407023533108477E-3</v>
-      </c>
-      <c r="N146">
-        <f t="shared" si="44"/>
         <v>1.2227591033374552</v>
       </c>
     </row>
@@ -17264,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <f t="shared" ref="K155:K161" si="46">J155</f>
+        <f t="shared" ref="K155:K161" si="45">J155</f>
         <v>0</v>
       </c>
     </row>
@@ -17273,7 +19552,7 @@
         <v>325</v>
       </c>
       <c r="K156">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>325</v>
       </c>
     </row>
@@ -17282,7 +19561,7 @@
         <v>420</v>
       </c>
       <c r="K157">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>420</v>
       </c>
     </row>
@@ -17291,7 +19570,7 @@
         <v>555</v>
       </c>
       <c r="K158">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>555</v>
       </c>
     </row>
@@ -17300,7 +19579,7 @@
         <v>675</v>
       </c>
       <c r="K159">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>675</v>
       </c>
     </row>
@@ -17309,7 +19588,7 @@
         <v>805</v>
       </c>
       <c r="K160">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>805</v>
       </c>
     </row>
@@ -17318,7 +19597,7 @@
         <v>930</v>
       </c>
       <c r="K161">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>930</v>
       </c>
     </row>
@@ -17336,7 +19615,7 @@
         <v>138.5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K172" si="47">J163/0.1</f>
+        <f t="shared" ref="K163:K172" si="46">J163/0.1</f>
         <v>1385</v>
       </c>
     </row>
@@ -17345,7 +19624,7 @@
         <v>153</v>
       </c>
       <c r="K164">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1530</v>
       </c>
     </row>
@@ -17354,7 +19633,7 @@
         <v>169</v>
       </c>
       <c r="K165">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1690</v>
       </c>
     </row>
@@ -17363,7 +19642,7 @@
         <v>179</v>
       </c>
       <c r="K166">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1790</v>
       </c>
     </row>
@@ -17372,7 +19651,7 @@
         <v>191</v>
       </c>
       <c r="K167">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1910</v>
       </c>
     </row>
@@ -17381,7 +19660,7 @@
         <v>208</v>
       </c>
       <c r="K168">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2080</v>
       </c>
     </row>
@@ -17390,7 +19669,7 @@
         <v>225</v>
       </c>
       <c r="K169">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2250</v>
       </c>
     </row>
@@ -17399,7 +19678,7 @@
         <v>240</v>
       </c>
       <c r="K170">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2400</v>
       </c>
     </row>
@@ -17408,7 +19687,7 @@
         <v>253</v>
       </c>
       <c r="K171">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2530</v>
       </c>
     </row>
@@ -17417,12 +19696,12 @@
         <v>269</v>
       </c>
       <c r="K172">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2690</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="AN26:AU26"/>
     <mergeCell ref="AN28:AU28"/>
     <mergeCell ref="AY28:BE28"/>
@@ -17436,6 +19715,8 @@
     <mergeCell ref="H57:O57"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="L30:N30"/>
+    <mergeCell ref="BB82:BH82"/>
+    <mergeCell ref="BA78:BB78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -486,6 +486,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,7 +517,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7442,7 +7442,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7479,7 +7479,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -13889,8 +13889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:BK172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14020,7 +14020,7 @@
       <c r="AY10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AZ10" s="36">
+      <c r="AZ10" s="26">
         <v>1.4200000000000001E-4</v>
       </c>
     </row>
@@ -14351,76 +14351,76 @@
       <c r="AW25" s="17"/>
     </row>
     <row r="26" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="27"/>
       <c r="AW26" s="17"/>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AW27" s="17"/>
     </row>
     <row r="28" spans="1:59" ht="21" x14ac:dyDescent="0.4">
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
       <c r="R28" t="s">
         <v>24</v>
       </c>
-      <c r="AE28" s="26" t="s">
+      <c r="AE28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AN28" s="26" t="s">
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AN28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="26"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
       <c r="AW28" s="17"/>
-      <c r="AY28" s="26" t="s">
+      <c r="AY28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="26"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="27"/>
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
     </row>
     <row r="29" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AW29" s="17"/>
     </row>
     <row r="30" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="L30" s="31" t="s">
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="L30" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
       <c r="AN30" s="2" t="s">
         <v>57</v>
       </c>
@@ -16399,28 +16399,28 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="AW56" s="17"/>
-      <c r="AZ56" s="26" t="s">
+      <c r="AZ56" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="BA56" s="26"/>
-      <c r="BB56" s="26"/>
-      <c r="BC56" s="26"/>
-      <c r="BD56" s="26"/>
-      <c r="BE56" s="26"/>
-      <c r="BF56" s="26"/>
-      <c r="BG56" s="26"/>
+      <c r="BA56" s="27"/>
+      <c r="BB56" s="27"/>
+      <c r="BC56" s="27"/>
+      <c r="BD56" s="27"/>
+      <c r="BE56" s="27"/>
+      <c r="BF56" s="27"/>
+      <c r="BG56" s="27"/>
     </row>
     <row r="57" spans="4:62" ht="21" x14ac:dyDescent="0.4">
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
       <c r="AW57" s="17"/>
     </row>
     <row r="58" spans="4:62" x14ac:dyDescent="0.3">
@@ -16681,11 +16681,11 @@
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="BH62" s="4">
-        <f>BG62/BF62</f>
+        <f t="shared" ref="BH62:BH77" si="25">BG62/BF62</f>
         <v>3.7359999999999997E-2</v>
       </c>
       <c r="BJ62" s="4">
-        <f t="shared" ref="BJ62:BJ64" si="25">AVERAGE(BC62,BH62)</f>
+        <f t="shared" ref="BJ62:BJ64" si="26">AVERAGE(BC62,BH62)</f>
         <v>3.304E-2</v>
       </c>
     </row>
@@ -16701,7 +16701,7 @@
         <v>1.54E-2</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" ref="H63:H69" si="26">G63/F63</f>
+        <f t="shared" ref="H63:H69" si="27">G63/F63</f>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="J63">
@@ -16744,11 +16744,11 @@
         <v>0.1134</v>
       </c>
       <c r="BH63" s="4">
-        <f>BG63/BF63</f>
+        <f t="shared" si="25"/>
         <v>3.78E-2</v>
       </c>
       <c r="BJ63" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -16764,7 +16764,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="J64">
@@ -16807,11 +16807,11 @@
         <v>0.12859999999999999</v>
       </c>
       <c r="BH64" s="4">
-        <f>BG64/BF64</f>
+        <f t="shared" si="25"/>
         <v>3.674285714285714E-2</v>
       </c>
       <c r="BJ64" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.2885714285714282E-2</v>
       </c>
     </row>
@@ -16827,7 +16827,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.6000000000000008E-3</v>
       </c>
       <c r="J65">
@@ -16870,11 +16870,11 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="BH65" s="4">
-        <f>BG65/BF65</f>
+        <f t="shared" si="25"/>
         <v>3.6249999999999998E-2</v>
       </c>
       <c r="BJ65" s="4">
-        <f>AVERAGE(BC65,BH65)</f>
+        <f t="shared" ref="BJ65:BJ77" si="28">AVERAGE(BC65,BH65)</f>
         <v>3.2674999999999996E-2</v>
       </c>
     </row>
@@ -16890,7 +16890,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.2857142857142851E-3</v>
       </c>
       <c r="J66">
@@ -16939,11 +16939,11 @@
         <v>0.15959999999999999</v>
       </c>
       <c r="BH66" s="4">
-        <f>BG66/BF66</f>
+        <f t="shared" si="25"/>
         <v>3.5466666666666667E-2</v>
       </c>
       <c r="BJ66" s="4">
-        <f>AVERAGE(BC66,BH66)</f>
+        <f t="shared" si="28"/>
         <v>3.2333333333333332E-2</v>
       </c>
     </row>
@@ -16959,7 +16959,7 @@
         <v>2.58E-2</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.45E-3</v>
       </c>
       <c r="J67">
@@ -17011,11 +17011,11 @@
         <v>0.1744</v>
       </c>
       <c r="BH67" s="4">
-        <f>BG67/BF67</f>
+        <f t="shared" si="25"/>
         <v>3.4880000000000001E-2</v>
       </c>
       <c r="BJ67" s="4">
-        <f>AVERAGE(BC67,BH67)</f>
+        <f t="shared" si="28"/>
         <v>3.2419999999999997E-2</v>
       </c>
       <c r="BK67" s="4"/>
@@ -17032,7 +17032,7 @@
         <v>3.04E-2</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.7555555555555554E-3</v>
       </c>
       <c r="J68">
@@ -17050,7 +17050,7 @@
         <v>7.244444444444444E-3</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" ref="O68:O80" si="27">AVERAGE(H68,M68)</f>
+        <f t="shared" ref="O68:O80" si="29">AVERAGE(H68,M68)</f>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="P68" s="4">
@@ -17084,11 +17084,11 @@
         <v>0.185</v>
       </c>
       <c r="BH68" s="4">
-        <f>BG68/BF68</f>
+        <f t="shared" si="25"/>
         <v>3.3636363636363638E-2</v>
       </c>
       <c r="BJ68" s="4">
-        <f>AVERAGE(BC68,BH68)</f>
+        <f t="shared" si="28"/>
         <v>3.1418181818181817E-2</v>
       </c>
       <c r="BK68" s="4"/>
@@ -17105,7 +17105,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.5600000000000007E-3</v>
       </c>
       <c r="J69">
@@ -17123,7 +17123,7 @@
         <v>7.0800000000000004E-3</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.8200000000000005E-3</v>
       </c>
       <c r="P69" s="4">
@@ -17157,11 +17157,11 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="BH69" s="4">
-        <f>BG69/BF69</f>
+        <f t="shared" si="25"/>
         <v>3.266666666666667E-2</v>
       </c>
       <c r="BJ69" s="4">
-        <f>AVERAGE(BC69,BH69)</f>
+        <f t="shared" si="28"/>
         <v>3.1533333333333337E-2</v>
       </c>
       <c r="BK69" s="4"/>
@@ -17174,11 +17174,11 @@
         <v>5.5</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G80" si="28">E70/(5*1000)</f>
+        <f t="shared" ref="G70:G80" si="30">E70/(5*1000)</f>
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ref="H70:H80" si="29">G70/F70</f>
+        <f t="shared" ref="H70:H80" si="31">G70/F70</f>
         <v>6.1090909090909086E-3</v>
       </c>
       <c r="J70">
@@ -17196,11 +17196,11 @@
         <v>6.909090909090909E-3</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.5090909090909088E-3</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" ref="P70:P80" si="30">0.0064*F70</f>
+        <f t="shared" ref="P70:P80" si="32">0.0064*F70</f>
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="Q70" s="4"/>
@@ -17230,11 +17230,11 @@
         <v>0.21479999999999999</v>
       </c>
       <c r="BH70" s="4">
-        <f>BG70/BF70</f>
+        <f t="shared" si="25"/>
         <v>3.3046153846153843E-2</v>
       </c>
       <c r="BJ70" s="4">
-        <f>AVERAGE(BC70,BH70)</f>
+        <f t="shared" si="28"/>
         <v>3.1107692307692305E-2</v>
       </c>
       <c r="BK70" s="4"/>
@@ -17247,11 +17247,11 @@
         <v>6</v>
       </c>
       <c r="G71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0333333333333341E-3</v>
       </c>
       <c r="J71">
@@ -17269,11 +17269,11 @@
         <v>6.8333333333333336E-3</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.4333333333333343E-3</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.8400000000000004E-2</v>
       </c>
       <c r="Q71" s="4"/>
@@ -17303,11 +17303,11 @@
         <v>0.22439999999999999</v>
       </c>
       <c r="BH71" s="4">
-        <f>BG71/BF71</f>
+        <f t="shared" si="25"/>
         <v>3.2057142857142853E-2</v>
       </c>
       <c r="BJ71" s="4">
-        <f>AVERAGE(BC71,BH71)</f>
+        <f t="shared" si="28"/>
         <v>3.0671428571428568E-2</v>
       </c>
       <c r="BK71" s="4"/>
@@ -17320,11 +17320,11 @@
         <v>6.5</v>
       </c>
       <c r="G72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.3692307692307694E-3</v>
       </c>
       <c r="J72">
@@ -17342,11 +17342,11 @@
         <v>6.7384615384615387E-3</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.553846153846154E-3</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.1600000000000005E-2</v>
       </c>
       <c r="Q72" s="4"/>
@@ -17376,11 +17376,11 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="BH72" s="4">
-        <f>BG72/BF72</f>
+        <f t="shared" si="25"/>
         <v>3.1733333333333329E-2</v>
       </c>
       <c r="BJ72" s="4">
-        <f>AVERAGE(BC72,BH72)</f>
+        <f t="shared" si="28"/>
         <v>3.048E-2</v>
       </c>
       <c r="BK72" s="4"/>
@@ -17393,11 +17393,11 @@
         <v>7</v>
       </c>
       <c r="G73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.1714285714285716E-3</v>
       </c>
       <c r="J73">
@@ -17415,11 +17415,11 @@
         <v>6.6857142857142862E-3</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.4285714285714293E-3</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.48E-2</v>
       </c>
       <c r="Q73" s="4"/>
@@ -17449,11 +17449,11 @@
         <v>0.25259999999999999</v>
       </c>
       <c r="BH73" s="4">
-        <f>BG73/BF73</f>
+        <f t="shared" si="25"/>
         <v>3.1574999999999999E-2</v>
       </c>
       <c r="BJ73" s="4">
-        <f>AVERAGE(BC73,BH73)</f>
+        <f t="shared" si="28"/>
         <v>3.0362500000000001E-2</v>
       </c>
       <c r="BK73" s="4"/>
@@ -17466,11 +17466,11 @@
         <v>7.5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.48E-2</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.9733333333333331E-3</v>
       </c>
       <c r="J74">
@@ -17488,11 +17488,11 @@
         <v>6.613333333333333E-3</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.2933333333333331E-3</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q74" s="4"/>
@@ -17522,11 +17522,11 @@
         <v>0.26579999999999998</v>
       </c>
       <c r="BH74" s="4">
-        <f>BG74/BF74</f>
+        <f t="shared" si="25"/>
         <v>3.1270588235294113E-2</v>
       </c>
       <c r="BJ74" s="4">
-        <f>AVERAGE(BC74,BH74)</f>
+        <f t="shared" si="28"/>
         <v>3.0211764705882348E-2</v>
       </c>
       <c r="BK74" s="4"/>
@@ -17539,11 +17539,11 @@
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="J75">
@@ -17561,11 +17561,11 @@
         <v>6.45E-3</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="Q75" s="4"/>
@@ -17595,11 +17595,11 @@
         <v>0.2802</v>
       </c>
       <c r="BH75" s="4">
-        <f>BG75/BF75</f>
+        <f t="shared" si="25"/>
         <v>3.1133333333333332E-2</v>
       </c>
       <c r="BJ75" s="4">
-        <f>AVERAGE(BC75,BH75)</f>
+        <f t="shared" si="28"/>
         <v>3.0033333333333335E-2</v>
       </c>
       <c r="BK75" s="4"/>
@@ -17612,11 +17612,11 @@
         <v>8.5</v>
       </c>
       <c r="G76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.2400000000000002E-2</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.1647058823529411E-3</v>
       </c>
       <c r="J76">
@@ -17634,11 +17634,11 @@
         <v>6.3764705882352942E-3</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.2705882352941181E-3</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.4400000000000004E-2</v>
       </c>
       <c r="Q76" s="4"/>
@@ -17668,11 +17668,11 @@
         <v>0.29139999999999999</v>
       </c>
       <c r="BH76" s="4">
-        <f>BG76/BF76</f>
+        <f t="shared" si="25"/>
         <v>3.0673684210526315E-2</v>
       </c>
       <c r="BJ76" s="4">
-        <f>AVERAGE(BC76,BH76)</f>
+        <f t="shared" si="28"/>
         <v>2.9810526315789475E-2</v>
       </c>
       <c r="BK76" s="4"/>
@@ -17685,11 +17685,11 @@
         <v>9</v>
       </c>
       <c r="G77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.5399999999999998E-2</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.1555555555555556E-3</v>
       </c>
       <c r="J77">
@@ -17707,11 +17707,11 @@
         <v>6.3111111111111111E-3</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.2333333333333338E-3</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.7600000000000005E-2</v>
       </c>
       <c r="Q77" s="4"/>
@@ -17741,11 +17741,11 @@
         <v>0.29620000000000002</v>
       </c>
       <c r="BH77" s="4">
-        <f>BG77/BF77</f>
+        <f t="shared" si="25"/>
         <v>2.962E-2</v>
       </c>
       <c r="BJ77" s="4">
-        <f>AVERAGE(BC77,BH77)</f>
+        <f t="shared" si="28"/>
         <v>2.9309999999999999E-2</v>
       </c>
       <c r="BK77" s="4"/>
@@ -17758,11 +17758,11 @@
         <v>9.5</v>
       </c>
       <c r="G78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.9578947368421047E-3</v>
       </c>
       <c r="J78">
@@ -17780,19 +17780,19 @@
         <v>6.1052631578947369E-3</v>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.0315789473684208E-3</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6.08E-2</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="AW78" s="17"/>
-      <c r="BA78" s="34" t="s">
+      <c r="BA78" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BB78" s="35"/>
+      <c r="BB78" s="36"/>
       <c r="BC78" s="6">
         <f>AVERAGE(BC65:BC77)</f>
         <v>2.9286558050189863E-2</v>
@@ -17818,11 +17818,11 @@
         <v>10</v>
       </c>
       <c r="G79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="J79">
@@ -17840,11 +17840,11 @@
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.1799999999999997E-3</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q79" s="4"/>
@@ -17859,11 +17859,11 @@
         <v>10.37</v>
       </c>
       <c r="G80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.2799999999999995E-2</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="J80">
@@ -17881,11 +17881,11 @@
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6.6367999999999996E-2</v>
       </c>
       <c r="Q80" s="4"/>
@@ -17904,15 +17904,15 @@
     </row>
     <row r="82" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW82" s="17"/>
-      <c r="BB82" s="26" t="s">
+      <c r="BB82" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BC82" s="26"/>
-      <c r="BD82" s="26"/>
-      <c r="BE82" s="26"/>
-      <c r="BF82" s="26"/>
-      <c r="BG82" s="26"/>
-      <c r="BH82" s="26"/>
+      <c r="BC82" s="27"/>
+      <c r="BD82" s="27"/>
+      <c r="BE82" s="27"/>
+      <c r="BF82" s="27"/>
+      <c r="BG82" s="27"/>
+      <c r="BH82" s="27"/>
     </row>
     <row r="83" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW83" s="17"/>
@@ -17930,15 +17930,15 @@
       <c r="AW84" s="17"/>
     </row>
     <row r="85" spans="4:63" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I85" s="26" t="s">
+      <c r="I85" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
       <c r="AW85" s="17"/>
       <c r="BC85" s="15"/>
       <c r="BD85" s="2" t="s">
@@ -17985,15 +17985,15 @@
         <v>850</v>
       </c>
       <c r="BF86">
-        <f t="shared" ref="BF86:BF87" si="31">BE86</f>
+        <f t="shared" ref="BF86:BF87" si="33">BE86</f>
         <v>850</v>
       </c>
       <c r="BG86">
-        <f t="shared" ref="BG86:BG100" si="32">BF86*2*PI()/60</f>
+        <f t="shared" ref="BG86:BG100" si="34">BF86*2*PI()/60</f>
         <v>89.011791851710797</v>
       </c>
       <c r="BI86">
-        <f>$BA$87*BD86/BG86</f>
+        <f t="shared" ref="BI86:BI98" si="35">$BA$87*BD86/BG86</f>
         <v>2.4347395447611096E-4</v>
       </c>
     </row>
@@ -18032,15 +18032,15 @@
         <v>925</v>
       </c>
       <c r="BF87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>925</v>
       </c>
       <c r="BG87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>96.865773485685295</v>
       </c>
       <c r="BI87">
-        <f>$BA$87*BD87/BG87</f>
+        <f t="shared" si="35"/>
         <v>2.297796560870236E-4</v>
       </c>
     </row>
@@ -18081,15 +18081,15 @@
         <v>1020</v>
       </c>
       <c r="BG88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>106.81415022205297</v>
       </c>
       <c r="BI88">
-        <f>$BA$87*BD88/BG88</f>
+        <f t="shared" si="35"/>
         <v>2.1386225731009746E-4</v>
       </c>
       <c r="BJ88">
-        <f>BI88*BG88</f>
+        <f t="shared" ref="BJ88:BJ98" si="36">BI88*BG88</f>
         <v>2.2843515279148095E-2</v>
       </c>
     </row>
@@ -18104,11 +18104,11 @@
         <v>6</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H96" si="33">0.33*G89</f>
+        <f t="shared" ref="H89:H96" si="37">0.33*G89</f>
         <v>1.98</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I96" si="34">H89/F89</f>
+        <f t="shared" ref="I89:I96" si="38">H89/F89</f>
         <v>0.99</v>
       </c>
       <c r="J89">
@@ -18124,19 +18124,19 @@
         <v>111</v>
       </c>
       <c r="BF89">
-        <f t="shared" ref="BF89:BF100" si="35">BE89/0.1</f>
+        <f t="shared" ref="BF89:BF100" si="39">BE89/0.1</f>
         <v>1110</v>
       </c>
       <c r="BG89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>116.23892818282235</v>
       </c>
       <c r="BI89">
-        <f>$BA$87*BD89/BG89</f>
+        <f t="shared" si="35"/>
         <v>2.0156110183072246E-4</v>
       </c>
       <c r="BJ89">
-        <f>BI89*BG89</f>
+        <f t="shared" si="36"/>
         <v>2.3429246440151891E-2</v>
       </c>
     </row>
@@ -18151,11 +18151,11 @@
         <v>7.4</v>
       </c>
       <c r="H90">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.4420000000000002</v>
       </c>
       <c r="I90">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.97680000000000011</v>
       </c>
       <c r="J90">
@@ -18173,19 +18173,19 @@
         <v>123</v>
       </c>
       <c r="BF90">
+        <f t="shared" si="39"/>
+        <v>1230</v>
+      </c>
+      <c r="BG90">
+        <f t="shared" si="34"/>
+        <v>128.80529879718151</v>
+      </c>
+      <c r="BI90">
         <f t="shared" si="35"/>
-        <v>1230</v>
-      </c>
-      <c r="BG90">
-        <f t="shared" si="32"/>
-        <v>128.80529879718151</v>
-      </c>
-      <c r="BI90">
-        <f>$BA$87*BD90/BG90</f>
         <v>1.864440191934183E-4</v>
       </c>
       <c r="BJ90">
-        <f>BI90*BG90</f>
+        <f t="shared" si="36"/>
         <v>2.4014977601155688E-2</v>
       </c>
     </row>
@@ -18200,11 +18200,11 @@
         <v>8.9</v>
       </c>
       <c r="H91">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.9370000000000003</v>
       </c>
       <c r="I91">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.97900000000000009</v>
       </c>
       <c r="J91">
@@ -18220,19 +18220,19 @@
         <v>138</v>
       </c>
       <c r="BF91">
+        <f t="shared" si="39"/>
+        <v>1380</v>
+      </c>
+      <c r="BG91">
+        <f t="shared" si="34"/>
+        <v>144.5132620651305</v>
+      </c>
+      <c r="BI91">
         <f t="shared" si="35"/>
-        <v>1380</v>
-      </c>
-      <c r="BG91">
-        <f t="shared" si="32"/>
-        <v>144.5132620651305</v>
-      </c>
-      <c r="BI91">
-        <f>$BA$87*BD91/BG91</f>
         <v>1.7023149578529492E-4</v>
       </c>
       <c r="BJ91">
-        <f>BI91*BG91</f>
+        <f t="shared" si="36"/>
         <v>2.4600708762159484E-2</v>
       </c>
     </row>
@@ -18247,11 +18247,11 @@
         <v>10.3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3.3990000000000005</v>
       </c>
       <c r="I92">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.97114285714285731</v>
       </c>
       <c r="J92">
@@ -18267,19 +18267,19 @@
         <v>144</v>
       </c>
       <c r="BF92">
+        <f t="shared" si="39"/>
+        <v>1440</v>
+      </c>
+      <c r="BG92">
+        <f t="shared" si="34"/>
+        <v>150.79644737231007</v>
+      </c>
+      <c r="BI92">
         <f t="shared" si="35"/>
-        <v>1440</v>
-      </c>
-      <c r="BG92">
-        <f t="shared" si="32"/>
-        <v>150.79644737231007</v>
-      </c>
-      <c r="BI92">
-        <f>$BA$87*BD92/BG92</f>
         <v>1.6702276719410389E-4</v>
       </c>
       <c r="BJ92">
-        <f>BI92*BG92</f>
+        <f t="shared" si="36"/>
         <v>2.5186439923163283E-2</v>
       </c>
     </row>
@@ -18294,11 +18294,11 @@
         <v>15.3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.0490000000000004</v>
       </c>
       <c r="I93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.2622500000000001</v>
       </c>
       <c r="J93">
@@ -18314,19 +18314,19 @@
         <v>158</v>
       </c>
       <c r="BF93">
+        <f t="shared" si="39"/>
+        <v>1580</v>
+      </c>
+      <c r="BG93">
+        <f t="shared" si="34"/>
+        <v>165.45721308906244</v>
+      </c>
+      <c r="BI93">
         <f t="shared" si="35"/>
-        <v>1580</v>
-      </c>
-      <c r="BG93">
-        <f t="shared" si="32"/>
-        <v>165.45721308906244</v>
-      </c>
-      <c r="BI93">
-        <f>$BA$87*BD93/BG93</f>
         <v>1.5576335780715959E-4</v>
       </c>
       <c r="BJ93">
-        <f>BI93*BG93</f>
+        <f t="shared" si="36"/>
         <v>2.577217108416708E-2</v>
       </c>
     </row>
@@ -18341,11 +18341,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H94">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.4119999999999999</v>
       </c>
       <c r="I94">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.2026666666666666</v>
       </c>
       <c r="J94">
@@ -18361,19 +18361,19 @@
         <v>176</v>
       </c>
       <c r="BF94">
+        <f t="shared" si="39"/>
+        <v>1760</v>
+      </c>
+      <c r="BG94">
+        <f t="shared" si="34"/>
+        <v>184.30676901060122</v>
+      </c>
+      <c r="BI94">
         <f t="shared" si="35"/>
-        <v>1760</v>
-      </c>
-      <c r="BG94">
-        <f t="shared" si="32"/>
-        <v>184.30676901060122</v>
-      </c>
-      <c r="BI94">
-        <f>$BA$87*BD94/BG94</f>
         <v>1.4301103744949697E-4</v>
       </c>
       <c r="BJ94">
-        <f>BI94*BG94</f>
+        <f t="shared" si="36"/>
         <v>2.6357902245170879E-2</v>
       </c>
     </row>
@@ -18388,11 +18388,11 @@
         <v>18.8</v>
       </c>
       <c r="H95">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>6.2040000000000006</v>
       </c>
       <c r="I95">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.2408000000000001</v>
       </c>
       <c r="J95">
@@ -18408,19 +18408,19 @@
         <v>195</v>
       </c>
       <c r="BF95">
+        <f t="shared" si="39"/>
+        <v>1950</v>
+      </c>
+      <c r="BG95">
+        <f t="shared" si="34"/>
+        <v>204.20352248333657</v>
+      </c>
+      <c r="BI95">
         <f t="shared" si="35"/>
-        <v>1950</v>
-      </c>
-      <c r="BG95">
-        <f t="shared" si="32"/>
-        <v>204.20352248333657</v>
-      </c>
-      <c r="BI95">
-        <f>$BA$87*BD95/BG95</f>
         <v>1.319449981984191E-4</v>
       </c>
       <c r="BJ95">
-        <f>BI95*BG95</f>
+        <f t="shared" si="36"/>
         <v>2.6943633406174679E-2</v>
       </c>
     </row>
@@ -18435,11 +18435,11 @@
         <v>22.2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.3260000000000005</v>
       </c>
       <c r="I96">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.3320000000000001</v>
       </c>
       <c r="J96">
@@ -18455,19 +18455,19 @@
         <v>207</v>
       </c>
       <c r="BF96">
+        <f t="shared" si="39"/>
+        <v>2070</v>
+      </c>
+      <c r="BG96">
+        <f t="shared" si="34"/>
+        <v>216.76989309769573</v>
+      </c>
+      <c r="BI96">
         <f t="shared" si="35"/>
-        <v>2070</v>
-      </c>
-      <c r="BG96">
-        <f t="shared" si="32"/>
-        <v>216.76989309769573</v>
-      </c>
-      <c r="BI96">
-        <f>$BA$87*BD96/BG96</f>
         <v>1.2699810003029941E-4</v>
       </c>
       <c r="BJ96">
-        <f>BI96*BG96</f>
+        <f t="shared" si="36"/>
         <v>2.7529364567178471E-2</v>
       </c>
     </row>
@@ -18484,19 +18484,19 @@
         <v>222</v>
       </c>
       <c r="BF97">
+        <f t="shared" si="39"/>
+        <v>2220</v>
+      </c>
+      <c r="BG97">
+        <f t="shared" si="34"/>
+        <v>232.4778563656447</v>
+      </c>
+      <c r="BI97">
         <f t="shared" si="35"/>
-        <v>2220</v>
-      </c>
-      <c r="BG97">
-        <f t="shared" si="32"/>
-        <v>232.4778563656447</v>
-      </c>
-      <c r="BI97">
-        <f>$BA$87*BD97/BG97</f>
         <v>1.2093666109843348E-4</v>
       </c>
       <c r="BJ97">
-        <f>BI97*BG97</f>
+        <f t="shared" si="36"/>
         <v>2.8115095728182268E-2</v>
       </c>
     </row>
@@ -18520,19 +18520,19 @@
         <v>241</v>
       </c>
       <c r="BF98">
+        <f t="shared" si="39"/>
+        <v>2410</v>
+      </c>
+      <c r="BG98">
+        <f t="shared" si="34"/>
+        <v>252.37460983838002</v>
+      </c>
+      <c r="BI98">
         <f t="shared" si="35"/>
-        <v>2410</v>
-      </c>
-      <c r="BG98">
-        <f t="shared" si="32"/>
-        <v>252.37460983838002</v>
-      </c>
-      <c r="BI98">
-        <f>$BA$87*BD98/BG98</f>
         <v>1.137231154416286E-4</v>
       </c>
       <c r="BJ98">
-        <f>BI98*BG98</f>
+        <f t="shared" si="36"/>
         <v>2.8700826889186067E-2</v>
       </c>
     </row>
@@ -18549,19 +18549,19 @@
         <v>276</v>
       </c>
       <c r="BF99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2760</v>
       </c>
       <c r="BG99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>289.02652413026101</v>
       </c>
       <c r="BI99">
-        <f t="shared" ref="BI99:BI100" si="36">$BA$87*BD99/BG99</f>
+        <f t="shared" ref="BI99:BI100" si="40">$BA$87*BD99/BG99</f>
         <v>1.0132827130077079E-4</v>
       </c>
       <c r="BJ99">
-        <f t="shared" ref="BJ99:BJ100" si="37">BI99*BG99</f>
+        <f t="shared" ref="BJ99:BJ100" si="41">BI99*BG99</f>
         <v>2.9286558050189863E-2</v>
       </c>
     </row>
@@ -18582,29 +18582,29 @@
         <v>307</v>
       </c>
       <c r="BF100">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3070</v>
       </c>
       <c r="BG100">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>321.48964821735547</v>
       </c>
       <c r="BI100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.3829319105482502E-5</v>
       </c>
       <c r="BJ100">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3.0165154791695559E-2</v>
       </c>
     </row>
     <row r="101" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
       <c r="AW101" s="17"/>
       <c r="BC101" s="19"/>
     </row>
@@ -18668,11 +18668,11 @@
         <v>5.4250000000000007</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H116" si="38">0.33*G104</f>
+        <f t="shared" ref="H104:H116" si="42">0.33*G104</f>
         <v>1.7902500000000003</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I113" si="39">H104/F104</f>
+        <f t="shared" ref="I104:I113" si="43">H104/F104</f>
         <v>0.89512500000000017</v>
       </c>
       <c r="J104">
@@ -18690,11 +18690,11 @@
         <v>7.4250000000000007</v>
       </c>
       <c r="H105">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2.4502500000000005</v>
       </c>
       <c r="I105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.98010000000000019</v>
       </c>
       <c r="J105">
@@ -18712,11 +18712,11 @@
         <v>8.9250000000000007</v>
       </c>
       <c r="H106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2.9452500000000006</v>
       </c>
       <c r="I106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.98175000000000023</v>
       </c>
       <c r="J106">
@@ -18734,11 +18734,11 @@
         <v>10.925000000000001</v>
       </c>
       <c r="H107">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>3.6052500000000003</v>
       </c>
       <c r="I107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.0300714285714287</v>
       </c>
       <c r="J107">
@@ -18756,11 +18756,11 @@
         <v>12.425000000000001</v>
       </c>
       <c r="H108">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.1002500000000008</v>
       </c>
       <c r="I108">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.0250625000000002</v>
       </c>
       <c r="J108">
@@ -18778,11 +18778,11 @@
         <v>14.425000000000001</v>
       </c>
       <c r="H109">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.7602500000000001</v>
       </c>
       <c r="I109">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.0578333333333334</v>
       </c>
       <c r="J109">
@@ -18800,11 +18800,11 @@
         <v>15.925000000000001</v>
       </c>
       <c r="H110">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>5.2552500000000002</v>
       </c>
       <c r="I110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.05105</v>
       </c>
       <c r="J110">
@@ -18822,11 +18822,11 @@
         <v>17.425000000000001</v>
       </c>
       <c r="H111">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>5.7502500000000003</v>
       </c>
       <c r="I111">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.0455000000000001</v>
       </c>
       <c r="J111">
@@ -18844,11 +18844,11 @@
         <v>18.925000000000001</v>
       </c>
       <c r="H112">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>6.2452500000000004</v>
       </c>
       <c r="I112">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.040875</v>
       </c>
       <c r="J112">
@@ -18866,11 +18866,11 @@
         <v>20.925000000000001</v>
       </c>
       <c r="H113">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>6.9052500000000006</v>
       </c>
       <c r="I113">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.0623461538461538</v>
       </c>
       <c r="J113">
@@ -18888,7 +18888,7 @@
         <v>22.425000000000001</v>
       </c>
       <c r="H114">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>7.4002500000000007</v>
       </c>
       <c r="I114">
@@ -18910,7 +18910,7 @@
         <v>24.425000000000001</v>
       </c>
       <c r="H115">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.0602499999999999</v>
       </c>
       <c r="I115">
@@ -18932,7 +18932,7 @@
         <v>27.425000000000001</v>
       </c>
       <c r="H116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>9.0502500000000001</v>
       </c>
       <c r="I116">
@@ -18980,15 +18980,15 @@
       <c r="AW125" s="17"/>
     </row>
     <row r="126" spans="4:49" ht="21" x14ac:dyDescent="0.4">
-      <c r="I126" s="26" t="s">
+      <c r="I126" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
       <c r="AW126" s="17"/>
     </row>
     <row r="127" spans="4:49" x14ac:dyDescent="0.3">
@@ -19037,11 +19037,11 @@
         <v>215</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J135" si="40">I129</f>
+        <f t="shared" ref="J129:J135" si="44">I129</f>
         <v>215</v>
       </c>
       <c r="K129">
-        <f t="shared" ref="K129:K146" si="41">J129*2*PI()/60</f>
+        <f t="shared" ref="K129:K146" si="45">J129*2*PI()/60</f>
         <v>22.51474735072685</v>
       </c>
       <c r="M129">
@@ -19068,15 +19068,15 @@
         <v>325</v>
       </c>
       <c r="J130">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>325</v>
       </c>
       <c r="K130">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>34.033920413889426</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:M146" si="42">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
+        <f t="shared" ref="M130:M146" si="46">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
         <v>1.6125579522699003E-2</v>
       </c>
       <c r="AW130" s="17"/>
@@ -19096,15 +19096,15 @@
         <v>420</v>
       </c>
       <c r="J131">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>420</v>
       </c>
       <c r="K131">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>43.982297150257104</v>
       </c>
       <c r="M131">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1.3732466580216781E-2</v>
       </c>
       <c r="AW131" s="17"/>
@@ -19124,15 +19124,15 @@
         <v>555</v>
       </c>
       <c r="J132">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>555</v>
       </c>
       <c r="K132">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>58.119464091411174</v>
       </c>
       <c r="M132">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1.117133763121049E-2</v>
       </c>
       <c r="AW132" s="17"/>
@@ -19147,19 +19147,19 @@
         <v>675</v>
       </c>
       <c r="J133">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>675</v>
       </c>
       <c r="K133">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>70.685834705770347</v>
       </c>
       <c r="M133">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.8784238976240869E-3</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N146" si="43">M133*K133</f>
+        <f t="shared" ref="N133:N146" si="47">M133*K133</f>
         <v>0.69826463878098788</v>
       </c>
       <c r="AW133" s="17"/>
@@ -19173,19 +19173,19 @@
         <v>805</v>
       </c>
       <c r="J134">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>805</v>
       </c>
       <c r="K134">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>84.299402871326109</v>
       </c>
       <c r="M134">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.8350165554967938E-3</v>
       </c>
       <c r="N134">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.74478661998666007</v>
       </c>
       <c r="AW134" s="17"/>
@@ -19199,19 +19199,19 @@
         <v>930</v>
       </c>
       <c r="J135">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>930</v>
       </c>
       <c r="K135">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>97.389372261283583</v>
       </c>
       <c r="M135">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.1378884925822244E-3</v>
       </c>
       <c r="N135">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.79254385182490616</v>
       </c>
       <c r="AW135" s="17"/>
@@ -19231,15 +19231,15 @@
         <v>1225</v>
       </c>
       <c r="K136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>128.28170002158322</v>
       </c>
       <c r="M136">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6.2230432089794658E-3</v>
       </c>
       <c r="N136">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.79830256215565443</v>
       </c>
       <c r="AW136" s="17"/>
@@ -19253,19 +19253,19 @@
         <v>138.5</v>
       </c>
       <c r="J137">
-        <f t="shared" ref="J137:J146" si="44">I137/0.1</f>
+        <f t="shared" ref="J137:J146" si="48">I137/0.1</f>
         <v>1385</v>
       </c>
       <c r="K137">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>145.03686084072879</v>
       </c>
       <c r="M137">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.7737945699575322E-3</v>
       </c>
       <c r="N137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.83741303956588609</v>
       </c>
       <c r="AW137" s="17"/>
@@ -19279,19 +19279,19 @@
         <v>153</v>
       </c>
       <c r="J138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1530</v>
       </c>
       <c r="K138">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>160.22122533307945</v>
       </c>
       <c r="M138">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.4938368311935838E-3</v>
       </c>
       <c r="N138">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.88022926887383834</v>
       </c>
       <c r="AW138" s="17"/>
@@ -19305,19 +19305,19 @@
         <v>169</v>
       </c>
       <c r="J139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1690</v>
       </c>
       <c r="K139">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>176.97638615222502</v>
       </c>
       <c r="M139">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.1947028994778228E-3</v>
       </c>
       <c r="N139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.91933974628407011</v>
       </c>
       <c r="AW139" s="17"/>
@@ -19331,19 +19331,19 @@
         <v>179</v>
       </c>
       <c r="J140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1790</v>
       </c>
       <c r="K140">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>187.448361664191</v>
       </c>
       <c r="M140">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.1922205275326842E-3</v>
       </c>
       <c r="N140">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.97327323128518317</v>
       </c>
       <c r="AW140" s="17"/>
@@ -19357,19 +19357,19 @@
         <v>191</v>
       </c>
       <c r="J141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1910</v>
       </c>
       <c r="K141">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>200.01473227855016</v>
       </c>
       <c r="M141">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.1109520889308594E-3</v>
       </c>
       <c r="N141">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.0222657137560025</v>
       </c>
       <c r="AW141" s="17"/>
@@ -19383,19 +19383,19 @@
         <v>208</v>
       </c>
       <c r="J142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2080</v>
       </c>
       <c r="K142">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>217.8170906488923</v>
       </c>
       <c r="M142">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4.8614444658430312E-3</v>
       </c>
       <c r="N142">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.0589056899010874</v>
       </c>
       <c r="AW142" s="17"/>
@@ -19409,19 +19409,19 @@
         <v>225</v>
       </c>
       <c r="J143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2250</v>
       </c>
       <c r="K143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>235.61944901923451</v>
       </c>
       <c r="M143">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4.6496402169106952E-3</v>
       </c>
       <c r="N143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.095545666046172</v>
       </c>
       <c r="AW143" s="17"/>
@@ -19435,19 +19435,19 @@
         <v>240</v>
       </c>
       <c r="J144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2400</v>
       </c>
       <c r="K144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>251.32741228718345</v>
       </c>
       <c r="M144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4.524483160723407E-3</v>
       </c>
       <c r="N144">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.1371266447215507</v>
       </c>
       <c r="AW144" s="17"/>
@@ -19461,19 +19461,19 @@
         <v>253</v>
       </c>
       <c r="J145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2530</v>
       </c>
       <c r="K145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>264.94098045273921</v>
       </c>
       <c r="M145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4.4675935897291854E-3</v>
       </c>
       <c r="N145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.1836486259272232</v>
       </c>
     </row>
@@ -19486,19 +19486,19 @@
         <v>269</v>
       </c>
       <c r="J146">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2690</v>
       </c>
       <c r="K146">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>281.69614127188476</v>
       </c>
       <c r="M146">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4.3407023533108477E-3</v>
       </c>
       <c r="N146">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.2227591033374552</v>
       </c>
     </row>
@@ -19520,15 +19520,15 @@
       </c>
     </row>
     <row r="152" spans="7:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="I152" s="26" t="s">
+      <c r="I152" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J152" s="26"/>
-      <c r="K152" s="26"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="26"/>
-      <c r="N152" s="26"/>
-      <c r="O152" s="26"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="27"/>
+      <c r="N152" s="27"/>
+      <c r="O152" s="27"/>
     </row>
     <row r="154" spans="7:15" x14ac:dyDescent="0.3">
       <c r="J154" s="2" t="s">
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <f t="shared" ref="K155:K161" si="45">J155</f>
+        <f t="shared" ref="K155:K161" si="49">J155</f>
         <v>0</v>
       </c>
     </row>
@@ -19552,7 +19552,7 @@
         <v>325</v>
       </c>
       <c r="K156">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>325</v>
       </c>
     </row>
@@ -19561,7 +19561,7 @@
         <v>420</v>
       </c>
       <c r="K157">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>420</v>
       </c>
     </row>
@@ -19570,7 +19570,7 @@
         <v>555</v>
       </c>
       <c r="K158">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>555</v>
       </c>
     </row>
@@ -19579,7 +19579,7 @@
         <v>675</v>
       </c>
       <c r="K159">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>675</v>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
         <v>805</v>
       </c>
       <c r="K160">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>805</v>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
         <v>930</v>
       </c>
       <c r="K161">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>930</v>
       </c>
     </row>
@@ -19615,7 +19615,7 @@
         <v>138.5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K172" si="46">J163/0.1</f>
+        <f t="shared" ref="K163:K172" si="50">J163/0.1</f>
         <v>1385</v>
       </c>
     </row>
@@ -19624,7 +19624,7 @@
         <v>153</v>
       </c>
       <c r="K164">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1530</v>
       </c>
     </row>
@@ -19633,7 +19633,7 @@
         <v>169</v>
       </c>
       <c r="K165">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1690</v>
       </c>
     </row>
@@ -19642,7 +19642,7 @@
         <v>179</v>
       </c>
       <c r="K166">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1790</v>
       </c>
     </row>
@@ -19651,7 +19651,7 @@
         <v>191</v>
       </c>
       <c r="K167">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1910</v>
       </c>
     </row>
@@ -19660,7 +19660,7 @@
         <v>208</v>
       </c>
       <c r="K168">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2080</v>
       </c>
     </row>
@@ -19669,7 +19669,7 @@
         <v>225</v>
       </c>
       <c r="K169">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2250</v>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
         <v>240</v>
       </c>
       <c r="K170">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2400</v>
       </c>
     </row>
@@ -19687,7 +19687,7 @@
         <v>253</v>
       </c>
       <c r="K171">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2530</v>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
         <v>269</v>
       </c>
       <c r="K172">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2690</v>
       </c>
     </row>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1776,6 +1776,411 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BG$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ke</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AZ$31:$AZ$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BG$31:$BG$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.3367175513452018E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0567484610800224E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8661421667244844E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7409344057481218E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.672411892432656E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6563546347673608E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6199354307522448E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5774613114320529E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5517279260957428E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5290315720430704E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5337423311972087E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5033341346503218E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4840543186105813E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4709830709454076E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4638816877558189E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4480368037888183E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4317957598693286E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4189763321357508E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3994873740416764E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D238-4B7B-A121-34E1AEAD03DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410034472"/>
+        <c:axId val="410030536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410034472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410030536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410030536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410034472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7696,6 +8101,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8533,6 +8978,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13587,6 +14548,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391D7ACD-EB06-4E4B-AFEB-0452693C2DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13887,10 +14884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:BK172"/>
+  <dimension ref="A5:CL172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
+    <sheetView tabSelected="1" topLeftCell="AX28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG50" sqref="BG50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14170,7 +15167,7 @@
       <c r="AW16" s="17"/>
       <c r="AY16" s="5"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.5</v>
       </c>
@@ -14190,7 +15187,7 @@
       </c>
       <c r="AW17" s="17"/>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -14210,7 +15207,7 @@
       </c>
       <c r="AW18" s="17"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6.5</v>
       </c>
@@ -14230,7 +15227,7 @@
       </c>
       <c r="AW19" s="17"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -14250,7 +15247,7 @@
       </c>
       <c r="AW20" s="17"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7.5</v>
       </c>
@@ -14270,7 +15267,7 @@
       </c>
       <c r="AW21" s="17"/>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -14290,7 +15287,7 @@
       </c>
       <c r="AW22" s="17"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.5</v>
       </c>
@@ -14310,7 +15307,7 @@
       </c>
       <c r="AW23" s="17"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -14330,7 +15327,7 @@
       </c>
       <c r="AW24" s="17"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.5</v>
       </c>
@@ -14350,7 +15347,7 @@
       </c>
       <c r="AW25" s="17"/>
     </row>
-    <row r="26" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:90" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
       <c r="AP26" s="27"/>
@@ -14361,10 +15358,10 @@
       <c r="AU26" s="27"/>
       <c r="AW26" s="17"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
       <c r="AW27" s="17"/>
     </row>
-    <row r="28" spans="1:59" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:90" ht="21" x14ac:dyDescent="0.4">
       <c r="K28" s="27" t="s">
         <v>10</v>
       </c>
@@ -14407,10 +15404,10 @@
       <c r="BD28" s="27"/>
       <c r="BE28" s="27"/>
     </row>
-    <row r="29" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AW29" s="17"/>
     </row>
-    <row r="30" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="29" t="s">
         <v>4</v>
       </c>
@@ -14460,7 +15457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:90" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
@@ -14555,8 +15552,28 @@
         <f>(AZ31-$AZ$9*BA31)/BE31</f>
         <v>4.3367175513452018E-2</v>
       </c>
+      <c r="BS31" s="10"/>
+      <c r="BT31" s="10"/>
+      <c r="BU31" s="10"/>
+      <c r="BV31" s="10"/>
+      <c r="BW31" s="10"/>
+      <c r="BX31" s="10"/>
+      <c r="BY31" s="10"/>
+      <c r="BZ31" s="10"/>
+      <c r="CA31" s="10"/>
+      <c r="CB31" s="10"/>
+      <c r="CC31" s="10"/>
+      <c r="CD31" s="10"/>
+      <c r="CE31" s="10"/>
+      <c r="CF31" s="10"/>
+      <c r="CG31" s="10"/>
+      <c r="CH31" s="10"/>
+      <c r="CI31" s="10"/>
+      <c r="CJ31" s="10"/>
+      <c r="CK31" s="10"/>
+      <c r="CL31" s="10"/>
     </row>
-    <row r="32" spans="1:59" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:90" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>4.5</v>
       </c>
@@ -14660,8 +15677,9 @@
         <f t="shared" ref="BG32:BG49" si="5">(AZ32-$AZ$9*BA32)/BE32</f>
         <v>4.0567484610800224E-2</v>
       </c>
+      <c r="BS32" s="10"/>
     </row>
-    <row r="33" spans="5:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>5</v>
       </c>
@@ -14763,8 +15781,9 @@
         <f t="shared" si="5"/>
         <v>3.8661421667244844E-2</v>
       </c>
+      <c r="BS33" s="10"/>
     </row>
-    <row r="34" spans="5:59" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:71" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>5.5</v>
       </c>
@@ -14868,8 +15887,9 @@
         <f t="shared" si="5"/>
         <v>3.7409344057481218E-2</v>
       </c>
+      <c r="BS34" s="10"/>
     </row>
-    <row r="35" spans="5:59" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:71" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>6</v>
       </c>
@@ -14973,8 +15993,9 @@
         <f t="shared" si="5"/>
         <v>3.672411892432656E-2</v>
       </c>
+      <c r="BS35" s="10"/>
     </row>
-    <row r="36" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>6.5</v>
       </c>
@@ -15076,8 +16097,9 @@
         <f t="shared" si="5"/>
         <v>3.6563546347673608E-2</v>
       </c>
+      <c r="BS36" s="10"/>
     </row>
-    <row r="37" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>7</v>
       </c>
@@ -15179,8 +16201,9 @@
         <f t="shared" si="5"/>
         <v>3.6199354307522448E-2</v>
       </c>
+      <c r="BS37" s="10"/>
     </row>
-    <row r="38" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>7.5</v>
       </c>
@@ -15282,8 +16305,9 @@
         <f t="shared" si="5"/>
         <v>3.5774613114320529E-2</v>
       </c>
+      <c r="BS38" s="10"/>
     </row>
-    <row r="39" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>8</v>
       </c>
@@ -15385,8 +16409,9 @@
         <f t="shared" si="5"/>
         <v>3.5517279260957428E-2</v>
       </c>
+      <c r="BS39" s="10"/>
     </row>
-    <row r="40" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>8.5</v>
       </c>
@@ -15475,8 +16500,9 @@
         <f t="shared" si="5"/>
         <v>3.5290315720430704E-2</v>
       </c>
+      <c r="BS40" s="10"/>
     </row>
-    <row r="41" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>9</v>
       </c>
@@ -15558,8 +16584,9 @@
         <f t="shared" si="5"/>
         <v>3.5337423311972087E-2</v>
       </c>
+      <c r="BS41" s="10"/>
     </row>
-    <row r="42" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>9.5</v>
       </c>
@@ -15641,8 +16668,9 @@
         <f t="shared" si="5"/>
         <v>3.5033341346503218E-2</v>
       </c>
+      <c r="BS42" s="10"/>
     </row>
-    <row r="43" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>10</v>
       </c>
@@ -15724,8 +16752,9 @@
         <f t="shared" si="5"/>
         <v>3.4840543186105813E-2</v>
       </c>
+      <c r="BS43" s="10"/>
     </row>
-    <row r="44" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>10.5</v>
       </c>
@@ -15807,8 +16836,9 @@
         <f t="shared" si="5"/>
         <v>3.4709830709454076E-2</v>
       </c>
+      <c r="BS44" s="10"/>
     </row>
-    <row r="45" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>11</v>
       </c>
@@ -15890,8 +16920,9 @@
         <f t="shared" si="5"/>
         <v>3.4638816877558189E-2</v>
       </c>
+      <c r="BS45" s="10"/>
     </row>
-    <row r="46" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>11.5</v>
       </c>
@@ -15973,8 +17004,9 @@
         <f t="shared" si="5"/>
         <v>3.4480368037888183E-2</v>
       </c>
+      <c r="BS46" s="10"/>
     </row>
-    <row r="47" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>12</v>
       </c>
@@ -16056,8 +17088,9 @@
         <f t="shared" si="5"/>
         <v>3.4317957598693286E-2</v>
       </c>
+      <c r="BS47" s="10"/>
     </row>
-    <row r="48" spans="5:59" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:71" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>12.5</v>
       </c>
@@ -16139,8 +17172,9 @@
         <f t="shared" si="5"/>
         <v>3.4189763321357508E-2</v>
       </c>
+      <c r="BS48" s="10"/>
     </row>
-    <row r="49" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E49">
         <v>13</v>
       </c>
@@ -16222,8 +17256,9 @@
         <f t="shared" si="5"/>
         <v>3.3994873740416764E-2</v>
       </c>
+      <c r="BS49" s="10"/>
     </row>
-    <row r="50" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>13.5</v>
       </c>
@@ -16291,7 +17326,7 @@
         <v>3.5510759501759206E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51">
         <v>14</v>
       </c>
@@ -16352,7 +17387,7 @@
       </c>
       <c r="AW51" s="17"/>
     </row>
-    <row r="52" spans="4:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P52" s="12">
         <f>AVERAGE(P32:P51)</f>
         <v>0.50004956219903474</v>
@@ -16373,7 +17408,7 @@
       </c>
       <c r="AW52" s="17"/>
     </row>
-    <row r="53" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:71" x14ac:dyDescent="0.3">
       <c r="J53" s="9">
         <f>4.6*2*PI()/60</f>
         <v>0.4817108735504349</v>
@@ -16384,13 +17419,13 @@
       </c>
       <c r="AW53" s="17"/>
     </row>
-    <row r="54" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:71" x14ac:dyDescent="0.3">
       <c r="AW54" s="17"/>
     </row>
-    <row r="55" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:71" x14ac:dyDescent="0.3">
       <c r="AW55" s="17"/>
     </row>
-    <row r="56" spans="4:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:71" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -16410,7 +17445,7 @@
       <c r="BF56" s="27"/>
       <c r="BG56" s="27"/>
     </row>
-    <row r="57" spans="4:62" ht="21" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:71" ht="21" x14ac:dyDescent="0.4">
       <c r="H57" s="27" t="s">
         <v>36</v>
       </c>
@@ -16423,7 +17458,7 @@
       <c r="O57" s="27"/>
       <c r="AW57" s="17"/>
     </row>
-    <row r="58" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:71" x14ac:dyDescent="0.3">
       <c r="AW58" s="17"/>
       <c r="AY58" t="s">
         <v>12</v>
@@ -16456,7 +17491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:71" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>12</v>
       </c>
@@ -16512,7 +17547,7 @@
       <c r="BH59" s="4"/>
       <c r="BJ59" s="4"/>
     </row>
-    <row r="60" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:71" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>40</v>
       </c>
@@ -16569,7 +17604,7 @@
       <c r="BH60" s="4"/>
       <c r="BJ60" s="4"/>
     </row>
-    <row r="61" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:71" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>48</v>
       </c>
@@ -16626,7 +17661,7 @@
       <c r="BH61" s="4"/>
       <c r="BJ61" s="4"/>
     </row>
-    <row r="62" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:71" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>63</v>
       </c>
@@ -16689,7 +17724,7 @@
         <v>3.304E-2</v>
       </c>
     </row>
-    <row r="63" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:71" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>77</v>
       </c>
@@ -16752,7 +17787,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:62" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:71" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>90</v>
       </c>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -14886,8 +14886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:CL172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG50" sqref="BG50"/>
+    <sheetView tabSelected="1" topLeftCell="AY98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI102" sqref="BI102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>I2 [A]</t>
   </si>
@@ -269,18 +269,25 @@
   <si>
     <t>The Kt we keep:</t>
   </si>
+  <si>
+    <t>New, real shit, not fake news, legit tests results</t>
+  </si>
+  <si>
+    <t>in data sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +334,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -445,11 +459,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,13 +558,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,7 +1964,7 @@
             <c:numRef>
               <c:f>Sheet1!$AZ$31:$AZ$49</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -2033,7 +2131,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7382,43 +7480,43 @@
                 <c:pt idx="5">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.0">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.0">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.0">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.0">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.0">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.0">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.0">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.0">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.0">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.0">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.0">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.0">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -7582,43 +7680,43 @@
                       <c:pt idx="5">
                         <c:v>3.5</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="6" formatCode="0.0">
                         <c:v>4</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="7" formatCode="0.0">
                         <c:v>4.5</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="8" formatCode="0.0">
                         <c:v>5</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="9" formatCode="0.0">
                         <c:v>5.5</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="10" formatCode="0.0">
                         <c:v>6</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="11" formatCode="0.0">
                         <c:v>6.5</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="12" formatCode="0.0">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="13" formatCode="0.0">
                         <c:v>7.5</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="14" formatCode="0.0">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="15" formatCode="0.0">
                         <c:v>8.5</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="16" formatCode="0.0">
                         <c:v>9</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="17" formatCode="0.0">
                         <c:v>9.5</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="18" formatCode="0.0">
                         <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
@@ -14443,7 +14541,7 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>364603</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:rowOff>84665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14884,10 +14982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:CL172"/>
+  <dimension ref="A2:CL172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI102" sqref="BI102"/>
+    <sheetView tabSelected="1" topLeftCell="BX65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BX78" sqref="BX78:CK90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14905,10 +15003,35 @@
     <col min="59" max="59" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="BA3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="30"/>
+    </row>
+    <row r="4" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="33"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AW5" s="17"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -14926,7 +15049,7 @@
       </c>
       <c r="AW6" s="17"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -14944,9 +15067,9 @@
         <f>E7/A7</f>
         <v>1.44</v>
       </c>
-      <c r="AW7" s="25"/>
+      <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14969,7 +15092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -14995,7 +15118,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -15017,11 +15140,11 @@
       <c r="AY10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AZ10" s="26">
+      <c r="AZ10" s="25">
         <v>1.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -15048,7 +15171,7 @@
         <v>3.5510759501759206E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -15075,7 +15198,7 @@
         <v>2.9286558050189863E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.5</v>
       </c>
@@ -15097,8 +15220,11 @@
       <c r="AY13" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="BA13" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -15125,7 +15251,7 @@
         <v>1.5999400748723083E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.5</v>
       </c>
@@ -15146,7 +15272,7 @@
       <c r="AW15" s="17"/>
       <c r="AY15" s="5"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -15348,76 +15474,76 @@
       <c r="AW25" s="17"/>
     </row>
     <row r="26" spans="1:90" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AN26" s="27"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="27"/>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="27"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="27"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
       <c r="AW26" s="17"/>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.3">
       <c r="AW27" s="17"/>
     </row>
     <row r="28" spans="1:90" ht="21" x14ac:dyDescent="0.4">
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
       <c r="R28" t="s">
         <v>24</v>
       </c>
-      <c r="AE28" s="27" t="s">
+      <c r="AE28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AN28" s="27" t="s">
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AN28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
-      <c r="AQ28" s="27"/>
-      <c r="AR28" s="27"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="27"/>
-      <c r="AU28" s="27"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
       <c r="AW28" s="17"/>
-      <c r="AY28" s="27" t="s">
+      <c r="AY28" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AZ28" s="27"/>
-      <c r="BA28" s="27"/>
-      <c r="BB28" s="27"/>
-      <c r="BC28" s="27"/>
-      <c r="BD28" s="27"/>
-      <c r="BE28" s="27"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
     </row>
     <row r="29" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AW29" s="17"/>
     </row>
     <row r="30" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="L30" s="32" t="s">
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="L30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
       <c r="AN30" s="2" t="s">
         <v>57</v>
       </c>
@@ -15531,10 +15657,10 @@
       <c r="AY31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AZ31">
+      <c r="AZ31" s="27">
         <v>3</v>
       </c>
-      <c r="BA31">
+      <c r="BA31" s="1">
         <v>0.71499999999999997</v>
       </c>
       <c r="BC31">
@@ -15656,10 +15782,10 @@
       </c>
       <c r="AW32" s="17"/>
       <c r="AY32" s="17"/>
-      <c r="AZ32">
+      <c r="AZ32" s="27">
         <v>3.5</v>
       </c>
-      <c r="BA32">
+      <c r="BA32" s="1">
         <v>0.745</v>
       </c>
       <c r="BC32">
@@ -15760,10 +15886,10 @@
       </c>
       <c r="AW33" s="17"/>
       <c r="AY33" s="17"/>
-      <c r="AZ33">
+      <c r="AZ33" s="27">
         <v>4</v>
       </c>
-      <c r="BA33">
+      <c r="BA33" s="1">
         <v>0.77</v>
       </c>
       <c r="BC33">
@@ -15866,10 +15992,10 @@
       <c r="AY34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AZ34">
+      <c r="AZ34" s="27">
         <v>4.5</v>
       </c>
-      <c r="BA34">
+      <c r="BA34" s="1">
         <v>0.79</v>
       </c>
       <c r="BC34">
@@ -15972,10 +16098,10 @@
       </c>
       <c r="AW35" s="17"/>
       <c r="AY35" s="17"/>
-      <c r="AZ35">
+      <c r="AZ35" s="27">
         <v>5</v>
       </c>
-      <c r="BA35">
+      <c r="BA35" s="1">
         <v>0.83</v>
       </c>
       <c r="BC35">
@@ -16076,10 +16202,10 @@
       </c>
       <c r="AW36" s="17"/>
       <c r="AY36" s="17"/>
-      <c r="AZ36">
+      <c r="AZ36" s="27">
         <v>5.5</v>
       </c>
-      <c r="BA36">
+      <c r="BA36" s="1">
         <v>0.85</v>
       </c>
       <c r="BC36">
@@ -16180,10 +16306,10 @@
       </c>
       <c r="AW37" s="17"/>
       <c r="AY37" s="17"/>
-      <c r="AZ37">
+      <c r="AZ37" s="27">
         <v>6</v>
       </c>
-      <c r="BA37">
+      <c r="BA37" s="1">
         <v>0.88</v>
       </c>
       <c r="BC37">
@@ -16284,10 +16410,10 @@
       </c>
       <c r="AW38" s="17"/>
       <c r="AY38" s="17"/>
-      <c r="AZ38">
+      <c r="AZ38" s="27">
         <v>6.5</v>
       </c>
-      <c r="BA38">
+      <c r="BA38" s="1">
         <v>0.9</v>
       </c>
       <c r="BC38">
@@ -16388,10 +16514,10 @@
       </c>
       <c r="AW39" s="17"/>
       <c r="AY39" s="17"/>
-      <c r="AZ39">
+      <c r="AZ39" s="27">
         <v>7</v>
       </c>
-      <c r="BA39">
+      <c r="BA39" s="1">
         <v>0.93</v>
       </c>
       <c r="BC39">
@@ -16479,10 +16605,10 @@
       </c>
       <c r="AW40" s="17"/>
       <c r="AY40" s="17"/>
-      <c r="AZ40">
+      <c r="AZ40" s="27">
         <v>7.5</v>
       </c>
-      <c r="BA40">
+      <c r="BA40" s="1">
         <v>0.94</v>
       </c>
       <c r="BC40">
@@ -16563,10 +16689,10 @@
       </c>
       <c r="AW41" s="17"/>
       <c r="AY41" s="17"/>
-      <c r="AZ41">
+      <c r="AZ41" s="27">
         <v>8</v>
       </c>
-      <c r="BA41">
+      <c r="BA41" s="1">
         <v>0.95</v>
       </c>
       <c r="BC41">
@@ -16647,10 +16773,10 @@
       </c>
       <c r="AW42" s="17"/>
       <c r="AY42" s="17"/>
-      <c r="AZ42">
+      <c r="AZ42" s="27">
         <v>8.5</v>
       </c>
-      <c r="BA42">
+      <c r="BA42" s="1">
         <v>0.96</v>
       </c>
       <c r="BC42">
@@ -16731,10 +16857,10 @@
       </c>
       <c r="AW43" s="17"/>
       <c r="AY43" s="17"/>
-      <c r="AZ43">
+      <c r="AZ43" s="27">
         <v>9</v>
       </c>
-      <c r="BA43">
+      <c r="BA43" s="1">
         <v>0.99</v>
       </c>
       <c r="BC43">
@@ -16815,10 +16941,10 @@
       </c>
       <c r="AW44" s="17"/>
       <c r="AY44" s="17"/>
-      <c r="AZ44">
+      <c r="AZ44" s="27">
         <v>9.5</v>
       </c>
-      <c r="BA44">
+      <c r="BA44" s="1">
         <v>1</v>
       </c>
       <c r="BC44">
@@ -16899,10 +17025,10 @@
       </c>
       <c r="AW45" s="17"/>
       <c r="AY45" s="17"/>
-      <c r="AZ45">
+      <c r="AZ45" s="27">
         <v>10</v>
       </c>
-      <c r="BA45">
+      <c r="BA45" s="1">
         <v>1.02</v>
       </c>
       <c r="BC45">
@@ -16983,10 +17109,10 @@
       </c>
       <c r="AW46" s="17"/>
       <c r="AY46" s="17"/>
-      <c r="AZ46">
+      <c r="AZ46" s="27">
         <v>10.5</v>
       </c>
-      <c r="BA46">
+      <c r="BA46" s="1">
         <v>1.03</v>
       </c>
       <c r="BC46">
@@ -17067,10 +17193,10 @@
       </c>
       <c r="AW47" s="17"/>
       <c r="AY47" s="17"/>
-      <c r="AZ47">
+      <c r="AZ47" s="27">
         <v>11</v>
       </c>
-      <c r="BA47">
+      <c r="BA47" s="1">
         <v>1.06</v>
       </c>
       <c r="BC47">
@@ -17151,10 +17277,10 @@
       </c>
       <c r="AW48" s="17"/>
       <c r="AY48" s="17"/>
-      <c r="AZ48">
+      <c r="AZ48" s="27">
         <v>11.5</v>
       </c>
-      <c r="BA48">
+      <c r="BA48" s="1">
         <v>1.06</v>
       </c>
       <c r="BC48">
@@ -17235,10 +17361,10 @@
       </c>
       <c r="AW49" s="17"/>
       <c r="AY49" s="17"/>
-      <c r="AZ49">
+      <c r="AZ49" s="27">
         <v>12</v>
       </c>
-      <c r="BA49">
+      <c r="BA49" s="1">
         <v>1.05</v>
       </c>
       <c r="BC49">
@@ -17434,28 +17560,28 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="AW56" s="17"/>
-      <c r="AZ56" s="27" t="s">
+      <c r="AZ56" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="BA56" s="27"/>
-      <c r="BB56" s="27"/>
-      <c r="BC56" s="27"/>
-      <c r="BD56" s="27"/>
-      <c r="BE56" s="27"/>
-      <c r="BF56" s="27"/>
-      <c r="BG56" s="27"/>
+      <c r="BA56" s="35"/>
+      <c r="BB56" s="35"/>
+      <c r="BC56" s="35"/>
+      <c r="BD56" s="35"/>
+      <c r="BE56" s="35"/>
+      <c r="BF56" s="35"/>
+      <c r="BG56" s="35"/>
     </row>
     <row r="57" spans="4:71" ht="21" x14ac:dyDescent="0.4">
-      <c r="H57" s="27" t="s">
+      <c r="H57" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
       <c r="AW57" s="17"/>
     </row>
     <row r="58" spans="4:71" x14ac:dyDescent="0.3">
@@ -17850,7 +17976,7 @@
         <v>3.2885714285714282E-2</v>
       </c>
     </row>
-    <row r="65" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>99</v>
       </c>
@@ -17883,10 +18009,10 @@
       <c r="AZ65">
         <v>582</v>
       </c>
-      <c r="BA65">
+      <c r="BA65" s="27">
         <v>4</v>
       </c>
-      <c r="BB65">
+      <c r="BB65" s="4">
         <f t="shared" si="19"/>
         <v>0.1164</v>
       </c>
@@ -17913,7 +18039,7 @@
         <v>3.2674999999999996E-2</v>
       </c>
     </row>
-    <row r="66" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>110</v>
       </c>
@@ -17952,10 +18078,10 @@
       <c r="AZ66">
         <v>657</v>
       </c>
-      <c r="BA66">
+      <c r="BA66" s="27">
         <v>4.5</v>
       </c>
-      <c r="BB66">
+      <c r="BB66" s="4">
         <f t="shared" si="19"/>
         <v>0.13139999999999999</v>
       </c>
@@ -17982,7 +18108,7 @@
         <v>3.2333333333333332E-2</v>
       </c>
     </row>
-    <row r="67" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>129</v>
       </c>
@@ -18024,10 +18150,10 @@
       <c r="AZ67">
         <v>749</v>
       </c>
-      <c r="BA67">
+      <c r="BA67" s="27">
         <v>5</v>
       </c>
-      <c r="BB67">
+      <c r="BB67" s="4">
         <f t="shared" si="19"/>
         <v>0.14979999999999999</v>
       </c>
@@ -18055,7 +18181,7 @@
       </c>
       <c r="BK67" s="4"/>
     </row>
-    <row r="68" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>152</v>
       </c>
@@ -18097,10 +18223,10 @@
       <c r="AZ68">
         <v>803</v>
       </c>
-      <c r="BA68">
+      <c r="BA68" s="27">
         <v>5.5</v>
       </c>
-      <c r="BB68">
+      <c r="BB68" s="4">
         <f t="shared" si="19"/>
         <v>0.16059999999999999</v>
       </c>
@@ -18128,7 +18254,7 @@
       </c>
       <c r="BK68" s="4"/>
     </row>
-    <row r="69" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>164</v>
       </c>
@@ -18170,10 +18296,10 @@
       <c r="AZ69">
         <v>912</v>
       </c>
-      <c r="BA69">
+      <c r="BA69" s="27">
         <v>6</v>
       </c>
-      <c r="BB69">
+      <c r="BB69" s="4">
         <f t="shared" si="19"/>
         <v>0.18240000000000001</v>
       </c>
@@ -18201,7 +18327,7 @@
       </c>
       <c r="BK69" s="4"/>
     </row>
-    <row r="70" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>168</v>
       </c>
@@ -18243,10 +18369,10 @@
       <c r="AZ70">
         <v>948</v>
       </c>
-      <c r="BA70">
+      <c r="BA70" s="27">
         <v>6.5</v>
       </c>
-      <c r="BB70">
+      <c r="BB70" s="4">
         <f t="shared" si="19"/>
         <v>0.18959999999999999</v>
       </c>
@@ -18274,7 +18400,7 @@
       </c>
       <c r="BK70" s="4"/>
     </row>
-    <row r="71" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>181</v>
       </c>
@@ -18316,10 +18442,10 @@
       <c r="AZ71">
         <v>1025</v>
       </c>
-      <c r="BA71">
+      <c r="BA71" s="27">
         <v>7</v>
       </c>
-      <c r="BB71">
+      <c r="BB71" s="4">
         <f t="shared" si="19"/>
         <v>0.20499999999999999</v>
       </c>
@@ -18347,7 +18473,7 @@
       </c>
       <c r="BK71" s="4"/>
     </row>
-    <row r="72" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>207</v>
       </c>
@@ -18389,10 +18515,10 @@
       <c r="AZ72">
         <v>1096</v>
       </c>
-      <c r="BA72">
+      <c r="BA72" s="27">
         <v>7.5</v>
       </c>
-      <c r="BB72">
+      <c r="BB72" s="4">
         <f t="shared" si="19"/>
         <v>0.21920000000000001</v>
       </c>
@@ -18420,7 +18546,7 @@
       </c>
       <c r="BK72" s="4"/>
     </row>
-    <row r="73" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>216</v>
       </c>
@@ -18462,10 +18588,10 @@
       <c r="AZ73">
         <v>1166</v>
       </c>
-      <c r="BA73">
+      <c r="BA73" s="27">
         <v>8</v>
       </c>
-      <c r="BB73">
+      <c r="BB73" s="4">
         <f t="shared" si="19"/>
         <v>0.23319999999999999</v>
       </c>
@@ -18493,7 +18619,7 @@
       </c>
       <c r="BK73" s="4"/>
     </row>
-    <row r="74" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>224</v>
       </c>
@@ -18535,10 +18661,10 @@
       <c r="AZ74">
         <v>1239</v>
       </c>
-      <c r="BA74">
+      <c r="BA74" s="27">
         <v>8.5</v>
       </c>
-      <c r="BB74">
+      <c r="BB74" s="4">
         <f t="shared" si="19"/>
         <v>0.24779999999999999</v>
       </c>
@@ -18566,7 +18692,7 @@
       </c>
       <c r="BK74" s="4"/>
     </row>
-    <row r="75" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>242</v>
       </c>
@@ -18608,10 +18734,10 @@
       <c r="AZ75">
         <v>1302</v>
       </c>
-      <c r="BA75">
+      <c r="BA75" s="27">
         <v>9</v>
       </c>
-      <c r="BB75">
+      <c r="BB75" s="4">
         <f t="shared" si="19"/>
         <v>0.26040000000000002</v>
       </c>
@@ -18639,7 +18765,7 @@
       </c>
       <c r="BK75" s="4"/>
     </row>
-    <row r="76" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>262</v>
       </c>
@@ -18681,10 +18807,10 @@
       <c r="AZ76">
         <v>1375</v>
       </c>
-      <c r="BA76">
+      <c r="BA76" s="27">
         <v>9.5</v>
       </c>
-      <c r="BB76">
+      <c r="BB76" s="4">
         <f t="shared" si="19"/>
         <v>0.27500000000000002</v>
       </c>
@@ -18712,7 +18838,7 @@
       </c>
       <c r="BK76" s="4"/>
     </row>
-    <row r="77" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E77">
         <v>277</v>
       </c>
@@ -18754,10 +18880,10 @@
       <c r="AZ77">
         <v>1450</v>
       </c>
-      <c r="BA77">
+      <c r="BA77" s="27">
         <v>10</v>
       </c>
-      <c r="BB77">
+      <c r="BB77" s="4">
         <f t="shared" si="19"/>
         <v>0.28999999999999998</v>
       </c>
@@ -18785,7 +18911,7 @@
       </c>
       <c r="BK77" s="4"/>
     </row>
-    <row r="78" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E78">
         <v>283</v>
       </c>
@@ -18824,10 +18950,10 @@
       </c>
       <c r="Q78" s="4"/>
       <c r="AW78" s="17"/>
-      <c r="BA78" s="35" t="s">
+      <c r="BA78" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="BB78" s="36"/>
+      <c r="BB78" s="44"/>
       <c r="BC78" s="6">
         <f>AVERAGE(BC65:BC77)</f>
         <v>2.9286558050189863E-2</v>
@@ -18845,7 +18971,7 @@
       </c>
       <c r="BK78" s="4"/>
     </row>
-    <row r="79" spans="5:63" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:65" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>309</v>
       </c>
@@ -18886,7 +19012,7 @@
       <c r="AW79" s="17"/>
       <c r="BK79" s="4"/>
     </row>
-    <row r="80" spans="5:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E80">
         <v>314</v>
       </c>
@@ -18925,7 +19051,19 @@
       </c>
       <c r="Q80" s="4"/>
       <c r="AW80" s="17"/>
-      <c r="BK80" s="4"/>
+      <c r="BA80" s="27"/>
+      <c r="BB80" s="27"/>
+      <c r="BC80" s="27"/>
+      <c r="BD80" s="27"/>
+      <c r="BE80" s="27"/>
+      <c r="BF80" s="27"/>
+      <c r="BG80" s="27"/>
+      <c r="BH80" s="27"/>
+      <c r="BI80" s="27"/>
+      <c r="BJ80" s="27"/>
+      <c r="BK80" s="27"/>
+      <c r="BL80" s="27"/>
+      <c r="BM80" s="27"/>
     </row>
     <row r="81" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N81" s="5" t="s">
@@ -18939,15 +19077,15 @@
     </row>
     <row r="82" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW82" s="17"/>
-      <c r="BB82" s="27" t="s">
+      <c r="BB82" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="BC82" s="27"/>
-      <c r="BD82" s="27"/>
-      <c r="BE82" s="27"/>
-      <c r="BF82" s="27"/>
-      <c r="BG82" s="27"/>
-      <c r="BH82" s="27"/>
+      <c r="BC82" s="34"/>
+      <c r="BD82" s="34"/>
+      <c r="BE82" s="34"/>
+      <c r="BF82" s="34"/>
+      <c r="BG82" s="34"/>
+      <c r="BH82" s="34"/>
     </row>
     <row r="83" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW83" s="17"/>
@@ -18957,23 +19095,23 @@
       <c r="BA83" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BH83" s="24"/>
-      <c r="BI83" s="24"/>
-      <c r="BJ83" s="24"/>
+      <c r="BH83" s="26"/>
+      <c r="BI83" s="26"/>
+      <c r="BJ83" s="26"/>
     </row>
     <row r="84" spans="4:63" x14ac:dyDescent="0.3">
       <c r="AW84" s="17"/>
     </row>
     <row r="85" spans="4:63" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I85" s="27" t="s">
+      <c r="I85" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
       <c r="AW85" s="17"/>
       <c r="BC85" s="15"/>
       <c r="BD85" s="2" t="s">
@@ -18994,7 +19132,7 @@
       <c r="BJ85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BK85" s="24"/>
+      <c r="BK85" s="26"/>
     </row>
     <row r="86" spans="4:63" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="H86" s="8"/>
@@ -19634,12 +19772,12 @@
       </c>
     </row>
     <row r="101" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
       <c r="AW101" s="17"/>
       <c r="BC101" s="19"/>
     </row>
@@ -20015,15 +20153,15 @@
       <c r="AW125" s="17"/>
     </row>
     <row r="126" spans="4:49" ht="21" x14ac:dyDescent="0.4">
-      <c r="I126" s="27" t="s">
+      <c r="I126" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="34"/>
       <c r="AW126" s="17"/>
     </row>
     <row r="127" spans="4:49" x14ac:dyDescent="0.3">
@@ -20555,15 +20693,15 @@
       </c>
     </row>
     <row r="152" spans="7:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="I152" s="27" t="s">
+      <c r="I152" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="27"/>
-      <c r="M152" s="27"/>
-      <c r="N152" s="27"/>
-      <c r="O152" s="27"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="34"/>
+      <c r="L152" s="34"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="34"/>
+      <c r="O152" s="34"/>
     </row>
     <row r="154" spans="7:15" x14ac:dyDescent="0.3">
       <c r="J154" s="2" t="s">
@@ -20736,11 +20874,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AN26:AU26"/>
-    <mergeCell ref="AN28:AU28"/>
-    <mergeCell ref="AY28:BE28"/>
-    <mergeCell ref="AZ56:BG56"/>
+  <mergeCells count="16">
+    <mergeCell ref="BB82:BH82"/>
+    <mergeCell ref="BA78:BB78"/>
     <mergeCell ref="I152:O152"/>
     <mergeCell ref="K28:Q28"/>
     <mergeCell ref="I126:O126"/>
@@ -20750,8 +20886,11 @@
     <mergeCell ref="H57:O57"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="BB82:BH82"/>
-    <mergeCell ref="BA78:BB78"/>
+    <mergeCell ref="BA3:BI4"/>
+    <mergeCell ref="AN26:AU26"/>
+    <mergeCell ref="AN28:AU28"/>
+    <mergeCell ref="AY28:BE28"/>
+    <mergeCell ref="AZ56:BG56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>I2 [A]</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>in data sheet</t>
+  </si>
+  <si>
+    <t>Shuntresistor</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I [A]</t>
   </si>
 </sst>
 </file>
@@ -588,6 +603,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,12 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,7 +1596,7 @@
             <c:numRef>
               <c:f>Sheet1!$BD$86:$BD$100</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.74</c:v>
@@ -1725,7 +1740,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2033,61 +2048,61 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>4.3367175513452018E-2</c:v>
+                  <c:v>4.6098274336908933E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0567484610800224E-2</c:v>
+                  <c:v>4.2773446147608821E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8661421667244844E-2</c:v>
+                  <c:v>4.0513552239246242E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7409344057481218E-2</c:v>
+                  <c:v>3.9009332244661674E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.672411892432656E-2</c:v>
+                  <c:v>3.8191881177285149E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6563546347673608E-2</c:v>
+                  <c:v>3.7905183058035037E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6199354307522448E-2</c:v>
+                  <c:v>3.7447999329105225E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5774613114320529E-2</c:v>
+                  <c:v>3.6928219413241654E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5517279260957428E-2</c:v>
+                  <c:v>3.6608962828815789E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5290315720430704E-2</c:v>
+                  <c:v>3.63045912899655E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5337423311972087E-2</c:v>
+                  <c:v>3.629235297052346E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5033341346503218E-2</c:v>
+                  <c:v>3.592771449012206E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4840543186105813E-2</c:v>
+                  <c:v>3.5703904247261851E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4709830709454076E-2</c:v>
+                  <c:v>3.5528458792224216E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4638816877558189E-2</c:v>
+                  <c:v>3.5427503721058108E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4480368037888183E-2</c:v>
+                  <c:v>3.5232051299873592E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4317957598693286E-2</c:v>
+                  <c:v>3.5051454292942895E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4189763321357508E-2</c:v>
+                  <c:v>3.4885450907656108E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3994873740416764E-2</c:v>
+                  <c:v>3.4648082953106625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,6 +2246,426 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="410034472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BK$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rm [ohm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BI$8:$BI$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BH$8:$BH$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C4C-478A-9A6E-FF6343DAC6DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285391928"/>
+        <c:axId val="285392256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285391928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285392256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285392256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285391928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4793,6 +5228,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rm [ohm]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43462489063867016"/>
+          <c:y val="2.7624309392265192E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8239,6 +8707,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9592,6 +10100,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14682,6 +15706,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69279B9-A8F8-433A-8014-5B4EB4E4857C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14984,8 +16044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CL172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BX78" sqref="BX78:CK90"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15001,10 +16061,11 @@
     <col min="53" max="53" width="11.5546875" customWidth="1"/>
     <col min="54" max="54" width="10.44140625" customWidth="1"/>
     <col min="59" max="59" width="10.109375" customWidth="1"/>
+    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="BA3" s="28" t="s">
         <v>66</v>
       </c>
@@ -15016,8 +16077,11 @@
       <c r="BG3" s="29"/>
       <c r="BH3" s="29"/>
       <c r="BI3" s="30"/>
+      <c r="CA3" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="BA4" s="31"/>
       <c r="BB4" s="32"/>
       <c r="BC4" s="32"/>
@@ -15027,11 +16091,30 @@
       <c r="BG4" s="32"/>
       <c r="BH4" s="32"/>
       <c r="BI4" s="33"/>
+      <c r="CA4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="AW5" s="17"/>
+      <c r="CA5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="CB5">
+        <v>0.73</v>
+      </c>
+      <c r="CC5">
+        <f>CA5/CB5</f>
+        <v>7.8082191780821916E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -15048,8 +16131,60 @@
         <v>23</v>
       </c>
       <c r="AW6" s="17"/>
+      <c r="BC6">
+        <v>0.5</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1.5</v>
+      </c>
+      <c r="BF6">
+        <v>2</v>
+      </c>
+      <c r="BG6">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="BH6">
+        <v>2.98</v>
+      </c>
+      <c r="BI6">
+        <v>3.5</v>
+      </c>
+      <c r="BJ6">
+        <v>3.99</v>
+      </c>
+      <c r="BK6">
+        <v>4.5</v>
+      </c>
+      <c r="BL6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="BM6">
+        <v>5.54</v>
+      </c>
+      <c r="BN6">
+        <v>6.02</v>
+      </c>
+      <c r="BO6">
+        <v>6.51</v>
+      </c>
+      <c r="BP6">
+        <v>7.01</v>
+      </c>
+      <c r="CA6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="CB6">
+        <v>0.82</v>
+      </c>
+      <c r="CC6">
+        <f t="shared" ref="CA6:CC15" si="0">CA6/CB6</f>
+        <v>7.926829268292683E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -15068,8 +16203,27 @@
         <v>1.44</v>
       </c>
       <c r="AW7" s="24"/>
+      <c r="BH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="BZ7">
+        <v>0.87</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" si="0"/>
+        <v>7.8160919540229898E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15084,15 +16238,35 @@
         <v>1.46</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F20" si="0">E8/A8</f>
+        <f t="shared" ref="F8:F20" si="1">E8/A8</f>
         <v>1.46</v>
       </c>
       <c r="AW8" s="17"/>
       <c r="AY8" t="s">
         <v>59</v>
       </c>
+      <c r="BH8">
+        <v>0.5</v>
+      </c>
+      <c r="BI8">
+        <v>0.33</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>BH8/BI8</f>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="BY8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="BZ8">
+        <v>0.91</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" si="0"/>
+        <v>7.8021978021978008E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
@@ -15103,7 +16277,7 @@
         <v>1.98</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E20" si="1">AVERAGE(B9,C9)</f>
+        <f t="shared" ref="E9:E20" si="2">AVERAGE(B9,C9)</f>
         <v>2.1749999999999998</v>
       </c>
       <c r="F9">
@@ -15115,10 +16289,30 @@
         <v>44</v>
       </c>
       <c r="AZ9">
-        <v>1.02</v>
+        <v>0.82</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>0.71</v>
+      </c>
+      <c r="BK9" s="1">
+        <f t="shared" ref="BK9:BK21" si="3">BH9/BI9</f>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="BY9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="BZ9">
+        <v>0.94</v>
+      </c>
+      <c r="CA9">
+        <f t="shared" si="0"/>
+        <v>7.7659574468085107E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -15129,11 +16323,11 @@
         <v>2.62</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
         <v>1.3725000000000001</v>
       </c>
       <c r="AW10" s="17"/>
@@ -15141,10 +16335,30 @@
         <v>60</v>
       </c>
       <c r="AZ10" s="25">
-        <v>1.4200000000000001E-4</v>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="BH10">
+        <v>1.5</v>
+      </c>
+      <c r="BI10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="BK10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3274336283185841</v>
+      </c>
+      <c r="BY10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BZ10">
+        <v>0.96</v>
+      </c>
+      <c r="CA10">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -15155,11 +16369,11 @@
         <v>2.96</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>3.08</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>3.08</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
         <v>1.232</v>
       </c>
       <c r="AW11" s="17"/>
@@ -15168,10 +16382,30 @@
       </c>
       <c r="AZ11" s="4">
         <f>BG50</f>
-        <v>3.5510759501759206E-2</v>
+        <v>3.656509972088972E-2</v>
+      </c>
+      <c r="BH11">
+        <v>2</v>
+      </c>
+      <c r="BI11">
+        <v>1.67</v>
+      </c>
+      <c r="BK11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1976047904191618</v>
+      </c>
+      <c r="BY11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <f t="shared" si="0"/>
+        <v>7.8E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -15182,11 +16416,11 @@
         <v>3.08</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>3.1150000000000002</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
         <v>1.0383333333333333</v>
       </c>
       <c r="AW12" s="17"/>
@@ -15197,8 +16431,28 @@
         <f>BC78</f>
         <v>2.9286558050189863E-2</v>
       </c>
+      <c r="BH12">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="BI12">
+        <v>2.34</v>
+      </c>
+      <c r="BK12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0641025641025643</v>
+      </c>
+      <c r="BY12">
+        <v>0.08</v>
+      </c>
+      <c r="BZ12">
+        <v>1.03</v>
+      </c>
+      <c r="CA12">
+        <f t="shared" si="0"/>
+        <v>7.7669902912621352E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.5</v>
       </c>
@@ -15209,11 +16463,11 @@
         <v>3.25</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="AW13" s="17"/>
@@ -15223,8 +16477,28 @@
       <c r="BA13" t="s">
         <v>67</v>
       </c>
+      <c r="BH13">
+        <v>2.98</v>
+      </c>
+      <c r="BI13">
+        <v>2.94</v>
+      </c>
+      <c r="BK13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0136054421768708</v>
+      </c>
+      <c r="BY13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="BZ13">
+        <v>1.05</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="0"/>
+        <v>7.9047619047619047E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -15235,11 +16509,11 @@
         <v>3.62</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
         <v>0.91874999999999996</v>
       </c>
       <c r="AW14" s="17"/>
@@ -15250,8 +16524,28 @@
         <f>BI102</f>
         <v>1.5999400748723083E-4</v>
       </c>
+      <c r="BH14">
+        <v>3.5</v>
+      </c>
+      <c r="BI14">
+        <v>3.75</v>
+      </c>
+      <c r="BK14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="BY14">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="BZ14">
+        <v>1.08</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4.5</v>
       </c>
@@ -15262,17 +16556,37 @@
         <v>3.77</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>3.8449999999999998</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>3.8449999999999998</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
         <v>0.85444444444444434</v>
       </c>
       <c r="AW15" s="17"/>
       <c r="AY15" s="5"/>
+      <c r="BH15">
+        <v>3.99</v>
+      </c>
+      <c r="BI15">
+        <v>4.68</v>
+      </c>
+      <c r="BK15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.85256410256410264</v>
+      </c>
+      <c r="BY15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="BZ15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="0"/>
+        <v>7.7272727272727271E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -15283,15 +16597,29 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>4.34</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>4.34</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
         <v>0.86799999999999999</v>
       </c>
       <c r="AW16" s="17"/>
       <c r="AY16" s="5"/>
+      <c r="BH16">
+        <v>4.5</v>
+      </c>
+      <c r="BI16">
+        <v>5.54</v>
+      </c>
+      <c r="BK16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81227436823104693</v>
+      </c>
+      <c r="CA16" s="13">
+        <f>AVERAGE(CC5:CC15)</f>
+        <v>7.8675242231874373E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -15304,14 +16632,24 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
         <v>0.83636363636363631</v>
       </c>
       <c r="AW17" s="17"/>
+      <c r="BH17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="BI17">
+        <v>6.11</v>
+      </c>
+      <c r="BK17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81505728314238957</v>
+      </c>
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -15324,14 +16662,24 @@
         <v>4.74</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
         <v>0.79083333333333339</v>
       </c>
       <c r="AW18" s="17"/>
+      <c r="BH18">
+        <v>5.54</v>
+      </c>
+      <c r="BI18">
+        <v>6.46</v>
+      </c>
+      <c r="BK18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.85758513931888547</v>
+      </c>
     </row>
     <row r="19" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -15344,14 +16692,24 @@
         <v>5.14</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
         <v>0.7846153846153846</v>
       </c>
       <c r="AW19" s="17"/>
+      <c r="BH19">
+        <v>6.02</v>
+      </c>
+      <c r="BI19">
+        <v>7.4</v>
+      </c>
+      <c r="BK19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81351351351351342</v>
+      </c>
     </row>
     <row r="20" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -15364,14 +16722,24 @@
         <v>5.4</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
-        <v>5.5250000000000004</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
         <v>0.78928571428571437</v>
       </c>
       <c r="AW20" s="17"/>
+      <c r="BH20">
+        <v>6.51</v>
+      </c>
+      <c r="BI20">
+        <v>8.26</v>
+      </c>
+      <c r="BK20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.78813559322033899</v>
+      </c>
     </row>
     <row r="21" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -15392,6 +16760,16 @@
         <v>0.77399999999999991</v>
       </c>
       <c r="AW21" s="17"/>
+      <c r="BH21">
+        <v>7.01</v>
+      </c>
+      <c r="BI21">
+        <v>9.14</v>
+      </c>
+      <c r="BK21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.76695842450765861</v>
+      </c>
     </row>
     <row r="22" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -15534,16 +16912,16 @@
       <c r="AW29" s="17"/>
     </row>
     <row r="30" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="L30" s="40" t="s">
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="L30" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
       <c r="AN30" s="2" t="s">
         <v>57</v>
       </c>
@@ -15646,11 +17024,11 @@
         <v>930</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" ref="AR31:AR39" si="2">(AQ31*2*PI())/60*(12/40)^3</f>
+        <f t="shared" ref="AR31:AR39" si="4">(AQ31*2*PI())/60*(12/40)^3</f>
         <v>2.6295130510546567</v>
       </c>
       <c r="AU31" s="10">
-        <f t="shared" ref="AU31:AU39" si="3">(AP31-6.39*AO31)/AR31</f>
+        <f t="shared" ref="AU31:AU39" si="5">(AP31-6.39*AO31)/AR31</f>
         <v>-4.0238628957388922</v>
       </c>
       <c r="AW31" s="17"/>
@@ -15676,7 +17054,7 @@
       </c>
       <c r="BG31" s="10">
         <f>(AZ31-$AZ$9*BA31)/BE31</f>
-        <v>4.3367175513452018E-2</v>
+        <v>4.6098274336908933E-2</v>
       </c>
       <c r="BS31" s="10"/>
       <c r="BT31" s="10"/>
@@ -15773,11 +17151,11 @@
         <v>1210</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4211943997592846</v>
       </c>
       <c r="AU32" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.0562133507337896</v>
       </c>
       <c r="AW32" s="17"/>
@@ -15796,12 +17174,12 @@
         <v>645</v>
       </c>
       <c r="BE32" s="1">
-        <f t="shared" ref="BE32:BE49" si="4">(BD32*2*PI())/60</f>
+        <f t="shared" ref="BE32:BE49" si="6">(BD32*2*PI())/60</f>
         <v>67.54424205218055</v>
       </c>
       <c r="BG32" s="10">
-        <f t="shared" ref="BG32:BG49" si="5">(AZ32-$AZ$9*BA32)/BE32</f>
-        <v>4.0567484610800224E-2</v>
+        <f t="shared" ref="BG32:BG49" si="7">(AZ32-$AZ$9*BA32)/BE32</f>
+        <v>4.2773446147608821E-2</v>
       </c>
       <c r="BS32" s="10"/>
     </row>
@@ -15816,30 +17194,30 @@
         <v>2.8</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" ref="I33:I51" si="6">H33/0.033</f>
+        <f t="shared" ref="I33:I51" si="8">H33/0.033</f>
         <v>84.848484848484844</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ref="J33:J51" si="7">(I33*2*PI())/60</f>
+        <f t="shared" ref="J33:J51" si="9">(I33*2*PI())/60</f>
         <v>8.885312555607495</v>
       </c>
       <c r="L33">
         <v>21</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33:M51" si="8">L33/0.1</f>
+        <f t="shared" ref="M33:M51" si="10">L33/0.1</f>
         <v>210</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" ref="N33:N51" si="9">(M33*2*PI())/60</f>
+        <f t="shared" ref="N33:N51" si="11">(M33*2*PI())/60</f>
         <v>21.991148575128552</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" ref="P33:P51" si="10">(E33+0.8*F33)/J33</f>
+        <f t="shared" ref="P33:P51" si="12">(E33+0.8*F33)/J33</f>
         <v>0.63115393689339694</v>
       </c>
       <c r="Q33" s="10">
-        <f t="shared" ref="Q33:Q51" si="11">(E33+6.39*F33)/N33</f>
+        <f t="shared" ref="Q33:Q51" si="13">(E33+6.39*F33)/N33</f>
         <v>0.44819850888313068</v>
       </c>
       <c r="AB33" s="17"/>
@@ -15857,11 +17235,11 @@
         <v>722</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" ref="AH33:AH51" si="12">(AG33*2*PI())/60</f>
+        <f t="shared" ref="AH33:AH51" si="14">(AG33*2*PI())/60</f>
         <v>75.607663196394341</v>
       </c>
       <c r="AK33" s="10">
-        <f t="shared" ref="AK33:AK51" si="13">(AC33-6.39*AD33)/AH33</f>
+        <f t="shared" ref="AK33:AK51" si="15">(AC33-6.39*AD33)/AH33</f>
         <v>-4.7138078989987378E-3</v>
       </c>
       <c r="AN33">
@@ -15877,11 +17255,11 @@
         <v>1500</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2411500823462207</v>
       </c>
       <c r="AU33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.3802270148420357</v>
       </c>
       <c r="AW33" s="17"/>
@@ -15900,12 +17278,12 @@
         <v>794</v>
       </c>
       <c r="BE33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>83.147485565009859</v>
       </c>
       <c r="BG33" s="10">
-        <f t="shared" si="5"/>
-        <v>3.8661421667244844E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.0513552239246242E-2</v>
       </c>
       <c r="BS33" s="10"/>
     </row>
@@ -15920,7 +17298,7 @@
         <v>3.2</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96.969696969696969</v>
       </c>
       <c r="J34" s="1">
@@ -15931,19 +17309,19 @@
         <v>24</v>
       </c>
       <c r="M34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25.132741228718341</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.60307388923738714</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.41715306359101234</v>
       </c>
       <c r="AB34" s="17"/>
@@ -15961,11 +17339,11 @@
         <v>856</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89.640110382428759</v>
       </c>
       <c r="AK34" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7626038090084274E-4</v>
       </c>
       <c r="AN34">
@@ -15981,11 +17359,11 @@
         <v>1770</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.00455709716854</v>
       </c>
       <c r="AU34" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.9450072825639673</v>
       </c>
       <c r="AW34" s="17"/>
@@ -16002,16 +17380,16 @@
         <v>94.3</v>
       </c>
       <c r="BD34">
-        <f t="shared" ref="BD34:BD49" si="14">BC34/0.1</f>
+        <f t="shared" ref="BD34:BD49" si="16">BC34/0.1</f>
         <v>942.99999999999989</v>
       </c>
       <c r="BE34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>98.750729077839154</v>
       </c>
       <c r="BG34" s="10">
-        <f t="shared" si="5"/>
-        <v>3.7409344057481218E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.9009332244661674E-2</v>
       </c>
       <c r="BS34" s="10"/>
     </row>
@@ -16026,30 +17404,30 @@
         <v>3.7</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>112.12121212121212</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.741305877052762</v>
       </c>
       <c r="L35">
         <v>27</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28.274333882308138</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.56484347392410561</v>
       </c>
       <c r="Q35" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.39074660594968197</v>
       </c>
       <c r="AB35" s="16" t="s">
@@ -16065,15 +17443,15 @@
         <v>112</v>
       </c>
       <c r="AG35">
-        <f t="shared" ref="AG35:AG51" si="15">AF35/0.1</f>
+        <f t="shared" ref="AG35:AG51" si="17">AF35/0.1</f>
         <v>1120</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>117.28612573401894</v>
       </c>
       <c r="AK35" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.8529706491014751E-3</v>
       </c>
       <c r="AN35">
@@ -16089,11 +17467,11 @@
         <v>2110</v>
       </c>
       <c r="AR35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9658844491670173</v>
       </c>
       <c r="AU35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.5710830606698529</v>
       </c>
       <c r="AW35" s="17"/>
@@ -16108,16 +17486,16 @@
         <v>108</v>
       </c>
       <c r="BD35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1080</v>
       </c>
       <c r="BE35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>113.09733552923255</v>
       </c>
       <c r="BG35" s="10">
-        <f t="shared" si="5"/>
-        <v>3.672411892432656E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.8191881177285149E-2</v>
       </c>
       <c r="BS35" s="10"/>
     </row>
@@ -16132,30 +17510,30 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>124.24242424242422</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.010636242139546</v>
       </c>
       <c r="L36">
         <v>30</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31.415926535897931</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.54970409339673332</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.37267244009568939</v>
       </c>
       <c r="AB36" s="17"/>
@@ -16169,15 +17547,15 @@
         <v>127</v>
       </c>
       <c r="AG36">
+        <f t="shared" si="17"/>
+        <v>1270</v>
+      </c>
+      <c r="AH36" s="1">
+        <f t="shared" si="14"/>
+        <v>132.99408900196789</v>
+      </c>
+      <c r="AK36" s="10">
         <f t="shared" si="15"/>
-        <v>1270</v>
-      </c>
-      <c r="AH36" s="1">
-        <f t="shared" si="12"/>
-        <v>132.99408900196789</v>
-      </c>
-      <c r="AK36" s="10">
-        <f t="shared" si="13"/>
         <v>6.196515996946342E-3</v>
       </c>
       <c r="AN36">
@@ -16193,11 +17571,11 @@
         <v>2550</v>
       </c>
       <c r="AR36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.2099551399885753</v>
       </c>
       <c r="AU36" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.2221851355394093</v>
       </c>
       <c r="AW36" s="17"/>
@@ -16212,16 +17590,16 @@
         <v>121</v>
       </c>
       <c r="BD36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1210</v>
       </c>
       <c r="BE36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>126.71090369478833</v>
       </c>
       <c r="BG36" s="10">
-        <f t="shared" si="5"/>
-        <v>3.6563546347673608E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.7905183058035037E-2</v>
       </c>
       <c r="BS36" s="10"/>
     </row>
@@ -16236,30 +17614,30 @@
         <v>4.7</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>142.42424242424244</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.914631789769725</v>
       </c>
       <c r="L37">
         <v>33</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34.557519189487721</v>
       </c>
       <c r="P37" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.51385780809264803</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35603539514904597</v>
       </c>
       <c r="AB37" s="17"/>
@@ -16273,15 +17651,15 @@
         <v>140</v>
       </c>
       <c r="AG37">
+        <f t="shared" si="17"/>
+        <v>1400</v>
+      </c>
+      <c r="AH37" s="1">
+        <f t="shared" si="14"/>
+        <v>146.60765716752366</v>
+      </c>
+      <c r="AK37" s="10">
         <f t="shared" si="15"/>
-        <v>1400</v>
-      </c>
-      <c r="AH37" s="1">
-        <f t="shared" si="12"/>
-        <v>146.60765716752366</v>
-      </c>
-      <c r="AK37" s="10">
-        <f t="shared" si="13"/>
         <v>8.1598739323214802E-3</v>
       </c>
       <c r="AN37">
@@ -16297,11 +17675,11 @@
         <v>3024</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5501585660099817</v>
       </c>
       <c r="AU37" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.96922179115412688</v>
       </c>
       <c r="AW37" s="17"/>
@@ -16316,16 +17694,16 @@
         <v>134.6</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1345.9999999999998</v>
       </c>
       <c r="BE37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>140.95279039106202</v>
       </c>
       <c r="BG37" s="10">
-        <f t="shared" si="5"/>
-        <v>3.6199354307522448E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.7447999329105225E-2</v>
       </c>
       <c r="BS37" s="10"/>
     </row>
@@ -16340,30 +17718,30 @@
         <v>5</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>151.5151515151515</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.866629563584812</v>
       </c>
       <c r="L38">
         <v>35.5</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37.175513067479216</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.51554742405871479</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34784994026921318</v>
       </c>
       <c r="AB38" s="17"/>
@@ -16377,15 +17755,15 @@
         <v>154.5</v>
       </c>
       <c r="AG38">
+        <f t="shared" si="17"/>
+        <v>1545</v>
+      </c>
+      <c r="AH38" s="1">
+        <f t="shared" si="14"/>
+        <v>161.79202165987437</v>
+      </c>
+      <c r="AK38" s="10">
         <f t="shared" si="15"/>
-        <v>1545</v>
-      </c>
-      <c r="AH38" s="1">
-        <f t="shared" si="12"/>
-        <v>161.79202165987437</v>
-      </c>
-      <c r="AK38" s="10">
-        <f t="shared" si="13"/>
         <v>9.6945447860053539E-3</v>
       </c>
       <c r="AN38">
@@ -16401,11 +17779,11 @@
         <v>3230</v>
       </c>
       <c r="AR38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.132609843985529</v>
       </c>
       <c r="AU38" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.82437552119432578</v>
       </c>
       <c r="AW38" s="17"/>
@@ -16420,16 +17798,16 @@
         <v>149</v>
       </c>
       <c r="BD38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1490</v>
       </c>
       <c r="BE38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>156.03243512829306</v>
       </c>
       <c r="BG38" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5774613114320529E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6928219413241654E-2</v>
       </c>
       <c r="BS38" s="10"/>
     </row>
@@ -16444,30 +17822,30 @@
         <v>5.4</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>163.63636363636363</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ref="J39:J46" si="16">(I39*2*PI())/60</f>
+        <f t="shared" ref="J39:J46" si="18">(I39*2*PI())/60</f>
         <v>17.135959928671596</v>
       </c>
       <c r="L39">
         <v>38.5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>385</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40.317105721069012</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.50747084121327812</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.3363163043946914</v>
       </c>
       <c r="AB39" s="17"/>
@@ -16481,15 +17859,15 @@
         <v>169.5</v>
       </c>
       <c r="AG39">
+        <f t="shared" si="17"/>
+        <v>1695</v>
+      </c>
+      <c r="AH39" s="1">
+        <f t="shared" si="14"/>
+        <v>177.49998492782331</v>
+      </c>
+      <c r="AK39" s="10">
         <f t="shared" si="15"/>
-        <v>1695</v>
-      </c>
-      <c r="AH39" s="1">
-        <f t="shared" si="12"/>
-        <v>177.49998492782331</v>
-      </c>
-      <c r="AK39" s="10">
-        <f t="shared" si="13"/>
         <v>1.111352207045053E-2</v>
       </c>
       <c r="AN39">
@@ -16505,11 +17883,11 @@
         <v>3280</v>
       </c>
       <c r="AR39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.2739815133970698</v>
       </c>
       <c r="AU39" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.81869906566363415</v>
       </c>
       <c r="AW39" s="17"/>
@@ -16524,16 +17902,16 @@
         <v>162.69999999999999</v>
       </c>
       <c r="BD39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1626.9999999999998</v>
       </c>
       <c r="BE39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170.37904157968643</v>
       </c>
       <c r="BG39" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5517279260957428E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6608962828815789E-2</v>
       </c>
       <c r="BS39" s="10"/>
     </row>
@@ -16548,30 +17926,30 @@
         <v>5.85</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>177.27272727272725</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18.56395658939423</v>
       </c>
       <c r="L40">
         <v>41</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:M46" si="17">L40/0.1</f>
+        <f t="shared" ref="M40:M46" si="19">L40/0.1</f>
         <v>410</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40:N46" si="18">(M40*2*PI())/60</f>
+        <f t="shared" ref="N40:N46" si="20">(M40*2*PI())/60</f>
         <v>42.935099599060507</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.49623042133501355</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.33043128192278465</v>
       </c>
       <c r="AB40" s="17"/>
@@ -16585,15 +17963,15 @@
         <v>180</v>
       </c>
       <c r="AG40">
+        <f t="shared" si="17"/>
+        <v>1800</v>
+      </c>
+      <c r="AH40" s="1">
+        <f t="shared" si="14"/>
+        <v>188.49555921538757</v>
+      </c>
+      <c r="AK40" s="10">
         <f t="shared" si="15"/>
-        <v>1800</v>
-      </c>
-      <c r="AH40" s="1">
-        <f t="shared" si="12"/>
-        <v>188.49555921538757</v>
-      </c>
-      <c r="AK40" s="10">
-        <f t="shared" si="13"/>
         <v>1.2609315624693897E-2</v>
       </c>
       <c r="AT40" t="s">
@@ -16615,16 +17993,16 @@
         <v>177</v>
       </c>
       <c r="BD40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1770</v>
       </c>
       <c r="BE40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185.35396656179779</v>
       </c>
       <c r="BG40" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5290315720430704E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.63045912899655E-2</v>
       </c>
       <c r="BS40" s="10"/>
     </row>
@@ -16639,30 +18017,30 @@
         <v>6.3</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190.90909090909091</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.991953250116865</v>
       </c>
       <c r="L41">
         <v>43.5</v>
       </c>
       <c r="M41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>435</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45.553093477052002</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4861956147252986</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.32381994007566178</v>
       </c>
       <c r="AB41" s="17"/>
@@ -16676,15 +18054,15 @@
         <v>193</v>
       </c>
       <c r="AG41">
+        <f t="shared" si="17"/>
+        <v>1930</v>
+      </c>
+      <c r="AH41" s="1">
+        <f t="shared" si="14"/>
+        <v>202.10912738094336</v>
+      </c>
+      <c r="AK41" s="10">
         <f t="shared" si="15"/>
-        <v>1930</v>
-      </c>
-      <c r="AH41" s="1">
-        <f t="shared" si="12"/>
-        <v>202.10912738094336</v>
-      </c>
-      <c r="AK41" s="10">
-        <f t="shared" si="13"/>
         <v>1.3601562856775763E-2</v>
       </c>
       <c r="AW41" s="17"/>
@@ -16699,16 +18077,16 @@
         <v>190</v>
       </c>
       <c r="BD41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1900</v>
       </c>
       <c r="BE41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.96753472735358</v>
       </c>
       <c r="BG41" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5337423311972087E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.629235297052346E-2</v>
       </c>
       <c r="BS41" s="10"/>
     </row>
@@ -16723,30 +18101,30 @@
         <v>6.8</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>206.06060606060603</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21.578616206475342</v>
       </c>
       <c r="L42">
         <v>47</v>
       </c>
       <c r="M42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>470</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>49.218284906240093</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4743584992687514</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31246111133893278</v>
       </c>
       <c r="AB42" s="17"/>
@@ -16760,15 +18138,15 @@
         <v>217</v>
       </c>
       <c r="AG42">
+        <f t="shared" si="17"/>
+        <v>2170</v>
+      </c>
+      <c r="AH42" s="1">
+        <f t="shared" si="14"/>
+        <v>227.24186860966171</v>
+      </c>
+      <c r="AK42" s="10">
         <f t="shared" si="15"/>
-        <v>2170</v>
-      </c>
-      <c r="AH42" s="1">
-        <f t="shared" si="12"/>
-        <v>227.24186860966171</v>
-      </c>
-      <c r="AK42" s="10">
-        <f t="shared" si="13"/>
         <v>1.6547126737718292E-2</v>
       </c>
       <c r="AW42" s="17"/>
@@ -16783,16 +18161,16 @@
         <v>205</v>
       </c>
       <c r="BD42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2050</v>
       </c>
       <c r="BE42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>214.67549799530252</v>
       </c>
       <c r="BG42" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5033341346503218E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.592771449012206E-2</v>
       </c>
       <c r="BS42" s="10"/>
     </row>
@@ -16807,30 +18185,30 @@
         <v>7.3</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>221.21212121212119</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23.165279162833826</v>
       </c>
       <c r="L43">
         <v>49</v>
       </c>
       <c r="M43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>490</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51.312680008633286</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.46379756205302203</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31069708300789711</v>
       </c>
       <c r="AB43" s="17"/>
@@ -16844,15 +18222,15 @@
         <v>229</v>
       </c>
       <c r="AG43">
+        <f t="shared" si="17"/>
+        <v>2290</v>
+      </c>
+      <c r="AH43" s="1">
+        <f t="shared" si="14"/>
+        <v>239.80823922402087</v>
+      </c>
+      <c r="AK43" s="10">
         <f t="shared" si="15"/>
-        <v>2290</v>
-      </c>
-      <c r="AH43" s="1">
-        <f t="shared" si="12"/>
-        <v>239.80823922402087</v>
-      </c>
-      <c r="AK43" s="10">
-        <f t="shared" si="13"/>
         <v>1.7232101838417863E-2</v>
       </c>
       <c r="AW43" s="17"/>
@@ -16867,16 +18245,16 @@
         <v>219</v>
       </c>
       <c r="BD43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2190</v>
       </c>
       <c r="BE43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>229.33626371205489</v>
       </c>
       <c r="BG43" s="10">
-        <f t="shared" si="5"/>
-        <v>3.4840543186105813E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.5703904247261851E-2</v>
       </c>
       <c r="BS43" s="10"/>
     </row>
@@ -16891,30 +18269,30 @@
         <v>7.7</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>233.33333333333331</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24.43460952792061</v>
       </c>
       <c r="L44">
         <v>52</v>
       </c>
       <c r="M44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>520</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>54.454272662223076</v>
       </c>
       <c r="P44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.46082176951236214</v>
       </c>
       <c r="Q44" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.30430119051972138</v>
       </c>
       <c r="AB44" s="17"/>
@@ -16928,15 +18306,15 @@
         <v>246.5</v>
       </c>
       <c r="AG44">
+        <f t="shared" si="17"/>
+        <v>2465</v>
+      </c>
+      <c r="AH44" s="1">
+        <f t="shared" si="14"/>
+        <v>258.13419636996133</v>
+      </c>
+      <c r="AK44" s="10">
         <f t="shared" si="15"/>
-        <v>2465</v>
-      </c>
-      <c r="AH44" s="1">
-        <f t="shared" si="12"/>
-        <v>258.13419636996133</v>
-      </c>
-      <c r="AK44" s="10">
-        <f t="shared" si="13"/>
         <v>1.7574385973635809E-2</v>
       </c>
       <c r="AW44" s="17"/>
@@ -16951,16 +18329,16 @@
         <v>233.3</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2333</v>
       </c>
       <c r="BE44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>244.31118869416622</v>
       </c>
       <c r="BG44" s="10">
-        <f t="shared" si="5"/>
-        <v>3.4709830709454076E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.5528458792224216E-2</v>
       </c>
       <c r="BS44" s="10"/>
     </row>
@@ -16975,30 +18353,30 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>251.51515151515153</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26.338605075550792</v>
       </c>
       <c r="L45">
         <v>56</v>
       </c>
       <c r="M45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>560</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>58.643062867009469</v>
       </c>
       <c r="P45" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4471003671690742</v>
       </c>
       <c r="Q45" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.29327083476185828</v>
       </c>
       <c r="AB45" s="17"/>
@@ -17012,15 +18390,15 @@
         <v>255</v>
       </c>
       <c r="AG45">
+        <f t="shared" si="17"/>
+        <v>2550</v>
+      </c>
+      <c r="AH45" s="1">
+        <f t="shared" si="14"/>
+        <v>267.03537555513242</v>
+      </c>
+      <c r="AK45" s="10">
         <f t="shared" si="15"/>
-        <v>2550</v>
-      </c>
-      <c r="AH45" s="1">
-        <f t="shared" si="12"/>
-        <v>267.03537555513242</v>
-      </c>
-      <c r="AK45" s="10">
-        <f t="shared" si="13"/>
         <v>1.8262748858130711E-2</v>
       </c>
       <c r="AW45" s="17"/>
@@ -17035,16 +18413,16 @@
         <v>247</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2470</v>
       </c>
       <c r="BE45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>258.65779514555965</v>
       </c>
       <c r="BG45" s="10">
-        <f t="shared" si="5"/>
-        <v>3.4638816877558189E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.5427503721058108E-2</v>
       </c>
       <c r="BS45" s="10"/>
     </row>
@@ -17059,30 +18437,30 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>266.66666666666669</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27.925268031909276</v>
       </c>
       <c r="L46">
         <v>59</v>
       </c>
       <c r="M46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>590</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>61.784655520599266</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4401748261092549</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.28851985739495956</v>
       </c>
       <c r="AB46" s="17"/>
@@ -17096,15 +18474,15 @@
         <v>274</v>
       </c>
       <c r="AG46">
+        <f t="shared" si="17"/>
+        <v>2740</v>
+      </c>
+      <c r="AH46" s="1">
+        <f t="shared" si="14"/>
+        <v>286.93212902786775</v>
+      </c>
+      <c r="AK46" s="10">
         <f t="shared" si="15"/>
-        <v>2740</v>
-      </c>
-      <c r="AH46" s="1">
-        <f t="shared" si="12"/>
-        <v>286.93212902786775</v>
-      </c>
-      <c r="AK46" s="10">
-        <f t="shared" si="13"/>
         <v>1.8404875110682003E-2</v>
       </c>
       <c r="AW46" s="17"/>
@@ -17119,16 +18497,16 @@
         <v>261.7</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2616.9999999999995</v>
       </c>
       <c r="BE46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>274.05159914814959</v>
       </c>
       <c r="BG46" s="10">
-        <f t="shared" si="5"/>
-        <v>3.4480368037888183E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.5232051299873592E-2</v>
       </c>
       <c r="BS46" s="10"/>
     </row>
@@ -17143,30 +18521,30 @@
         <v>9.1</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>275.75757575757575</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28.87726580572436</v>
       </c>
       <c r="L47">
         <v>61.5</v>
       </c>
       <c r="M47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>615</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64.402649398590754</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.44325526128802151</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.28554725887414201</v>
       </c>
       <c r="AB47" s="17"/>
@@ -17180,15 +18558,15 @@
         <v>294</v>
       </c>
       <c r="AG47">
+        <f t="shared" si="17"/>
+        <v>2940</v>
+      </c>
+      <c r="AH47" s="1">
+        <f t="shared" si="14"/>
+        <v>307.8760800517997</v>
+      </c>
+      <c r="AK47" s="10">
         <f t="shared" si="15"/>
-        <v>2940</v>
-      </c>
-      <c r="AH47" s="1">
-        <f t="shared" si="12"/>
-        <v>307.8760800517997</v>
-      </c>
-      <c r="AK47" s="10">
-        <f t="shared" si="13"/>
         <v>1.8257995226697188E-2</v>
       </c>
       <c r="AW47" s="17"/>
@@ -17203,16 +18581,16 @@
         <v>276</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2760</v>
       </c>
       <c r="BE47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>289.02652413026101</v>
       </c>
       <c r="BG47" s="10">
-        <f t="shared" si="5"/>
-        <v>3.4317957598693286E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.5051454292942895E-2</v>
       </c>
       <c r="BS47" s="10"/>
     </row>
@@ -17227,30 +18605,30 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>296.969696969697</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31.098593944626238</v>
       </c>
       <c r="L48">
         <v>66</v>
       </c>
       <c r="M48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>660</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>69.115038378975441</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.42818656122235949</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.27516153424845891</v>
       </c>
       <c r="AB48" s="17"/>
@@ -17264,15 +18642,15 @@
         <v>307</v>
       </c>
       <c r="AG48">
+        <f t="shared" si="17"/>
+        <v>3070</v>
+      </c>
+      <c r="AH48" s="1">
+        <f t="shared" si="14"/>
+        <v>321.48964821735547</v>
+      </c>
+      <c r="AK48" s="10">
         <f t="shared" si="15"/>
-        <v>3070</v>
-      </c>
-      <c r="AH48" s="1">
-        <f t="shared" si="12"/>
-        <v>321.48964821735547</v>
-      </c>
-      <c r="AK48" s="10">
-        <f t="shared" si="13"/>
         <v>1.874197204609938E-2</v>
       </c>
       <c r="AW48" s="17"/>
@@ -17287,16 +18665,16 @@
         <v>291</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2910</v>
       </c>
       <c r="BE48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>304.73448739820992</v>
       </c>
       <c r="BG48" s="10">
-        <f t="shared" si="5"/>
-        <v>3.4189763321357508E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.4885450907656108E-2</v>
       </c>
       <c r="BS48" s="10"/>
     </row>
@@ -17311,30 +18689,30 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>309.09090909090907</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32.367924309713018</v>
       </c>
       <c r="L49">
         <v>68</v>
       </c>
       <c r="M49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>680</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71.209433481368649</v>
       </c>
       <c r="P49" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.42708948117045836</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.27498744257140295</v>
       </c>
       <c r="AB49" s="17"/>
@@ -17348,15 +18726,15 @@
         <v>325</v>
       </c>
       <c r="AG49">
+        <f t="shared" si="17"/>
+        <v>3250</v>
+      </c>
+      <c r="AH49" s="1">
+        <f t="shared" si="14"/>
+        <v>340.33920413889427</v>
+      </c>
+      <c r="AK49" s="10">
         <f t="shared" si="15"/>
-        <v>3250</v>
-      </c>
-      <c r="AH49" s="1">
-        <f t="shared" si="12"/>
-        <v>340.33920413889427</v>
-      </c>
-      <c r="AK49" s="10">
-        <f t="shared" si="13"/>
         <v>1.8891446891249376E-2</v>
       </c>
       <c r="AW49" s="17"/>
@@ -17371,16 +18749,16 @@
         <v>307</v>
       </c>
       <c r="BD49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3070</v>
       </c>
       <c r="BE49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>321.48964821735547</v>
       </c>
       <c r="BG49" s="10">
-        <f t="shared" si="5"/>
-        <v>3.3994873740416764E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.4648082953106625E-2</v>
       </c>
       <c r="BS49" s="10"/>
     </row>
@@ -17395,30 +18773,30 @@
         <v>10.6</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>321.21212121212119</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33.637254674799799</v>
       </c>
       <c r="L50">
         <v>72</v>
       </c>
       <c r="M50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>720</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75.398223686155035</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.42619411538184115</v>
       </c>
       <c r="Q50" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.26761306849865607</v>
       </c>
       <c r="AB50" s="17"/>
@@ -17432,15 +18810,15 @@
         <v>338.5</v>
       </c>
       <c r="AG50">
+        <f t="shared" si="17"/>
+        <v>3385</v>
+      </c>
+      <c r="AH50" s="1">
+        <f t="shared" si="14"/>
+        <v>354.4763710800483</v>
+      </c>
+      <c r="AK50" s="10">
         <f t="shared" si="15"/>
-        <v>3385</v>
-      </c>
-      <c r="AH50" s="1">
-        <f t="shared" si="12"/>
-        <v>354.4763710800483</v>
-      </c>
-      <c r="AK50" s="10">
-        <f t="shared" si="13"/>
         <v>1.9368286746677402E-2</v>
       </c>
       <c r="AW50" s="17"/>
@@ -17449,7 +18827,7 @@
       </c>
       <c r="BG50" s="6">
         <f>AVERAGE(BG33:BG49)</f>
-        <v>3.5510759501759206E-2</v>
+        <v>3.656509972088972E-2</v>
       </c>
     </row>
     <row r="51" spans="4:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17463,30 +18841,30 @@
         <v>11.1</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>336.36363636363632</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35.223917631158287</v>
       </c>
       <c r="L51">
         <v>75</v>
       </c>
       <c r="M51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>750</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>78.539816339744831</v>
       </c>
       <c r="P51" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.42153176019426625</v>
       </c>
       <c r="Q51" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.26449514358601428</v>
       </c>
       <c r="AB51" s="17"/>
@@ -17500,15 +18878,15 @@
         <v>350.5</v>
       </c>
       <c r="AG51">
+        <f t="shared" si="17"/>
+        <v>3505</v>
+      </c>
+      <c r="AH51" s="1">
+        <f t="shared" si="14"/>
+        <v>367.04274169440748</v>
+      </c>
+      <c r="AK51" s="10">
         <f t="shared" si="15"/>
-        <v>3505</v>
-      </c>
-      <c r="AH51" s="1">
-        <f t="shared" si="12"/>
-        <v>367.04274169440748</v>
-      </c>
-      <c r="AK51" s="10">
-        <f t="shared" si="13"/>
         <v>1.9371041005136251E-2</v>
       </c>
       <c r="AW51" s="17"/>
@@ -17653,7 +19031,7 @@
         <v>1</v>
       </c>
       <c r="BB59">
-        <f t="shared" ref="BB59:BB77" si="19">AZ59/(5*1000)</f>
+        <f t="shared" ref="BB59:BB77" si="21">AZ59/(5*1000)</f>
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="BC59" s="4">
@@ -17667,7 +19045,7 @@
         <v>1</v>
       </c>
       <c r="BG59">
-        <f t="shared" ref="BG59:BG77" si="20">BE59/(5*1000)</f>
+        <f t="shared" ref="BG59:BG77" si="22">BE59/(5*1000)</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="BH59" s="4"/>
@@ -17710,7 +19088,7 @@
         <v>1.5</v>
       </c>
       <c r="BB60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.58E-2</v>
       </c>
       <c r="BC60" s="4">
@@ -17724,7 +19102,7 @@
         <v>1.53</v>
       </c>
       <c r="BG60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.1400000000000005E-2</v>
       </c>
       <c r="BH60" s="4"/>
@@ -17738,7 +19116,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:G69" si="21">E61/(5*1000)</f>
+        <f t="shared" ref="G61:G69" si="23">E61/(5*1000)</f>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="H61" s="4">
@@ -17752,11 +19130,11 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L79" si="22">J61/(5*1000)</f>
+        <f t="shared" ref="L61:L79" si="24">J61/(5*1000)</f>
         <v>1.34E-2</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" ref="M61:M79" si="23">L61/K61</f>
+        <f t="shared" ref="M61:M79" si="25">L61/K61</f>
         <v>1.34E-2</v>
       </c>
       <c r="AW61" s="17"/>
@@ -17767,11 +19145,11 @@
         <v>2</v>
       </c>
       <c r="BB61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="BC61" s="4">
-        <f t="shared" ref="BC61:BC77" si="24">BB61/BA61</f>
+        <f t="shared" ref="BC61:BC77" si="26">BB61/BA61</f>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="BE61">
@@ -17781,7 +19159,7 @@
         <v>2</v>
       </c>
       <c r="BG61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.8800000000000004E-2</v>
       </c>
       <c r="BH61" s="4"/>
@@ -17795,7 +19173,7 @@
         <v>1.53</v>
       </c>
       <c r="G62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.26E-2</v>
       </c>
       <c r="H62" s="4">
@@ -17809,11 +19187,11 @@
         <v>1.53</v>
       </c>
       <c r="L62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.54E-2</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0065359477124183E-2</v>
       </c>
       <c r="AW62" s="17"/>
@@ -17824,11 +19202,11 @@
         <v>2.5</v>
       </c>
       <c r="BB62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.1800000000000003E-2</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8720000000000002E-2</v>
       </c>
       <c r="BE62">
@@ -17838,15 +19216,15 @@
         <v>2.5</v>
       </c>
       <c r="BG62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="BH62" s="4">
-        <f t="shared" ref="BH62:BH77" si="25">BG62/BF62</f>
+        <f t="shared" ref="BH62:BH77" si="27">BG62/BF62</f>
         <v>3.7359999999999997E-2</v>
       </c>
       <c r="BJ62" s="4">
-        <f t="shared" ref="BJ62:BJ64" si="26">AVERAGE(BC62,BH62)</f>
+        <f t="shared" ref="BJ62:BJ64" si="28">AVERAGE(BC62,BH62)</f>
         <v>3.304E-2</v>
       </c>
     </row>
@@ -17858,11 +19236,11 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.54E-2</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" ref="H63:H69" si="27">G63/F63</f>
+        <f t="shared" ref="H63:H69" si="29">G63/F63</f>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="J63">
@@ -17872,11 +19250,11 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="AW63" s="17"/>
@@ -17887,11 +19265,11 @@
         <v>3</v>
       </c>
       <c r="BB63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="BC63" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8866666666666665E-2</v>
       </c>
       <c r="BE63">
@@ -17901,15 +19279,15 @@
         <v>3</v>
       </c>
       <c r="BG63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1134</v>
       </c>
       <c r="BH63" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.78E-2</v>
       </c>
       <c r="BJ63" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -17921,11 +19299,11 @@
         <v>2.5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="J64">
@@ -17935,11 +19313,11 @@
         <v>2.5</v>
       </c>
       <c r="L64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.6E-3</v>
       </c>
       <c r="AW64" s="17"/>
@@ -17950,11 +19328,11 @@
         <v>3.5</v>
       </c>
       <c r="BB64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.1016</v>
       </c>
       <c r="BC64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9028571428571428E-2</v>
       </c>
       <c r="BE64">
@@ -17964,15 +19342,15 @@
         <v>3.5</v>
       </c>
       <c r="BG64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.12859999999999999</v>
       </c>
       <c r="BH64" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.674285714285714E-2</v>
       </c>
       <c r="BJ64" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.2885714285714282E-2</v>
       </c>
     </row>
@@ -17984,11 +19362,11 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6000000000000008E-3</v>
       </c>
       <c r="J65">
@@ -17998,11 +19376,11 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.4799999999999999E-2</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.266666666666667E-3</v>
       </c>
       <c r="AW65" s="17"/>
@@ -18013,11 +19391,11 @@
         <v>4</v>
       </c>
       <c r="BB65" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.1164</v>
       </c>
       <c r="BC65" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="BE65">
@@ -18027,15 +19405,15 @@
         <v>4</v>
       </c>
       <c r="BG65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="BH65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6249999999999998E-2</v>
       </c>
       <c r="BJ65" s="4">
-        <f t="shared" ref="BJ65:BJ77" si="28">AVERAGE(BC65,BH65)</f>
+        <f t="shared" ref="BJ65:BJ77" si="30">AVERAGE(BC65,BH65)</f>
         <v>3.2674999999999996E-2</v>
       </c>
     </row>
@@ -18047,11 +19425,11 @@
         <v>3.5</v>
       </c>
       <c r="G66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.2857142857142851E-3</v>
       </c>
       <c r="J66">
@@ -18061,11 +19439,11 @@
         <v>3.5</v>
       </c>
       <c r="L66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.9428571428571421E-3</v>
       </c>
       <c r="O66" t="s">
@@ -18082,11 +19460,11 @@
         <v>4.5</v>
       </c>
       <c r="BB66" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.13139999999999999</v>
       </c>
       <c r="BC66" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9199999999999997E-2</v>
       </c>
       <c r="BE66">
@@ -18096,15 +19474,15 @@
         <v>4.5</v>
       </c>
       <c r="BG66">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.15959999999999999</v>
       </c>
       <c r="BH66" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.5466666666666667E-2</v>
       </c>
       <c r="BJ66" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.2333333333333332E-2</v>
       </c>
     </row>
@@ -18116,11 +19494,11 @@
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.58E-2</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.45E-3</v>
       </c>
       <c r="J67">
@@ -18130,11 +19508,11 @@
         <v>4</v>
       </c>
       <c r="L67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.03</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="O67" s="4">
@@ -18154,11 +19532,11 @@
         <v>5</v>
       </c>
       <c r="BB67" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.14979999999999999</v>
       </c>
       <c r="BC67" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9959999999999997E-2</v>
       </c>
       <c r="BE67">
@@ -18168,15 +19546,15 @@
         <v>5</v>
       </c>
       <c r="BG67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1744</v>
       </c>
       <c r="BH67" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.4880000000000001E-2</v>
       </c>
       <c r="BJ67" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.2419999999999997E-2</v>
       </c>
       <c r="BK67" s="4"/>
@@ -18189,11 +19567,11 @@
         <v>4.5</v>
       </c>
       <c r="G68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.04E-2</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7555555555555554E-3</v>
       </c>
       <c r="J68">
@@ -18203,15 +19581,15 @@
         <v>4.5</v>
       </c>
       <c r="L68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.244444444444444E-3</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" ref="O68:O80" si="29">AVERAGE(H68,M68)</f>
+        <f t="shared" ref="O68:O80" si="31">AVERAGE(H68,M68)</f>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="P68" s="4">
@@ -18227,11 +19605,11 @@
         <v>5.5</v>
       </c>
       <c r="BB68" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.16059999999999999</v>
       </c>
       <c r="BC68" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.92E-2</v>
       </c>
       <c r="BE68">
@@ -18241,15 +19619,15 @@
         <v>5.5</v>
       </c>
       <c r="BG68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.185</v>
       </c>
       <c r="BH68" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.3636363636363638E-2</v>
       </c>
       <c r="BJ68" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1418181818181817E-2</v>
       </c>
       <c r="BK68" s="4"/>
@@ -18262,11 +19640,11 @@
         <v>5</v>
       </c>
       <c r="G69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.5600000000000007E-3</v>
       </c>
       <c r="J69">
@@ -18276,15 +19654,15 @@
         <v>5</v>
       </c>
       <c r="L69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.0800000000000004E-3</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.8200000000000005E-3</v>
       </c>
       <c r="P69" s="4">
@@ -18300,11 +19678,11 @@
         <v>6</v>
       </c>
       <c r="BB69" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18240000000000001</v>
       </c>
       <c r="BC69" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.04E-2</v>
       </c>
       <c r="BE69">
@@ -18314,15 +19692,15 @@
         <v>6</v>
       </c>
       <c r="BG69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.19600000000000001</v>
       </c>
       <c r="BH69" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.266666666666667E-2</v>
       </c>
       <c r="BJ69" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1533333333333337E-2</v>
       </c>
       <c r="BK69" s="4"/>
@@ -18335,11 +19713,11 @@
         <v>5.5</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G80" si="30">E70/(5*1000)</f>
+        <f t="shared" ref="G70:G80" si="32">E70/(5*1000)</f>
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ref="H70:H80" si="31">G70/F70</f>
+        <f t="shared" ref="H70:H80" si="33">G70/F70</f>
         <v>6.1090909090909086E-3</v>
       </c>
       <c r="J70">
@@ -18349,19 +19727,19 @@
         <v>5.5</v>
       </c>
       <c r="L70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.909090909090909E-3</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.5090909090909088E-3</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" ref="P70:P80" si="32">0.0064*F70</f>
+        <f t="shared" ref="P70:P80" si="34">0.0064*F70</f>
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="Q70" s="4"/>
@@ -18373,11 +19751,11 @@
         <v>6.5</v>
       </c>
       <c r="BB70" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18959999999999999</v>
       </c>
       <c r="BC70" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9169230769230767E-2</v>
       </c>
       <c r="BE70">
@@ -18387,15 +19765,15 @@
         <v>6.5</v>
       </c>
       <c r="BG70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.21479999999999999</v>
       </c>
       <c r="BH70" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.3046153846153843E-2</v>
       </c>
       <c r="BJ70" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1107692307692305E-2</v>
       </c>
       <c r="BK70" s="4"/>
@@ -18408,11 +19786,11 @@
         <v>6</v>
       </c>
       <c r="G71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.0333333333333341E-3</v>
       </c>
       <c r="J71">
@@ -18422,19 +19800,19 @@
         <v>6</v>
       </c>
       <c r="L71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.8333333333333336E-3</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.4333333333333343E-3</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.8400000000000004E-2</v>
       </c>
       <c r="Q71" s="4"/>
@@ -18446,11 +19824,11 @@
         <v>7</v>
       </c>
       <c r="BB71" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="BC71" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9285714285714283E-2</v>
       </c>
       <c r="BE71">
@@ -18460,15 +19838,15 @@
         <v>7</v>
       </c>
       <c r="BG71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.22439999999999999</v>
       </c>
       <c r="BH71" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.2057142857142853E-2</v>
       </c>
       <c r="BJ71" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.0671428571428568E-2</v>
       </c>
       <c r="BK71" s="4"/>
@@ -18481,11 +19859,11 @@
         <v>6.5</v>
       </c>
       <c r="G72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.3692307692307694E-3</v>
       </c>
       <c r="J72">
@@ -18495,19 +19873,19 @@
         <v>6.5</v>
       </c>
       <c r="L72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.7384615384615387E-3</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.553846153846154E-3</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.1600000000000005E-2</v>
       </c>
       <c r="Q72" s="4"/>
@@ -18519,11 +19897,11 @@
         <v>7.5</v>
       </c>
       <c r="BB72" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.21920000000000001</v>
       </c>
       <c r="BC72" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9226666666666668E-2</v>
       </c>
       <c r="BE72">
@@ -18533,15 +19911,15 @@
         <v>7.5</v>
       </c>
       <c r="BG72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.23799999999999999</v>
       </c>
       <c r="BH72" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1733333333333329E-2</v>
       </c>
       <c r="BJ72" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.048E-2</v>
       </c>
       <c r="BK72" s="4"/>
@@ -18554,11 +19932,11 @@
         <v>7</v>
       </c>
       <c r="G73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.1714285714285716E-3</v>
       </c>
       <c r="J73">
@@ -18568,19 +19946,19 @@
         <v>7</v>
       </c>
       <c r="L73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.6857142857142862E-3</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.4285714285714293E-3</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.48E-2</v>
       </c>
       <c r="Q73" s="4"/>
@@ -18592,11 +19970,11 @@
         <v>8</v>
       </c>
       <c r="BB73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.23319999999999999</v>
       </c>
       <c r="BC73" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9149999999999999E-2</v>
       </c>
       <c r="BE73">
@@ -18606,15 +19984,15 @@
         <v>8</v>
       </c>
       <c r="BG73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25259999999999999</v>
       </c>
       <c r="BH73" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1574999999999999E-2</v>
       </c>
       <c r="BJ73" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.0362500000000001E-2</v>
       </c>
       <c r="BK73" s="4"/>
@@ -18627,11 +20005,11 @@
         <v>7.5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.48E-2</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.9733333333333331E-3</v>
       </c>
       <c r="J74">
@@ -18641,19 +20019,19 @@
         <v>7.5</v>
       </c>
       <c r="L74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.613333333333333E-3</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.2933333333333331E-3</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q74" s="4"/>
@@ -18665,11 +20043,11 @@
         <v>8.5</v>
       </c>
       <c r="BB74" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.24779999999999999</v>
       </c>
       <c r="BC74" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9152941176470586E-2</v>
       </c>
       <c r="BE74">
@@ -18679,15 +20057,15 @@
         <v>8.5</v>
       </c>
       <c r="BG74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26579999999999998</v>
       </c>
       <c r="BH74" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1270588235294113E-2</v>
       </c>
       <c r="BJ74" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.0211764705882348E-2</v>
       </c>
       <c r="BK74" s="4"/>
@@ -18700,11 +20078,11 @@
         <v>8</v>
       </c>
       <c r="G75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="J75">
@@ -18714,19 +20092,19 @@
         <v>8</v>
       </c>
       <c r="L75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.16E-2</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.45E-3</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="Q75" s="4"/>
@@ -18738,11 +20116,11 @@
         <v>9</v>
       </c>
       <c r="BB75" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.26040000000000002</v>
       </c>
       <c r="BC75" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8933333333333335E-2</v>
       </c>
       <c r="BE75">
@@ -18752,15 +20130,15 @@
         <v>9</v>
       </c>
       <c r="BG75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.2802</v>
       </c>
       <c r="BH75" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1133333333333332E-2</v>
       </c>
       <c r="BJ75" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.0033333333333335E-2</v>
       </c>
       <c r="BK75" s="4"/>
@@ -18773,11 +20151,11 @@
         <v>8.5</v>
       </c>
       <c r="G76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.2400000000000002E-2</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.1647058823529411E-3</v>
       </c>
       <c r="J76">
@@ -18787,19 +20165,19 @@
         <v>8.5</v>
       </c>
       <c r="L76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.3764705882352942E-3</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.2705882352941181E-3</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.4400000000000004E-2</v>
       </c>
       <c r="Q76" s="4"/>
@@ -18811,11 +20189,11 @@
         <v>9.5</v>
       </c>
       <c r="BB76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="BC76" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8947368421052635E-2</v>
       </c>
       <c r="BE76">
@@ -18825,15 +20203,15 @@
         <v>9.5</v>
       </c>
       <c r="BG76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29139999999999999</v>
       </c>
       <c r="BH76" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.0673684210526315E-2</v>
       </c>
       <c r="BJ76" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.9810526315789475E-2</v>
       </c>
       <c r="BK76" s="4"/>
@@ -18846,11 +20224,11 @@
         <v>9</v>
       </c>
       <c r="G77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.5399999999999998E-2</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.1555555555555556E-3</v>
       </c>
       <c r="J77">
@@ -18860,19 +20238,19 @@
         <v>9</v>
       </c>
       <c r="L77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.3111111111111111E-3</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.2333333333333338E-3</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.7600000000000005E-2</v>
       </c>
       <c r="Q77" s="4"/>
@@ -18884,11 +20262,11 @@
         <v>10</v>
       </c>
       <c r="BB77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="BC77" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="BE77">
@@ -18898,15 +20276,15 @@
         <v>10</v>
       </c>
       <c r="BG77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29620000000000002</v>
       </c>
       <c r="BH77" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.962E-2</v>
       </c>
       <c r="BJ77" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.9309999999999999E-2</v>
       </c>
       <c r="BK77" s="4"/>
@@ -18919,11 +20297,11 @@
         <v>9.5</v>
       </c>
       <c r="G78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.9578947368421047E-3</v>
       </c>
       <c r="J78">
@@ -18933,27 +20311,27 @@
         <v>9.5</v>
       </c>
       <c r="L78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.1052631578947369E-3</v>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0315789473684208E-3</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6.08E-2</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="AW78" s="17"/>
-      <c r="BA78" s="43" t="s">
+      <c r="BA78" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="BB78" s="44"/>
+      <c r="BB78" s="37"/>
       <c r="BC78" s="6">
         <f>AVERAGE(BC65:BC77)</f>
         <v>2.9286558050189863E-2</v>
@@ -18979,33 +20357,33 @@
         <v>10</v>
       </c>
       <c r="G79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="H79" s="4">
+        <f t="shared" si="33"/>
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="J79">
+        <v>309</v>
+      </c>
+      <c r="K79">
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="24"/>
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" si="25"/>
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="O79" s="4">
         <f t="shared" si="31"/>
         <v>6.1799999999999997E-3</v>
       </c>
-      <c r="J79">
-        <v>309</v>
-      </c>
-      <c r="K79">
-        <v>10</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="22"/>
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="M79" s="4">
-        <f t="shared" si="23"/>
-        <v>6.1799999999999997E-3</v>
-      </c>
-      <c r="O79" s="4">
-        <f t="shared" si="29"/>
-        <v>6.1799999999999997E-3</v>
-      </c>
       <c r="P79" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q79" s="4"/>
@@ -19020,11 +20398,11 @@
         <v>10.37</v>
       </c>
       <c r="G80">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6.2799999999999995E-2</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="J80">
@@ -19042,11 +20420,11 @@
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0559305689488908E-3</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6.6367999999999996E-2</v>
       </c>
       <c r="Q80" s="4"/>
@@ -19151,22 +20529,22 @@
       <c r="BC86" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BD86">
+      <c r="BD86" s="1">
         <v>0.74</v>
       </c>
       <c r="BE86">
         <v>850</v>
       </c>
       <c r="BF86">
-        <f t="shared" ref="BF86:BF87" si="33">BE86</f>
+        <f t="shared" ref="BF86:BF87" si="35">BE86</f>
         <v>850</v>
       </c>
-      <c r="BG86">
-        <f t="shared" ref="BG86:BG100" si="34">BF86*2*PI()/60</f>
+      <c r="BG86" s="27">
+        <f t="shared" ref="BG86:BG100" si="36">BF86*2*PI()/60</f>
         <v>89.011791851710797</v>
       </c>
       <c r="BI86">
-        <f t="shared" ref="BI86:BI98" si="35">$BA$87*BD86/BG86</f>
+        <f t="shared" ref="BI86:BI98" si="37">$BA$87*BD86/BG86</f>
         <v>2.4347395447611096E-4</v>
       </c>
     </row>
@@ -19198,22 +20576,22 @@
         <v>2.9286558050189863E-2</v>
       </c>
       <c r="BC87" s="17"/>
-      <c r="BD87">
+      <c r="BD87" s="1">
         <v>0.76</v>
       </c>
       <c r="BE87">
         <v>925</v>
       </c>
       <c r="BF87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>925</v>
       </c>
-      <c r="BG87">
-        <f t="shared" si="34"/>
+      <c r="BG87" s="27">
+        <f t="shared" si="36"/>
         <v>96.865773485685295</v>
       </c>
       <c r="BI87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.297796560870236E-4</v>
       </c>
     </row>
@@ -19243,7 +20621,7 @@
       <c r="AW88" s="17"/>
       <c r="AZ88" s="5"/>
       <c r="BC88" s="17"/>
-      <c r="BD88">
+      <c r="BD88" s="1">
         <v>0.78</v>
       </c>
       <c r="BE88">
@@ -19253,16 +20631,16 @@
         <f>BE88/0.1</f>
         <v>1020</v>
       </c>
-      <c r="BG88">
-        <f t="shared" si="34"/>
+      <c r="BG88" s="27">
+        <f t="shared" si="36"/>
         <v>106.81415022205297</v>
       </c>
       <c r="BI88">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.1386225731009746E-4</v>
       </c>
       <c r="BJ88">
-        <f t="shared" ref="BJ88:BJ98" si="36">BI88*BG88</f>
+        <f t="shared" ref="BJ88:BJ98" si="38">BI88*BG88</f>
         <v>2.2843515279148095E-2</v>
       </c>
     </row>
@@ -19277,11 +20655,11 @@
         <v>6</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H96" si="37">0.33*G89</f>
+        <f t="shared" ref="H89:H96" si="39">0.33*G89</f>
         <v>1.98</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I96" si="38">H89/F89</f>
+        <f t="shared" ref="I89:I96" si="40">H89/F89</f>
         <v>0.99</v>
       </c>
       <c r="J89">
@@ -19290,26 +20668,26 @@
       </c>
       <c r="AW89" s="17"/>
       <c r="BC89" s="17"/>
-      <c r="BD89">
+      <c r="BD89" s="1">
         <v>0.8</v>
       </c>
       <c r="BE89">
         <v>111</v>
       </c>
       <c r="BF89">
-        <f t="shared" ref="BF89:BF100" si="39">BE89/0.1</f>
+        <f t="shared" ref="BF89:BF100" si="41">BE89/0.1</f>
         <v>1110</v>
       </c>
-      <c r="BG89">
-        <f t="shared" si="34"/>
+      <c r="BG89" s="27">
+        <f t="shared" si="36"/>
         <v>116.23892818282235</v>
       </c>
       <c r="BI89">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.0156110183072246E-4</v>
       </c>
       <c r="BJ89">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.3429246440151891E-2</v>
       </c>
     </row>
@@ -19324,11 +20702,11 @@
         <v>7.4</v>
       </c>
       <c r="H90">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.4420000000000002</v>
       </c>
       <c r="I90">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.97680000000000011</v>
       </c>
       <c r="J90">
@@ -19339,26 +20717,26 @@
       <c r="BC90" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BD90">
+      <c r="BD90" s="1">
         <v>0.82</v>
       </c>
       <c r="BE90">
         <v>123</v>
       </c>
       <c r="BF90">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1230</v>
       </c>
-      <c r="BG90">
-        <f t="shared" si="34"/>
+      <c r="BG90" s="27">
+        <f t="shared" si="36"/>
         <v>128.80529879718151</v>
       </c>
       <c r="BI90">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.864440191934183E-4</v>
       </c>
       <c r="BJ90">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.4014977601155688E-2</v>
       </c>
     </row>
@@ -19373,11 +20751,11 @@
         <v>8.9</v>
       </c>
       <c r="H91">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.9370000000000003</v>
       </c>
       <c r="I91">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.97900000000000009</v>
       </c>
       <c r="J91">
@@ -19386,26 +20764,26 @@
       </c>
       <c r="AW91" s="17"/>
       <c r="BC91" s="17"/>
-      <c r="BD91">
+      <c r="BD91" s="1">
         <v>0.84</v>
       </c>
       <c r="BE91">
         <v>138</v>
       </c>
       <c r="BF91">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1380</v>
       </c>
-      <c r="BG91">
-        <f t="shared" si="34"/>
+      <c r="BG91" s="27">
+        <f t="shared" si="36"/>
         <v>144.5132620651305</v>
       </c>
       <c r="BI91">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.7023149578529492E-4</v>
       </c>
       <c r="BJ91">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.4600708762159484E-2</v>
       </c>
     </row>
@@ -19420,11 +20798,11 @@
         <v>10.3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.3990000000000005</v>
       </c>
       <c r="I92">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.97114285714285731</v>
       </c>
       <c r="J92">
@@ -19433,26 +20811,26 @@
       </c>
       <c r="AW92" s="17"/>
       <c r="BC92" s="17"/>
-      <c r="BD92">
+      <c r="BD92" s="1">
         <v>0.86</v>
       </c>
       <c r="BE92">
         <v>144</v>
       </c>
       <c r="BF92">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1440</v>
       </c>
-      <c r="BG92">
-        <f t="shared" si="34"/>
+      <c r="BG92" s="27">
+        <f t="shared" si="36"/>
         <v>150.79644737231007</v>
       </c>
       <c r="BI92">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6702276719410389E-4</v>
       </c>
       <c r="BJ92">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.5186439923163283E-2</v>
       </c>
     </row>
@@ -19467,11 +20845,11 @@
         <v>15.3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.0490000000000004</v>
       </c>
       <c r="I93">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.2622500000000001</v>
       </c>
       <c r="J93">
@@ -19480,26 +20858,26 @@
       </c>
       <c r="AW93" s="17"/>
       <c r="BC93" s="17"/>
-      <c r="BD93">
+      <c r="BD93" s="1">
         <v>0.88</v>
       </c>
       <c r="BE93">
         <v>158</v>
       </c>
       <c r="BF93">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1580</v>
       </c>
-      <c r="BG93">
-        <f t="shared" si="34"/>
+      <c r="BG93" s="27">
+        <f t="shared" si="36"/>
         <v>165.45721308906244</v>
       </c>
       <c r="BI93">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.5576335780715959E-4</v>
       </c>
       <c r="BJ93">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.577217108416708E-2</v>
       </c>
     </row>
@@ -19514,11 +20892,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H94">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.4119999999999999</v>
       </c>
       <c r="I94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.2026666666666666</v>
       </c>
       <c r="J94">
@@ -19527,26 +20905,26 @@
       </c>
       <c r="AW94" s="17"/>
       <c r="BC94" s="17"/>
-      <c r="BD94">
+      <c r="BD94" s="1">
         <v>0.9</v>
       </c>
       <c r="BE94">
         <v>176</v>
       </c>
       <c r="BF94">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1760</v>
       </c>
-      <c r="BG94">
-        <f t="shared" si="34"/>
+      <c r="BG94" s="27">
+        <f t="shared" si="36"/>
         <v>184.30676901060122</v>
       </c>
       <c r="BI94">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.4301103744949697E-4</v>
       </c>
       <c r="BJ94">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.6357902245170879E-2</v>
       </c>
     </row>
@@ -19561,11 +20939,11 @@
         <v>18.8</v>
       </c>
       <c r="H95">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6.2040000000000006</v>
       </c>
       <c r="I95">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.2408000000000001</v>
       </c>
       <c r="J95">
@@ -19574,26 +20952,26 @@
       </c>
       <c r="AW95" s="17"/>
       <c r="BC95" s="17"/>
-      <c r="BD95">
+      <c r="BD95" s="1">
         <v>0.92</v>
       </c>
       <c r="BE95">
         <v>195</v>
       </c>
       <c r="BF95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1950</v>
       </c>
-      <c r="BG95">
-        <f t="shared" si="34"/>
+      <c r="BG95" s="27">
+        <f t="shared" si="36"/>
         <v>204.20352248333657</v>
       </c>
       <c r="BI95">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.319449981984191E-4</v>
       </c>
       <c r="BJ95">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.6943633406174679E-2</v>
       </c>
     </row>
@@ -19608,11 +20986,11 @@
         <v>22.2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7.3260000000000005</v>
       </c>
       <c r="I96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.3320000000000001</v>
       </c>
       <c r="J96">
@@ -19621,26 +20999,26 @@
       </c>
       <c r="AW96" s="17"/>
       <c r="BC96" s="17"/>
-      <c r="BD96">
+      <c r="BD96" s="1">
         <v>0.94</v>
       </c>
       <c r="BE96">
         <v>207</v>
       </c>
       <c r="BF96">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2070</v>
       </c>
-      <c r="BG96">
-        <f t="shared" si="34"/>
+      <c r="BG96" s="27">
+        <f t="shared" si="36"/>
         <v>216.76989309769573</v>
       </c>
       <c r="BI96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.2699810003029941E-4</v>
       </c>
       <c r="BJ96">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.7529364567178471E-2</v>
       </c>
     </row>
@@ -19650,26 +21028,26 @@
       </c>
       <c r="AW97" s="17"/>
       <c r="BC97" s="17"/>
-      <c r="BD97">
+      <c r="BD97" s="1">
         <v>0.96</v>
       </c>
       <c r="BE97">
         <v>222</v>
       </c>
       <c r="BF97">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2220</v>
       </c>
-      <c r="BG97">
-        <f t="shared" si="34"/>
+      <c r="BG97" s="27">
+        <f t="shared" si="36"/>
         <v>232.4778563656447</v>
       </c>
       <c r="BI97">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.2093666109843348E-4</v>
       </c>
       <c r="BJ97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.8115095728182268E-2</v>
       </c>
     </row>
@@ -19686,26 +21064,26 @@
       </c>
       <c r="AW98" s="17"/>
       <c r="BC98" s="17"/>
-      <c r="BD98">
+      <c r="BD98" s="1">
         <v>0.98</v>
       </c>
       <c r="BE98">
         <v>241</v>
       </c>
       <c r="BF98">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2410</v>
       </c>
-      <c r="BG98">
-        <f t="shared" si="34"/>
+      <c r="BG98" s="27">
+        <f t="shared" si="36"/>
         <v>252.37460983838002</v>
       </c>
       <c r="BI98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.137231154416286E-4</v>
       </c>
       <c r="BJ98">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.8700826889186067E-2</v>
       </c>
     </row>
@@ -19715,26 +21093,26 @@
       </c>
       <c r="AW99" s="17"/>
       <c r="BC99" s="17"/>
-      <c r="BD99">
+      <c r="BD99" s="1">
         <v>1</v>
       </c>
       <c r="BE99">
         <v>276</v>
       </c>
       <c r="BF99">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2760</v>
       </c>
-      <c r="BG99">
-        <f t="shared" si="34"/>
+      <c r="BG99" s="27">
+        <f t="shared" si="36"/>
         <v>289.02652413026101</v>
       </c>
       <c r="BI99">
-        <f t="shared" ref="BI99:BI100" si="40">$BA$87*BD99/BG99</f>
+        <f t="shared" ref="BI99:BI100" si="42">$BA$87*BD99/BG99</f>
         <v>1.0132827130077079E-4</v>
       </c>
       <c r="BJ99">
-        <f t="shared" ref="BJ99:BJ100" si="41">BI99*BG99</f>
+        <f t="shared" ref="BJ99:BJ100" si="43">BI99*BG99</f>
         <v>2.9286558050189863E-2</v>
       </c>
     </row>
@@ -19748,36 +21126,36 @@
       </c>
       <c r="AW100" s="17"/>
       <c r="BC100" s="17"/>
-      <c r="BD100">
+      <c r="BD100" s="1">
         <v>1.03</v>
       </c>
       <c r="BE100">
         <v>307</v>
       </c>
       <c r="BF100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3070</v>
       </c>
-      <c r="BG100">
-        <f t="shared" si="34"/>
+      <c r="BG100" s="27">
+        <f t="shared" si="36"/>
         <v>321.48964821735547</v>
       </c>
       <c r="BI100">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.3829319105482502E-5</v>
       </c>
       <c r="BJ100">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.0165154791695559E-2</v>
       </c>
     </row>
     <row r="101" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="G101" s="36" t="s">
+      <c r="G101" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
       <c r="AW101" s="17"/>
       <c r="BC101" s="19"/>
     </row>
@@ -19841,11 +21219,11 @@
         <v>5.4250000000000007</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H116" si="42">0.33*G104</f>
+        <f t="shared" ref="H104:H116" si="44">0.33*G104</f>
         <v>1.7902500000000003</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I113" si="43">H104/F104</f>
+        <f t="shared" ref="I104:I113" si="45">H104/F104</f>
         <v>0.89512500000000017</v>
       </c>
       <c r="J104">
@@ -19863,11 +21241,11 @@
         <v>7.4250000000000007</v>
       </c>
       <c r="H105">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.4502500000000005</v>
       </c>
       <c r="I105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.98010000000000019</v>
       </c>
       <c r="J105">
@@ -19885,11 +21263,11 @@
         <v>8.9250000000000007</v>
       </c>
       <c r="H106">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.9452500000000006</v>
       </c>
       <c r="I106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.98175000000000023</v>
       </c>
       <c r="J106">
@@ -19907,11 +21285,11 @@
         <v>10.925000000000001</v>
       </c>
       <c r="H107">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.6052500000000003</v>
       </c>
       <c r="I107">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0300714285714287</v>
       </c>
       <c r="J107">
@@ -19929,11 +21307,11 @@
         <v>12.425000000000001</v>
       </c>
       <c r="H108">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.1002500000000008</v>
       </c>
       <c r="I108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0250625000000002</v>
       </c>
       <c r="J108">
@@ -19951,11 +21329,11 @@
         <v>14.425000000000001</v>
       </c>
       <c r="H109">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.7602500000000001</v>
       </c>
       <c r="I109">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0578333333333334</v>
       </c>
       <c r="J109">
@@ -19973,11 +21351,11 @@
         <v>15.925000000000001</v>
       </c>
       <c r="H110">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.2552500000000002</v>
       </c>
       <c r="I110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.05105</v>
       </c>
       <c r="J110">
@@ -19995,11 +21373,11 @@
         <v>17.425000000000001</v>
       </c>
       <c r="H111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.7502500000000003</v>
       </c>
       <c r="I111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0455000000000001</v>
       </c>
       <c r="J111">
@@ -20017,11 +21395,11 @@
         <v>18.925000000000001</v>
       </c>
       <c r="H112">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.2452500000000004</v>
       </c>
       <c r="I112">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.040875</v>
       </c>
       <c r="J112">
@@ -20039,11 +21417,11 @@
         <v>20.925000000000001</v>
       </c>
       <c r="H113">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.9052500000000006</v>
       </c>
       <c r="I113">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0623461538461538</v>
       </c>
       <c r="J113">
@@ -20061,7 +21439,7 @@
         <v>22.425000000000001</v>
       </c>
       <c r="H114">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>7.4002500000000007</v>
       </c>
       <c r="I114">
@@ -20083,7 +21461,7 @@
         <v>24.425000000000001</v>
       </c>
       <c r="H115">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8.0602499999999999</v>
       </c>
       <c r="I115">
@@ -20105,7 +21483,7 @@
         <v>27.425000000000001</v>
       </c>
       <c r="H116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.0502500000000001</v>
       </c>
       <c r="I116">
@@ -20210,11 +21588,11 @@
         <v>215</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J135" si="44">I129</f>
+        <f t="shared" ref="J129:J135" si="46">I129</f>
         <v>215</v>
       </c>
       <c r="K129">
-        <f t="shared" ref="K129:K146" si="45">J129*2*PI()/60</f>
+        <f t="shared" ref="K129:K146" si="47">J129*2*PI()/60</f>
         <v>22.51474735072685</v>
       </c>
       <c r="M129">
@@ -20241,15 +21619,15 @@
         <v>325</v>
       </c>
       <c r="J130">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>325</v>
       </c>
       <c r="K130">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>34.033920413889426</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:M146" si="46">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
+        <f t="shared" ref="M130:M146" si="48">$E$132/K130*((H130-$E$131*K130)/$E$130)</f>
         <v>1.6125579522699003E-2</v>
       </c>
       <c r="AW130" s="17"/>
@@ -20269,15 +21647,15 @@
         <v>420</v>
       </c>
       <c r="J131">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>420</v>
       </c>
       <c r="K131">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>43.982297150257104</v>
       </c>
       <c r="M131">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.3732466580216781E-2</v>
       </c>
       <c r="AW131" s="17"/>
@@ -20297,15 +21675,15 @@
         <v>555</v>
       </c>
       <c r="J132">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>555</v>
       </c>
       <c r="K132">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>58.119464091411174</v>
       </c>
       <c r="M132">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.117133763121049E-2</v>
       </c>
       <c r="AW132" s="17"/>
@@ -20320,19 +21698,19 @@
         <v>675</v>
       </c>
       <c r="J133">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>675</v>
       </c>
       <c r="K133">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>70.685834705770347</v>
       </c>
       <c r="M133">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.8784238976240869E-3</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N146" si="47">M133*K133</f>
+        <f t="shared" ref="N133:N146" si="49">M133*K133</f>
         <v>0.69826463878098788</v>
       </c>
       <c r="AW133" s="17"/>
@@ -20346,19 +21724,19 @@
         <v>805</v>
       </c>
       <c r="J134">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>805</v>
       </c>
       <c r="K134">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>84.299402871326109</v>
       </c>
       <c r="M134">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8.8350165554967938E-3</v>
       </c>
       <c r="N134">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.74478661998666007</v>
       </c>
       <c r="AW134" s="17"/>
@@ -20372,19 +21750,19 @@
         <v>930</v>
       </c>
       <c r="J135">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>930</v>
       </c>
       <c r="K135">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>97.389372261283583</v>
       </c>
       <c r="M135">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8.1378884925822244E-3</v>
       </c>
       <c r="N135">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.79254385182490616</v>
       </c>
       <c r="AW135" s="17"/>
@@ -20404,15 +21782,15 @@
         <v>1225</v>
       </c>
       <c r="K136">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>128.28170002158322</v>
       </c>
       <c r="M136">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6.2230432089794658E-3</v>
       </c>
       <c r="N136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.79830256215565443</v>
       </c>
       <c r="AW136" s="17"/>
@@ -20426,19 +21804,19 @@
         <v>138.5</v>
       </c>
       <c r="J137">
-        <f t="shared" ref="J137:J146" si="48">I137/0.1</f>
+        <f t="shared" ref="J137:J146" si="50">I137/0.1</f>
         <v>1385</v>
       </c>
       <c r="K137">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>145.03686084072879</v>
       </c>
       <c r="M137">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5.7737945699575322E-3</v>
       </c>
       <c r="N137">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.83741303956588609</v>
       </c>
       <c r="AW137" s="17"/>
@@ -20452,19 +21830,19 @@
         <v>153</v>
       </c>
       <c r="J138">
+        <f t="shared" si="50"/>
+        <v>1530</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="47"/>
+        <v>160.22122533307945</v>
+      </c>
+      <c r="M138">
         <f t="shared" si="48"/>
-        <v>1530</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="45"/>
-        <v>160.22122533307945</v>
-      </c>
-      <c r="M138">
-        <f t="shared" si="46"/>
         <v>5.4938368311935838E-3</v>
       </c>
       <c r="N138">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.88022926887383834</v>
       </c>
       <c r="AW138" s="17"/>
@@ -20478,19 +21856,19 @@
         <v>169</v>
       </c>
       <c r="J139">
+        <f t="shared" si="50"/>
+        <v>1690</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="47"/>
+        <v>176.97638615222502</v>
+      </c>
+      <c r="M139">
         <f t="shared" si="48"/>
-        <v>1690</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="45"/>
-        <v>176.97638615222502</v>
-      </c>
-      <c r="M139">
-        <f t="shared" si="46"/>
         <v>5.1947028994778228E-3</v>
       </c>
       <c r="N139">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.91933974628407011</v>
       </c>
       <c r="AW139" s="17"/>
@@ -20504,19 +21882,19 @@
         <v>179</v>
       </c>
       <c r="J140">
+        <f t="shared" si="50"/>
+        <v>1790</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="47"/>
+        <v>187.448361664191</v>
+      </c>
+      <c r="M140">
         <f t="shared" si="48"/>
-        <v>1790</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="45"/>
-        <v>187.448361664191</v>
-      </c>
-      <c r="M140">
-        <f t="shared" si="46"/>
         <v>5.1922205275326842E-3</v>
       </c>
       <c r="N140">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.97327323128518317</v>
       </c>
       <c r="AW140" s="17"/>
@@ -20530,19 +21908,19 @@
         <v>191</v>
       </c>
       <c r="J141">
+        <f t="shared" si="50"/>
+        <v>1910</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="47"/>
+        <v>200.01473227855016</v>
+      </c>
+      <c r="M141">
         <f t="shared" si="48"/>
-        <v>1910</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="45"/>
-        <v>200.01473227855016</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="46"/>
         <v>5.1109520889308594E-3</v>
       </c>
       <c r="N141">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0222657137560025</v>
       </c>
       <c r="AW141" s="17"/>
@@ -20556,19 +21934,19 @@
         <v>208</v>
       </c>
       <c r="J142">
+        <f t="shared" si="50"/>
+        <v>2080</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="47"/>
+        <v>217.8170906488923</v>
+      </c>
+      <c r="M142">
         <f t="shared" si="48"/>
-        <v>2080</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="45"/>
-        <v>217.8170906488923</v>
-      </c>
-      <c r="M142">
-        <f t="shared" si="46"/>
         <v>4.8614444658430312E-3</v>
       </c>
       <c r="N142">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0589056899010874</v>
       </c>
       <c r="AW142" s="17"/>
@@ -20582,19 +21960,19 @@
         <v>225</v>
       </c>
       <c r="J143">
+        <f t="shared" si="50"/>
+        <v>2250</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="47"/>
+        <v>235.61944901923451</v>
+      </c>
+      <c r="M143">
         <f t="shared" si="48"/>
-        <v>2250</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="45"/>
-        <v>235.61944901923451</v>
-      </c>
-      <c r="M143">
-        <f t="shared" si="46"/>
         <v>4.6496402169106952E-3</v>
       </c>
       <c r="N143">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.095545666046172</v>
       </c>
       <c r="AW143" s="17"/>
@@ -20608,19 +21986,19 @@
         <v>240</v>
       </c>
       <c r="J144">
+        <f t="shared" si="50"/>
+        <v>2400</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="47"/>
+        <v>251.32741228718345</v>
+      </c>
+      <c r="M144">
         <f t="shared" si="48"/>
-        <v>2400</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="45"/>
-        <v>251.32741228718345</v>
-      </c>
-      <c r="M144">
-        <f t="shared" si="46"/>
         <v>4.524483160723407E-3</v>
       </c>
       <c r="N144">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.1371266447215507</v>
       </c>
       <c r="AW144" s="17"/>
@@ -20634,19 +22012,19 @@
         <v>253</v>
       </c>
       <c r="J145">
+        <f t="shared" si="50"/>
+        <v>2530</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="47"/>
+        <v>264.94098045273921</v>
+      </c>
+      <c r="M145">
         <f t="shared" si="48"/>
-        <v>2530</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="45"/>
-        <v>264.94098045273921</v>
-      </c>
-      <c r="M145">
-        <f t="shared" si="46"/>
         <v>4.4675935897291854E-3</v>
       </c>
       <c r="N145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.1836486259272232</v>
       </c>
     </row>
@@ -20659,19 +22037,19 @@
         <v>269</v>
       </c>
       <c r="J146">
+        <f t="shared" si="50"/>
+        <v>2690</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="47"/>
+        <v>281.69614127188476</v>
+      </c>
+      <c r="M146">
         <f t="shared" si="48"/>
-        <v>2690</v>
-      </c>
-      <c r="K146">
-        <f t="shared" si="45"/>
-        <v>281.69614127188476</v>
-      </c>
-      <c r="M146">
-        <f t="shared" si="46"/>
         <v>4.3407023533108477E-3</v>
       </c>
       <c r="N146">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.2227591033374552</v>
       </c>
     </row>
@@ -20716,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <f t="shared" ref="K155:K161" si="49">J155</f>
+        <f t="shared" ref="K155:K161" si="51">J155</f>
         <v>0</v>
       </c>
     </row>
@@ -20725,7 +22103,7 @@
         <v>325</v>
       </c>
       <c r="K156">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>325</v>
       </c>
     </row>
@@ -20734,7 +22112,7 @@
         <v>420</v>
       </c>
       <c r="K157">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>420</v>
       </c>
     </row>
@@ -20743,7 +22121,7 @@
         <v>555</v>
       </c>
       <c r="K158">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>555</v>
       </c>
     </row>
@@ -20752,7 +22130,7 @@
         <v>675</v>
       </c>
       <c r="K159">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>675</v>
       </c>
     </row>
@@ -20761,7 +22139,7 @@
         <v>805</v>
       </c>
       <c r="K160">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>805</v>
       </c>
     </row>
@@ -20770,7 +22148,7 @@
         <v>930</v>
       </c>
       <c r="K161">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>930</v>
       </c>
     </row>
@@ -20788,7 +22166,7 @@
         <v>138.5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K172" si="50">J163/0.1</f>
+        <f t="shared" ref="K163:K172" si="52">J163/0.1</f>
         <v>1385</v>
       </c>
     </row>
@@ -20797,7 +22175,7 @@
         <v>153</v>
       </c>
       <c r="K164">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1530</v>
       </c>
     </row>
@@ -20806,7 +22184,7 @@
         <v>169</v>
       </c>
       <c r="K165">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1690</v>
       </c>
     </row>
@@ -20815,7 +22193,7 @@
         <v>179</v>
       </c>
       <c r="K166">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1790</v>
       </c>
     </row>
@@ -20824,7 +22202,7 @@
         <v>191</v>
       </c>
       <c r="K167">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1910</v>
       </c>
     </row>
@@ -20833,7 +22211,7 @@
         <v>208</v>
       </c>
       <c r="K168">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2080</v>
       </c>
     </row>
@@ -20842,7 +22220,7 @@
         <v>225</v>
       </c>
       <c r="K169">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2250</v>
       </c>
     </row>
@@ -20851,7 +22229,7 @@
         <v>240</v>
       </c>
       <c r="K170">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2400</v>
       </c>
     </row>
@@ -20860,7 +22238,7 @@
         <v>253</v>
       </c>
       <c r="K171">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2530</v>
       </c>
     </row>
@@ -20869,7 +22247,7 @@
         <v>269</v>
       </c>
       <c r="K172">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2690</v>
       </c>
     </row>

--- a/Test Results/Motor Ra (New tests).xlsb.xlsx
+++ b/Test Results/Motor Ra (New tests).xlsb.xlsx
@@ -579,29 +579,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -629,6 +608,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,7 +2429,7 @@
             <c:numRef>
               <c:f>Sheet1!$BI$8:$BI$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.33</c:v>
@@ -2480,7 +2480,7 @@
             <c:numRef>
               <c:f>Sheet1!$BH$8:$BH$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -2566,7 +2566,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2628,7 +2628,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16045,7 +16045,7 @@
   <dimension ref="A2:CL172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA9" sqref="BA9"/>
+      <selection activeCell="BH8" sqref="BH8:BI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16066,31 +16066,31 @@
   <sheetData>
     <row r="2" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="BA3" s="28" t="s">
+      <c r="BA3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29"/>
-      <c r="BF3" s="29"/>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29"/>
-      <c r="BI3" s="30"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="40"/>
       <c r="CA3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="33"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="43"/>
       <c r="CA4" t="s">
         <v>69</v>
       </c>
@@ -16245,10 +16245,10 @@
       <c r="AY8" t="s">
         <v>59</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" s="1">
         <v>0.33</v>
       </c>
       <c r="BK8" s="1">
@@ -16291,10 +16291,10 @@
       <c r="AZ9">
         <v>0.82</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="1">
         <v>1</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="1">
         <v>0.71</v>
       </c>
       <c r="BK9" s="1">
@@ -16337,10 +16337,10 @@
       <c r="AZ10" s="25">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="1">
         <v>1.5</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="BK10" s="1">
@@ -16384,10 +16384,10 @@
         <f>BG50</f>
         <v>3.656509972088972E-2</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="1">
         <v>2</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="1">
         <v>1.67</v>
       </c>
       <c r="BK11" s="1">
@@ -16431,10 +16431,10 @@
         <f>BC78</f>
         <v>2.9286558050189863E-2</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" s="1">
         <v>2.34</v>
       </c>
       <c r="BK12" s="1">
@@ -16477,10 +16477,10 @@
       <c r="BA13" t="s">
         <v>67</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="1">
         <v>2.98</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" s="1">
         <v>2.94</v>
       </c>
       <c r="BK13" s="1">
@@ -16524,10 +16524,10 @@
         <f>BI102</f>
         <v>1.5999400748723083E-4</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" s="1">
         <v>3.5</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" s="1">
         <v>3.75</v>
       </c>
       <c r="BK14" s="1">
@@ -16565,10 +16565,10 @@
       </c>
       <c r="AW15" s="17"/>
       <c r="AY15" s="5"/>
-      <c r="BH15">
+      <c r="BH15" s="1">
         <v>3.99</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" s="1">
         <v>4.68</v>
       </c>
       <c r="BK15" s="1">
@@ -16606,10 +16606,10 @@
       </c>
       <c r="AW16" s="17"/>
       <c r="AY16" s="5"/>
-      <c r="BH16">
+      <c r="BH16" s="1">
         <v>4.5</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" s="1">
         <v>5.54</v>
       </c>
       <c r="BK16" s="1">
@@ -16640,10 +16640,10 @@
         <v>0.83636363636363631</v>
       </c>
       <c r="AW17" s="17"/>
-      <c r="BH17">
+      <c r="BH17" s="1">
         <v>4.9800000000000004</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" s="1">
         <v>6.11</v>
       </c>
       <c r="BK17" s="1">
@@ -16670,10 +16670,10 @@
         <v>0.79083333333333339</v>
       </c>
       <c r="AW18" s="17"/>
-      <c r="BH18">
+      <c r="BH18" s="1">
         <v>5.54</v>
       </c>
-      <c r="BI18">
+      <c r="BI18" s="1">
         <v>6.46</v>
       </c>
       <c r="BK18" s="1">
@@ -16700,10 +16700,10 @@
         <v>0.7846153846153846</v>
       </c>
       <c r="AW19" s="17"/>
-      <c r="BH19">
+      <c r="BH19" s="1">
         <v>6.02</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" s="1">
         <v>7.4</v>
       </c>
       <c r="BK19" s="1">
@@ -16730,10 +16730,10 @@
         <v>0.78928571428571437</v>
       </c>
       <c r="AW20" s="17"/>
-      <c r="BH20">
+      <c r="BH20" s="1">
         <v>6.51</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" s="1">
         <v>8.26</v>
       </c>
       <c r="BK20" s="1">
@@ -16760,10 +16760,10 @@
         <v>0.77399999999999991</v>
       </c>
       <c r="AW21" s="17"/>
-      <c r="BH21">
+      <c r="BH21" s="1">
         <v>7.01</v>
       </c>
-      <c r="BI21">
+      <c r="BI21" s="1">
         <v>9.14</v>
       </c>
       <c r="BK21" s="1">
@@ -16852,76 +16852,76 @@
       <c r="AW25" s="17"/>
     </row>
     <row r="26" spans="1:90" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
       <c r="AW26" s="17"/>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.3">
       <c r="AW27" s="17"/>
     </row>
     <row r="28" spans="1:90" ht="21" x14ac:dyDescent="0.4">
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
       <c r="R28" t="s">
         <v>24</v>
       </c>
-      <c r="AE28" s="34" t="s">
+      <c r="AE28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AN28" s="34" t="s">
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AN28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="28"/>
       <c r="AW28" s="17"/>
-      <c r="AY28" s="34" t="s">
+      <c r="AY28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
+      <c r="AZ28" s="28"/>
+      <c r="BA28" s="28"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
     </row>
     <row r="29" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AW29" s="17"/>
     </row>
     <row r="30" spans="1:90" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="L30" s="42" t="s">
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="L30" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="44"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
       <c r="AN30" s="2" t="s">
         <v>57</v>
       </c>
@@ -18938,28 +18938,28 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="AW56" s="17"/>
-      <c r="AZ56" s="35" t="s">
+      <c r="AZ56" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="BA56" s="35"/>
-      <c r="BB56" s="35"/>
-      <c r="BC56" s="35"/>
-      <c r="BD56" s="35"/>
-      <c r="BE56" s="35"/>
-      <c r="BF56" s="35"/>
-      <c r="BG56" s="35"/>
+      <c r="BA56" s="44"/>
+      <c r="BB56" s="44"/>
+      <c r="BC56" s="44"/>
+      <c r="BD56" s="44"/>
+      <c r="BE56" s="44"/>
+      <c r="BF56" s="44"/>
+      <c r="BG56" s="44"/>
     </row>
     <row r="57" spans="4:71" ht="21" x14ac:dyDescent="0.4">
-      <c r="H57" s="34" t="s">
+      <c r="H57" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
       <c r="AW57" s="17"/>
     </row>
     <row r="58" spans="4:71" x14ac:dyDescent="0.3">
@@ -20328,10 +20328,10 @@
       </c>
       <c r="Q78" s="4"/>
       <c r="AW78" s="17"/>
-      <c r="BA78" s="36" t="s">
+      <c r="BA78" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BB78" s="37"/>
+      <c r="BB78" s="30"/>
       <c r="BC78" s="6">
         <f>AVERAGE(BC65:BC77)</f>
         <v>2.9286558050189863E-2</v>
@@ -20455,15 +20455,15 @@
     </row>
     <row r="82" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW82" s="17"/>
-      <c r="BB82" s="34" t="s">
+      <c r="BB82" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="BC82" s="34"/>
-      <c r="BD82" s="34"/>
-      <c r="BE82" s="34"/>
-      <c r="BF82" s="34"/>
-      <c r="BG82" s="34"/>
-      <c r="BH82" s="34"/>
+      <c r="BC82" s="28"/>
+      <c r="BD82" s="28"/>
+      <c r="BE82" s="28"/>
+      <c r="BF82" s="28"/>
+      <c r="BG82" s="28"/>
+      <c r="BH82" s="28"/>
     </row>
     <row r="83" spans="4:63" ht="21" x14ac:dyDescent="0.4">
       <c r="AW83" s="17"/>
@@ -20481,15 +20481,15 @@
       <c r="AW84" s="17"/>
     </row>
     <row r="85" spans="4:63" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I85" s="34" t="s">
+      <c r="I85" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
-      <c r="O85" s="34"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
       <c r="AW85" s="17"/>
       <c r="BC85" s="15"/>
       <c r="BD85" s="2" t="s">
@@ -21150,12 +21150,12 @@
       </c>
     </row>
     <row r="101" spans="3:62" x14ac:dyDescent="0.3">
-      <c r="G101" s="38" t="s">
+      <c r="G101" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
       <c r="AW101" s="17"/>
       <c r="BC101" s="19"/>
     </row>
@@ -21531,15 +21531,15 @@
       <c r="AW125" s="17"/>
     </row>
     <row r="126" spans="4:49" ht="21" x14ac:dyDescent="0.4">
-      <c r="I126" s="34" t="s">
+      <c r="I126" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J126" s="34"/>
-      <c r="K126" s="34"/>
-      <c r="L126" s="34"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="34"/>
-      <c r="O126" s="34"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
+      <c r="O126" s="28"/>
       <c r="AW126" s="17"/>
     </row>
     <row r="127" spans="4:49" x14ac:dyDescent="0.3">
@@ -22071,15 +22071,15 @@
       </c>
     </row>
     <row r="152" spans="7:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="I152" s="34" t="s">
+      <c r="I152" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-      <c r="L152" s="34"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="34"/>
-      <c r="O152" s="34"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="28"/>
     </row>
     <row r="154" spans="7:15" x14ac:dyDescent="0.3">
       <c r="J154" s="2" t="s">
@@ -22253,6 +22253,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="BA3:BI4"/>
+    <mergeCell ref="AN26:AU26"/>
+    <mergeCell ref="AN28:AU28"/>
+    <mergeCell ref="AY28:BE28"/>
+    <mergeCell ref="AZ56:BG56"/>
     <mergeCell ref="BB82:BH82"/>
     <mergeCell ref="BA78:BB78"/>
     <mergeCell ref="I152:O152"/>
@@ -22264,11 +22269,6 @@
     <mergeCell ref="H57:O57"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="BA3:BI4"/>
-    <mergeCell ref="AN26:AU26"/>
-    <mergeCell ref="AN28:AU28"/>
-    <mergeCell ref="AY28:BE28"/>
-    <mergeCell ref="AZ56:BG56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
